--- a/Verification/Analytical/sealed_test_hand_calc.xlsx
+++ b/Verification/Analytical/sealed_test_hand_calc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpeacoc\Documents\Visual Studio 2010\Projects\cfast\Verification\Mass_Energy_Balance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpeacoc\Documents\Visual Studio 2010\Projects\cfast\Verification\Analytical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="4800" windowWidth="19635" windowHeight="10995"/>
+    <workbookView xWindow="840" yWindow="5400" windowWidth="19635" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,274 +715,274 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>402.37799999999999</c:v>
+                  <c:v>3219.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>804.76499999999999</c:v>
+                  <c:v>6439.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1207.1600000000001</c:v>
+                  <c:v>9659.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1609.57</c:v>
+                  <c:v>12880.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2011.98</c:v>
+                  <c:v>16102.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2414.41</c:v>
+                  <c:v>19324.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2816.84</c:v>
+                  <c:v>22547.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3219.29</c:v>
+                  <c:v>25771.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3621.74</c:v>
+                  <c:v>28995.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4024.2</c:v>
+                  <c:v>32219.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4426.67</c:v>
+                  <c:v>35445.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4829.16</c:v>
+                  <c:v>38671.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5231.6499999999996</c:v>
+                  <c:v>41897.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5634.15</c:v>
+                  <c:v>45124.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6036.66</c:v>
+                  <c:v>48352.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6439.18</c:v>
+                  <c:v>51580.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6841.7</c:v>
+                  <c:v>54809.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7244.24</c:v>
+                  <c:v>58039.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7646.79</c:v>
+                  <c:v>61269.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8049.34</c:v>
+                  <c:v>64499.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8451.91</c:v>
+                  <c:v>67731.100000000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8854.49</c:v>
+                  <c:v>70963</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9257.07</c:v>
+                  <c:v>74195.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9659.66</c:v>
+                  <c:v>77428.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10062.299999999999</c:v>
+                  <c:v>80662.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10464.9</c:v>
+                  <c:v>83896.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10867.5</c:v>
+                  <c:v>87131.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11270.1</c:v>
+                  <c:v>90367</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11672.8</c:v>
+                  <c:v>93603.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12075.4</c:v>
+                  <c:v>96839.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12478.1</c:v>
+                  <c:v>100077</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12880.8</c:v>
+                  <c:v>103315</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13283.4</c:v>
+                  <c:v>106553</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13686.1</c:v>
+                  <c:v>109793</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14088.8</c:v>
+                  <c:v>113032</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14491.5</c:v>
+                  <c:v>116272</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14894.2</c:v>
+                  <c:v>119513</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15297</c:v>
+                  <c:v>122755</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15699.7</c:v>
+                  <c:v>125997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16102.4</c:v>
+                  <c:v>129240</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>16505.2</c:v>
+                  <c:v>132483</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16908</c:v>
+                  <c:v>135727</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17310.7</c:v>
+                  <c:v>138971</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17713.5</c:v>
+                  <c:v>142216</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>18116.3</c:v>
+                  <c:v>145462</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>18519.099999999999</c:v>
+                  <c:v>148708</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18921.900000000001</c:v>
+                  <c:v>151955</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19324.7</c:v>
+                  <c:v>155203</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>19727.599999999999</c:v>
+                  <c:v>158451</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20130.400000000001</c:v>
+                  <c:v>161699</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20533.2</c:v>
+                  <c:v>164949</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>20936.099999999999</c:v>
+                  <c:v>168199</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21339</c:v>
+                  <c:v>171449</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>21741.8</c:v>
+                  <c:v>174700</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22144.7</c:v>
+                  <c:v>177952</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22547.599999999999</c:v>
+                  <c:v>181204</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>22950.5</c:v>
+                  <c:v>184457</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>23353.4</c:v>
+                  <c:v>187710</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>23756.400000000001</c:v>
+                  <c:v>190964</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>24159.3</c:v>
+                  <c:v>194219</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>24562.2</c:v>
+                  <c:v>197474</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>24965.200000000001</c:v>
+                  <c:v>200730</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25368.1</c:v>
+                  <c:v>203987</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>25771.1</c:v>
+                  <c:v>207244</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>26174.1</c:v>
+                  <c:v>210501</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>26577.1</c:v>
+                  <c:v>213759</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>26980.1</c:v>
+                  <c:v>217018</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>27383.1</c:v>
+                  <c:v>220278</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>27786.1</c:v>
+                  <c:v>223538</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>28189.1</c:v>
+                  <c:v>226798</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>28592.2</c:v>
+                  <c:v>230060</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>28995.200000000001</c:v>
+                  <c:v>233321</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>29398.3</c:v>
+                  <c:v>236584</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>29801.3</c:v>
+                  <c:v>239847</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>30204.400000000001</c:v>
+                  <c:v>243111</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>30607.5</c:v>
+                  <c:v>246375</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>31010.6</c:v>
+                  <c:v>249640</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>31413.7</c:v>
+                  <c:v>252905</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>31816.799999999999</c:v>
+                  <c:v>256171</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>32219.9</c:v>
+                  <c:v>259438</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>32623</c:v>
+                  <c:v>262705</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>33026.199999999997</c:v>
+                  <c:v>265973</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>33429.300000000003</c:v>
+                  <c:v>269241</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>33832.5</c:v>
+                  <c:v>272510</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>34235.599999999999</c:v>
+                  <c:v>275780</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>34638.800000000003</c:v>
+                  <c:v>279050</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>35042</c:v>
+                  <c:v>282321</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>35445.199999999997</c:v>
+                  <c:v>285592</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>35848.400000000001</c:v>
+                  <c:v>288864</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>36251.599999999999</c:v>
+                  <c:v>292136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,11 +997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="223673504"/>
-        <c:axId val="226429744"/>
+        <c:axId val="205504120"/>
+        <c:axId val="205502944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="223673504"/>
+        <c:axId val="205504120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,12 +1058,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226429744"/>
+        <c:crossAx val="205502944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226429744"/>
+        <c:axId val="205502944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223673504"/>
+        <c:crossAx val="205504120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1603,274 +1603,274 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.159600000000001</c:v>
+                  <c:v>29.276399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.319199999999999</c:v>
+                  <c:v>38.552100000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.4787</c:v>
+                  <c:v>47.827100000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.638300000000001</c:v>
+                  <c:v>57.101300000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.797799999999999</c:v>
+                  <c:v>66.374799999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.9574</c:v>
+                  <c:v>75.647599999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.116900000000001</c:v>
+                  <c:v>84.919700000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.276399999999999</c:v>
+                  <c:v>94.191000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.4359</c:v>
+                  <c:v>103.462</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.595400000000001</c:v>
+                  <c:v>112.73099999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.754899999999999</c:v>
+                  <c:v>122.001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.914299999999997</c:v>
+                  <c:v>131.26900000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.073799999999999</c:v>
+                  <c:v>140.53700000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.233199999999997</c:v>
+                  <c:v>149.804</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.392699999999998</c:v>
+                  <c:v>159.07</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.552100000000003</c:v>
+                  <c:v>168.33500000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.711500000000001</c:v>
+                  <c:v>177.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.870899999999999</c:v>
+                  <c:v>186.864</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.030299999999997</c:v>
+                  <c:v>196.12799999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.189700000000002</c:v>
+                  <c:v>205.39</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44.348999999999997</c:v>
+                  <c:v>214.65199999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45.508400000000002</c:v>
+                  <c:v>223.91300000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46.667700000000004</c:v>
+                  <c:v>233.17400000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47.827100000000002</c:v>
+                  <c:v>242.43299999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.986400000000003</c:v>
+                  <c:v>251.69200000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50.145699999999998</c:v>
+                  <c:v>260.95</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.305</c:v>
+                  <c:v>270.20800000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>52.464300000000001</c:v>
+                  <c:v>279.46499999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>53.6235</c:v>
+                  <c:v>288.721</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>54.782800000000002</c:v>
+                  <c:v>297.976</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>55.942100000000003</c:v>
+                  <c:v>307.23099999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>57.101300000000002</c:v>
+                  <c:v>316.48399999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58.2605</c:v>
+                  <c:v>325.73700000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.419699999999999</c:v>
+                  <c:v>334.99</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>60.579000000000001</c:v>
+                  <c:v>344.24099999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>61.738100000000003</c:v>
+                  <c:v>353.49200000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62.897300000000001</c:v>
+                  <c:v>362.74299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>64.0565</c:v>
+                  <c:v>371.99200000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.215699999999998</c:v>
+                  <c:v>381.24099999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>66.374799999999993</c:v>
+                  <c:v>390.48899999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>67.533900000000003</c:v>
+                  <c:v>399.73599999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>68.693100000000001</c:v>
+                  <c:v>408.983</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>69.852199999999996</c:v>
+                  <c:v>418.22800000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>71.011300000000006</c:v>
+                  <c:v>427.47300000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>72.170400000000001</c:v>
+                  <c:v>436.71800000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>73.329499999999996</c:v>
+                  <c:v>445.96100000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>74.488500000000002</c:v>
+                  <c:v>455.20400000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>75.647599999999997</c:v>
+                  <c:v>464.44600000000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>76.806600000000003</c:v>
+                  <c:v>473.68799999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>77.965699999999998</c:v>
+                  <c:v>482.92899999999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>79.124700000000004</c:v>
+                  <c:v>492.16899999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>80.283699999999996</c:v>
+                  <c:v>501.40800000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>81.442700000000002</c:v>
+                  <c:v>510.64600000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>82.601699999999994</c:v>
+                  <c:v>519.88400000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>83.7607</c:v>
+                  <c:v>529.12099999999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>84.919700000000006</c:v>
+                  <c:v>538.35799999999995</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>86.078599999999994</c:v>
+                  <c:v>547.59299999999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>87.2376</c:v>
+                  <c:v>556.82799999999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>88.396500000000003</c:v>
+                  <c:v>566.06200000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>89.555400000000006</c:v>
+                  <c:v>575.29600000000005</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>90.714299999999994</c:v>
+                  <c:v>584.52800000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>91.873199999999997</c:v>
+                  <c:v>593.76</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>93.0321</c:v>
+                  <c:v>602.99099999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>94.191000000000003</c:v>
+                  <c:v>612.22199999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>95.349900000000005</c:v>
+                  <c:v>621.452</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>96.508700000000005</c:v>
+                  <c:v>630.68100000000004</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>97.667500000000004</c:v>
+                  <c:v>639.90899999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>98.826400000000007</c:v>
+                  <c:v>649.13699999999994</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>99.985200000000006</c:v>
+                  <c:v>658.36300000000006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>101.14400000000001</c:v>
+                  <c:v>667.59</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>102.303</c:v>
+                  <c:v>676.81500000000005</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>103.462</c:v>
+                  <c:v>686.04</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>104.62</c:v>
+                  <c:v>695.26400000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>105.779</c:v>
+                  <c:v>704.48699999999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>106.938</c:v>
+                  <c:v>713.70899999999995</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>108.09699999999999</c:v>
+                  <c:v>722.93100000000004</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>109.255</c:v>
+                  <c:v>732.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>110.414</c:v>
+                  <c:v>741.37199999999996</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>111.57299999999999</c:v>
+                  <c:v>750.59199999999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>112.73099999999999</c:v>
+                  <c:v>759.81100000000004</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>113.89</c:v>
+                  <c:v>769.029</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>115.04900000000001</c:v>
+                  <c:v>778.24599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>116.20699999999999</c:v>
+                  <c:v>787.46299999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>117.366</c:v>
+                  <c:v>796.67899999999997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>118.52500000000001</c:v>
+                  <c:v>805.89400000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>119.68300000000001</c:v>
+                  <c:v>815.10900000000004</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>120.842</c:v>
+                  <c:v>824.322</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>122.001</c:v>
+                  <c:v>833.53499999999997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>123.15900000000001</c:v>
+                  <c:v>842.74800000000005</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>124.318</c:v>
+                  <c:v>851.95899999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,11 +1885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226434056"/>
-        <c:axId val="226432880"/>
+        <c:axId val="309248104"/>
+        <c:axId val="309247712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226434056"/>
+        <c:axId val="309248104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1946,12 +1946,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226432880"/>
+        <c:crossAx val="309247712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226432880"/>
+        <c:axId val="309247712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226434056"/>
+        <c:crossAx val="309248104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3524,7 +3524,7 @@
   <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K11" sqref="K11:K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3816,27 +3816,27 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2">
-        <v>21.159600000000001</v>
+        <v>29.276399999999999</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>-8.1161990216007887</v>
+        <v>6.0097839920913998E-4</v>
       </c>
       <c r="I12" s="9">
         <f>H12/(E12+273.15)*100</f>
-        <v>-2.6836992901591339</v>
+        <v>1.9871928954256151E-4</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
-        <v>402.37799999999999</v>
+        <v>3219.29</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="2"/>
-        <v>-2797.6219999999994</v>
+        <v>19.290000000000418</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="3"/>
-        <v>-2.6771502392344493</v>
+        <v>1.8459330143541067E-2</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>31</v>
@@ -3868,27 +3868,27 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="2">
-        <v>22.319199999999999</v>
+        <v>38.552100000000003</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>-16.233391345340717</v>
+        <v>-4.9134534071271219E-4</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" ref="I13:I76" si="8">H13/(E13+273.15)*100</f>
-        <v>-5.2079744590109813</v>
+        <v>-1.5763274170805408E-4</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
-        <v>804.76499999999999</v>
+        <v>6439.18</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="2"/>
-        <v>-5595.2349999999988</v>
+        <v>39.180000000001201</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="3"/>
-        <v>-5.1952042711234903</v>
+        <v>3.6378830083566578E-2</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>37</v>
@@ -3920,27 +3920,27 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="2">
-        <v>23.4787</v>
+        <v>47.827100000000002</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>-24.351677130750833</v>
+        <v>-3.2771307508312475E-3</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="8"/>
-        <v>-7.5866560281444295</v>
+        <v>-1.0209754191597557E-3</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
-        <v>1207.1600000000001</v>
+        <v>9659.66</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="2"/>
-        <v>-8392.8399999999983</v>
+        <v>59.660000000001673</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="3"/>
-        <v>-7.5679350766456253</v>
+        <v>5.3796212804329731E-2</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>33</v>
@@ -3972,27 +3972,27 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="2">
-        <v>24.638300000000001</v>
+        <v>57.101300000000002</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="1"/>
-        <v>-32.470856537395903</v>
+        <v>-7.8565373959023077E-3</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" si="8"/>
-        <v>-9.8319322552133901</v>
+        <v>-2.3789007027917777E-3</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2">
-        <v>1609.57</v>
+        <v>12880.8</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="2"/>
-        <v>-11190.429999999998</v>
+        <v>80.800000000001091</v>
       </c>
       <c r="M15" s="9">
         <f t="shared" si="3"/>
-        <v>-9.8075635407537227</v>
+        <v>7.0815074496057048E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -4018,27 +4018,27 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="2">
-        <v>25.797799999999999</v>
+        <v>66.374799999999993</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="1"/>
-        <v>-40.591129724875145</v>
+        <v>-1.4129724875147076E-2</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="8"/>
-        <v>-11.954779311393164</v>
+        <v>-4.1614447234655082E-3</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
-        <v>2011.98</v>
+        <v>16102.4</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="2"/>
-        <v>-13988.019999999997</v>
+        <v>102.40000000000327</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="3"/>
-        <v>-11.924995737425402</v>
+        <v>8.7297527706737654E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4064,27 +4064,27 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="2">
-        <v>26.9574</v>
+        <v>75.647599999999997</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="1"/>
-        <v>-48.712296852821858</v>
+        <v>-2.209685282186058E-2</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="8"/>
-        <v>-13.964892834986648</v>
+        <v>-6.3347491615944919E-3</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
-        <v>2414.41</v>
+        <v>19324.7</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="2"/>
-        <v>-16785.589999999997</v>
+        <v>124.70000000000437</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="3"/>
-        <v>-13.929950207468877</v>
+        <v>0.10348547717842686</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4110,27 +4110,27 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="2">
-        <v>28.116900000000001</v>
+        <v>84.919700000000006</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="1"/>
-        <v>-56.83455808090342</v>
+        <v>-3.1758080903415475E-2</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="8"/>
-        <v>-15.871076980664842</v>
+        <v>-8.8684589762939737E-3</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2">
-        <v>2816.84</v>
+        <v>22547.599999999999</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="2"/>
-        <v>-19583.159999999996</v>
+        <v>147.60000000000218</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="3"/>
-        <v>-15.831172190784152</v>
+        <v>0.11932093775262909</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4156,27 +4156,27 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="2">
-        <v>29.276399999999999</v>
+        <v>94.191000000000003</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="1"/>
-        <v>-64.957813568821592</v>
+        <v>-4.3213568821585113E-2</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="8"/>
-        <v>-17.681166247676327</v>
+        <v>-1.1762500190686604E-2</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2">
-        <v>3219.29</v>
+        <v>25771.1</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="2"/>
-        <v>-22380.709999999995</v>
+        <v>171.10000000000218</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" si="3"/>
-        <v>-17.636493301812447</v>
+        <v>0.13483057525610889</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4202,27 +4202,27 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="2">
-        <v>30.4359</v>
+        <v>103.462</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="1"/>
-        <v>-73.082063476312271</v>
+        <v>-5.5963476312271609E-2</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="8"/>
-        <v>-19.402250937889555</v>
+        <v>-1.4857508930618416E-2</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2">
-        <v>3621.74</v>
+        <v>28995.200000000001</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="2"/>
-        <v>-25178.259999999995</v>
+        <v>195.20000000000437</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="3"/>
-        <v>-19.353005380476553</v>
+        <v>0.15003843197540689</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4248,27 +4248,27 @@
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="2">
-        <v>31.595400000000001</v>
+        <v>112.73099999999999</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="1"/>
-        <v>-81.207307963145567</v>
+        <v>-7.1707963145570375E-2</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="8"/>
-        <v>-21.040740559047979</v>
+        <v>-1.8579468848400393E-2</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2">
-        <v>4024.2</v>
+        <v>32219.9</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="2"/>
-        <v>-27975.799999999992</v>
+        <v>219.90000000000873</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="3"/>
-        <v>-20.987096774193542</v>
+        <v>0.16496624156039666</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4294,27 +4294,27 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="2">
-        <v>32.754899999999999</v>
+        <v>122.001</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="1"/>
-        <v>-89.33354718912571</v>
+        <v>-8.7447189125697378E-2</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="8"/>
-        <v>-22.602443619655929</v>
+        <v>-2.2125172727402453E-2</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2">
-        <v>4426.67</v>
+        <v>35445.199999999997</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="2"/>
-        <v>-30773.329999999994</v>
+        <v>245.20000000000437</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="3"/>
-        <v>-22.544564102564099</v>
+        <v>0.17963369963370282</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4340,27 +4340,27 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="2">
-        <v>33.914299999999997</v>
+        <v>131.26900000000001</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="1"/>
-        <v>-97.460881314091324</v>
+        <v>-0.10618131409131593</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="8"/>
-        <v>-24.092661178098172</v>
+        <v>-2.624838180564884E-2</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2">
-        <v>4829.16</v>
+        <v>38671.1</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="2"/>
-        <v>-33570.839999999997</v>
+        <v>271.10000000000582</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="3"/>
-        <v>-24.030665712240513</v>
+        <v>0.19405869720830768</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4386,27 +4386,27 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="2">
-        <v>35.073799999999999</v>
+        <v>140.53700000000001</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="1"/>
-        <v>-105.58911049791504</v>
+        <v>-0.12591049791504361</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
-        <v>-25.516146987986986</v>
+        <v>-3.0426913883267546E-2</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
-        <v>5231.6499999999996</v>
+        <v>41897.599999999999</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="2"/>
-        <v>-36368.349999999991</v>
+        <v>297.60000000000582</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="3"/>
-        <v>-25.450209937018887</v>
+        <v>0.20825752274318113</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4432,27 +4432,27 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="2">
-        <v>36.233199999999997</v>
+        <v>149.804</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="1"/>
-        <v>-113.71843490050419</v>
+        <v>-0.14763490050418682</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
-        <v>-26.877332895970969</v>
+        <v>-3.4893483817169453E-2</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2">
-        <v>5634.15</v>
+        <v>45124.7</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="2"/>
-        <v>-39165.849999999991</v>
+        <v>324.70000000000437</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="3"/>
-        <v>-26.807563312799449</v>
+        <v>0.22224503764545128</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -4478,27 +4478,27 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="2">
-        <v>37.392699999999998</v>
+        <v>159.07</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="1"/>
-        <v>-121.84865468179987</v>
+        <v>-0.17135468179986901</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="8"/>
-        <v>-28.180178295070039</v>
+        <v>-3.9629534666799769E-2</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2">
-        <v>6036.66</v>
+        <v>48352.4</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="2"/>
-        <v>-41963.34</v>
+        <v>352.40000000000873</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="3"/>
-        <v>-28.106724715338245</v>
+        <v>0.23603482920295293</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4524,27 +4524,27 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="2">
-        <v>38.552100000000003</v>
+        <v>168.33500000000001</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="1"/>
-        <v>-129.97997000177764</v>
+        <v>-0.19707000177763234</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="8"/>
-        <v>-29.428400840734721</v>
+        <v>-4.4618066967680892E-2</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
-        <v>6439.18</v>
+        <v>51580.7</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="2"/>
-        <v>-44760.819999999992</v>
+        <v>380.70000000000437</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="3"/>
-        <v>-29.351357377049176</v>
+        <v>0.24963934426229795</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4570,27 +4570,27 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="2">
-        <v>39.711500000000001</v>
+        <v>177.6</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="1"/>
-        <v>-138.11228102044743</v>
+        <v>-0.22378102044743287</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="8"/>
-        <v>-30.625346047375938</v>
+        <v>-4.9621736310494401E-2</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2">
-        <v>6841.7</v>
+        <v>54809.599999999999</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="2"/>
-        <v>-47558.299999999996</v>
+        <v>409.60000000000582</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="3"/>
-        <v>-30.544829800899166</v>
+        <v>0.2630700064226113</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4616,27 +4616,27 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="2">
-        <v>40.870899999999999</v>
+        <v>186.864</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="1"/>
-        <v>-146.24558789785323</v>
+        <v>-0.25248789785322856</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="8"/>
-        <v>-31.774111681645927</v>
+        <v>-5.4856893667492711E-2</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2">
-        <v>7244.24</v>
+        <v>58039.1</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="2"/>
-        <v>-50355.759999999995</v>
+        <v>439.10000000000582</v>
       </c>
       <c r="M29" s="9">
         <f t="shared" si="3"/>
-        <v>-31.690220264317176</v>
+        <v>0.27633731906860026</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4662,27 +4662,27 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="2">
-        <v>42.030299999999997</v>
+        <v>196.12799999999999</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="1"/>
-        <v>-154.3798907940735</v>
+        <v>-0.28219079407352865</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="8"/>
-        <v>-32.877550912695895</v>
+        <v>-6.0096830950748963E-2</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2">
-        <v>7646.79</v>
+        <v>61269.1</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="2"/>
-        <v>-53153.209999999992</v>
+        <v>469.10000000000582</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="3"/>
-        <v>-32.790382479950644</v>
+        <v>0.28938926588525959</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4708,27 +4708,27 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="2">
-        <v>43.189700000000002</v>
+        <v>205.39</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="1"/>
-        <v>-162.5151898692211</v>
+        <v>-0.31488986922113327</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="8"/>
-        <v>-33.938295986411504</v>
+        <v>-6.5758933631675356E-2</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2">
-        <v>8049.34</v>
+        <v>64499.8</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="2"/>
-        <v>-55950.659999999989</v>
+        <v>499.80000000001746</v>
       </c>
       <c r="M31" s="9">
         <f t="shared" si="3"/>
-        <v>-33.847949183303079</v>
+        <v>0.30235934664247877</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4754,27 +4754,27 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="2">
-        <v>44.348999999999997</v>
+        <v>214.65199999999999</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="1"/>
-        <v>-170.65158528344301</v>
+        <v>-0.34858528344301476</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="8"/>
-        <v>-34.958799687673171</v>
+        <v>-7.140937529361148E-2</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2">
-        <v>8451.91</v>
+        <v>67731.100000000006</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="2"/>
-        <v>-58748.089999999982</v>
+        <v>531.10000000002037</v>
       </c>
       <c r="M32" s="9">
         <f t="shared" si="3"/>
-        <v>-34.865335311572686</v>
+        <v>0.31519287833829102</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4800,27 +4800,27 @@
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="2">
-        <v>45.508400000000002</v>
+        <v>223.91300000000001</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="1"/>
-        <v>-178.78887719692051</v>
+        <v>-0.38427719692049322</v>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="8"/>
-        <v>-35.941271646792991</v>
+        <v>-7.724983421074641E-2</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2">
-        <v>8854.49</v>
+        <v>70963</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="2"/>
-        <v>-61545.509999999987</v>
+        <v>563.00000000001455</v>
       </c>
       <c r="M33" s="9">
         <f t="shared" si="3"/>
-        <v>-35.844793244030278</v>
+        <v>0.32789749563192461</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4846,27 +4846,27 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="2">
-        <v>46.667700000000004</v>
+        <v>233.17400000000001</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="1"/>
-        <v>-186.92726576986931</v>
+        <v>-0.4209657698692979</v>
       </c>
       <c r="I34" s="9">
         <f t="shared" si="8"/>
-        <v>-36.887838734792595</v>
+        <v>-8.3072511481144792E-2</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2">
-        <v>9257.07</v>
+        <v>74195.5</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="2"/>
-        <v>-64342.929999999986</v>
+        <v>595.50000000001455</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="3"/>
-        <v>-36.788410520297305</v>
+        <v>0.34048027444254692</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4892,27 +4892,27 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="2">
-        <v>47.827100000000002</v>
+        <v>242.43299999999999</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="1"/>
-        <v>-195.06655116253953</v>
+        <v>-0.4606511625395342</v>
       </c>
       <c r="I35" s="9">
         <f t="shared" si="8"/>
-        <v>-37.800397451474304</v>
+        <v>-8.9265929636336477E-2</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2">
-        <v>9659.66</v>
+        <v>77428.600000000006</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="2"/>
-        <v>-67140.339999999982</v>
+        <v>628.60000000002037</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="3"/>
-        <v>-37.698113419427273</v>
+        <v>0.35294778214487388</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4938,27 +4938,27 @@
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="2">
-        <v>48.986400000000003</v>
+        <v>251.69200000000001</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="1"/>
-        <v>-203.2069335352154</v>
+        <v>-0.50133353521539448</v>
       </c>
       <c r="I36" s="9">
         <f t="shared" si="8"/>
-        <v>-38.680786556815384</v>
+        <v>-9.5429693918784364E-2</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2">
-        <v>10062.299999999999</v>
+        <v>80662.3</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="2"/>
-        <v>-69937.699999999983</v>
+        <v>662.30000000001746</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="3"/>
-        <v>-38.575675675675662</v>
+        <v>0.36530612244898925</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4984,27 +4984,27 @@
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="2">
-        <v>50.145699999999998</v>
+        <v>260.95</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="1"/>
-        <v>-211.34831304821583</v>
+        <v>-0.54401304821584517</v>
       </c>
       <c r="I37" s="9">
         <f t="shared" si="8"/>
-        <v>-39.530661129680652</v>
+        <v>-0.10175238755863231</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2">
-        <v>10464.9</v>
+        <v>83896.6</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="2"/>
-        <v>-72735.099999999991</v>
+        <v>696.60000000002037</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="3"/>
-        <v>-39.422818428184279</v>
+        <v>0.37756097560976715</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -5030,27 +5030,27 @@
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="2">
-        <v>51.305</v>
+        <v>270.20800000000003</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="1"/>
-        <v>-219.49068986189383</v>
+        <v>-0.58768986189380712</v>
       </c>
       <c r="I38" s="9">
         <f t="shared" si="8"/>
-        <v>-40.351581776044931</v>
+        <v>-0.10804201096676028</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2">
-        <v>10867.5</v>
+        <v>87131.5</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="2"/>
-        <v>-75532.499999999985</v>
+        <v>731.50000000001455</v>
       </c>
       <c r="M38" s="9">
         <f t="shared" si="3"/>
-        <v>-40.241076185402228</v>
+        <v>0.38971763452318303</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5076,27 +5076,27 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="2">
-        <v>52.464300000000001</v>
+        <v>279.46499999999997</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="1"/>
-        <v>-227.63406413663697</v>
+        <v>-0.63336413663699886</v>
       </c>
       <c r="I39" s="9">
         <f t="shared" si="8"/>
-        <v>-41.145004466821646</v>
+        <v>-0.11448097774773998</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2">
-        <v>11270.1</v>
+        <v>90367</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="2"/>
-        <v>-78329.89999999998</v>
+        <v>767.00000000001455</v>
       </c>
       <c r="M39" s="9">
         <f t="shared" si="3"/>
-        <v>-41.031901519119948</v>
+        <v>0.40178103719225483</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5122,27 +5122,27 @@
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="2">
-        <v>53.6235</v>
+        <v>288.721</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="1"/>
-        <v>-235.77853603286715</v>
+        <v>-0.68103603286715497</v>
       </c>
       <c r="I40" s="9">
         <f t="shared" si="8"/>
-        <v>-41.912306938853881</v>
+        <v>-0.1210618732570662</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2">
-        <v>11672.8</v>
+        <v>93603.1</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="2"/>
-        <v>-81127.199999999983</v>
+        <v>803.10000000002037</v>
       </c>
       <c r="M40" s="9">
         <f t="shared" si="3"/>
-        <v>-41.796599690880981</v>
+        <v>0.41375579598146334</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5168,27 +5168,27 @@
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="2">
-        <v>54.782800000000002</v>
+        <v>297.976</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="1"/>
-        <v>-243.92390571104039</v>
+        <v>-0.73070571104040027</v>
       </c>
       <c r="I41" s="9">
         <f t="shared" si="8"/>
-        <v>-42.654725086723964</v>
+        <v>-0.12777776385989018</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
-        <v>12075.4</v>
+        <v>96839.8</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="2"/>
-        <v>-83924.599999999991</v>
+        <v>839.80000000001746</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="3"/>
-        <v>-42.536543335022806</v>
+        <v>0.42564622402433727</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5214,27 +5214,27 @@
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="2">
-        <v>55.942100000000003</v>
+        <v>307.23099999999999</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="1"/>
-        <v>-252.0702733316476</v>
+        <v>-0.78137333164761458</v>
       </c>
       <c r="I42" s="9">
         <f t="shared" si="8"/>
-        <v>-43.373467536550329</v>
+        <v>-0.13445008959685592</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2">
-        <v>12478.1</v>
+        <v>100077</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="2"/>
-        <v>-86721.89999999998</v>
+        <v>877.00000000001455</v>
       </c>
       <c r="M42" s="9">
         <f t="shared" si="3"/>
-        <v>-43.252817955112214</v>
+        <v>0.43740648379053099</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5260,27 +5260,27 @@
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="2">
-        <v>57.101300000000002</v>
+        <v>316.48399999999998</v>
       </c>
       <c r="H43" s="4">
         <f t="shared" ref="H43:H74" si="10">G43-E43</f>
-        <v>-260.21773905521394</v>
+        <v>-0.83503905521394017</v>
       </c>
       <c r="I43" s="9">
         <f t="shared" si="8"/>
-        <v>-44.069666967056911</v>
+        <v>-0.14141961728426153</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2">
-        <v>12880.8</v>
+        <v>103315</v>
       </c>
       <c r="L43" s="4">
         <f t="shared" ref="L43:L74" si="11">K43-C43</f>
-        <v>-89519.199999999983</v>
+        <v>915.00000000001455</v>
       </c>
       <c r="M43" s="9">
         <f t="shared" ref="M43:M74" si="12">L43/(C43+P0)*100</f>
-        <v>-43.946588119783989</v>
+        <v>0.44918998527246667</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5306,27 +5306,27 @@
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="2">
-        <v>58.2605</v>
+        <v>325.73700000000002</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" si="10"/>
-        <v>-268.36620304229882</v>
+        <v>-0.88970304229877684</v>
       </c>
       <c r="I44" s="9">
         <f t="shared" si="8"/>
-        <v>-44.744352636746633</v>
+        <v>-0.14833904647944141</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2">
-        <v>13283.4</v>
+        <v>106553</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="11"/>
-        <v>-92316.599999999991</v>
+        <v>953.00000000001455</v>
       </c>
       <c r="M44" s="9">
         <f t="shared" si="12"/>
-        <v>-44.618946350894149</v>
+        <v>0.46060898985017618</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5352,27 +5352,27 @@
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="2">
-        <v>59.419699999999999</v>
+        <v>334.99</v>
       </c>
       <c r="H45" s="4">
         <f t="shared" si="10"/>
-        <v>-276.51566545349607</v>
+        <v>-0.94536545349603784</v>
       </c>
       <c r="I45" s="9">
         <f t="shared" si="8"/>
-        <v>-45.398507522441562</v>
+        <v>-0.15521066620803861</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2">
-        <v>13686.1</v>
+        <v>109793</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" si="11"/>
-        <v>-95113.89999999998</v>
+        <v>993.00000000001455</v>
       </c>
       <c r="M45" s="9">
         <f t="shared" si="12"/>
-        <v>-45.270775821037589</v>
+        <v>0.4726320799619298</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -5398,27 +5398,27 @@
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="2">
-        <v>60.579000000000001</v>
+        <v>344.24099999999999</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" si="10"/>
-        <v>-284.66602644943413</v>
+        <v>-1.00402644943415</v>
       </c>
       <c r="I46" s="9">
         <f t="shared" si="8"/>
-        <v>-46.033039444684334</v>
+        <v>-0.16236004600471166</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2">
-        <v>14088.8</v>
+        <v>113032</v>
       </c>
       <c r="L46" s="4">
         <f t="shared" si="11"/>
-        <v>-97911.199999999983</v>
+        <v>1032.0000000000146</v>
       </c>
       <c r="M46" s="9">
         <f t="shared" si="12"/>
-        <v>-45.903047351148608</v>
+        <v>0.48382559774965522</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5444,27 +5444,27 @@
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="2">
-        <v>61.738100000000003</v>
+        <v>353.49200000000002</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" si="10"/>
-        <v>-292.81758619077607</v>
+        <v>-1.0636861907760817</v>
       </c>
       <c r="I47" s="9">
         <f t="shared" si="8"/>
-        <v>-46.648866281224223</v>
+        <v>-0.16945619805215525</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2">
-        <v>14491.5</v>
+        <v>116272</v>
       </c>
       <c r="L47" s="4">
         <f t="shared" si="11"/>
-        <v>-100708.49999999999</v>
+        <v>1072.0000000000146</v>
       </c>
       <c r="M47" s="9">
         <f t="shared" si="12"/>
-        <v>-46.516628175519628</v>
+        <v>0.49515011547344784</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5490,27 +5490,27 @@
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="2">
-        <v>62.897300000000001</v>
+        <v>362.74299999999999</v>
       </c>
       <c r="H48" s="4">
         <f t="shared" si="10"/>
-        <v>-300.970044838219</v>
+        <v>-1.124344838218974</v>
       </c>
       <c r="I48" s="9">
         <f t="shared" si="8"/>
-        <v>-47.246758236175708</v>
+        <v>-0.17650144808922275</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2">
-        <v>14894.2</v>
+        <v>119513</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" si="11"/>
-        <v>-103505.79999999999</v>
+        <v>1113.0000000000146</v>
       </c>
       <c r="M48" s="9">
         <f t="shared" si="12"/>
-        <v>-47.11233500227582</v>
+        <v>0.50659990896677942</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5536,27 +5536,27 @@
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="2">
-        <v>64.0565</v>
+        <v>371.99200000000002</v>
       </c>
       <c r="H49" s="4">
         <f t="shared" si="10"/>
-        <v>-309.12350255249476</v>
+        <v>-1.1880025524947655</v>
       </c>
       <c r="I49" s="9">
         <f t="shared" si="8"/>
-        <v>-47.827503184395006</v>
+        <v>-0.18380742775410247</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2">
-        <v>15297</v>
+        <v>122755</v>
       </c>
       <c r="L49" s="4">
         <f t="shared" si="11"/>
-        <v>-106302.99999999999</v>
+        <v>1155.0000000000146</v>
       </c>
       <c r="M49" s="9">
         <f t="shared" si="12"/>
-        <v>-47.690892777030051</v>
+        <v>0.51816958277255032</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5582,27 +5582,27 @@
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="2">
-        <v>65.215699999999998</v>
+        <v>381.24099999999999</v>
       </c>
       <c r="H50" s="4">
         <f t="shared" si="10"/>
-        <v>-317.27795949436961</v>
+        <v>-1.2526594943695954</v>
       </c>
       <c r="I50" s="9">
         <f t="shared" si="8"/>
-        <v>-48.391829143753704</v>
+        <v>-0.19105797428677077</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2">
-        <v>15699.7</v>
+        <v>125997</v>
       </c>
       <c r="L50" s="4">
         <f t="shared" si="11"/>
-        <v>-109100.29999999997</v>
+        <v>1197.0000000000291</v>
       </c>
       <c r="M50" s="9">
         <f t="shared" si="12"/>
-        <v>-48.253118089340994</v>
+        <v>0.52941176470589524</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5628,27 +5628,27 @@
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="2">
-        <v>66.374799999999993</v>
+        <v>390.48899999999998</v>
       </c>
       <c r="H51" s="4">
         <f t="shared" si="10"/>
-        <v>-325.43351582464419</v>
+        <v>-1.3193158246442067</v>
       </c>
       <c r="I51" s="9">
         <f t="shared" si="8"/>
-        <v>-48.940438532761213</v>
+        <v>-0.19840579375386336</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2">
-        <v>16102.4</v>
+        <v>129240</v>
       </c>
       <c r="L51" s="4">
         <f t="shared" si="11"/>
-        <v>-111897.59999999998</v>
+        <v>1240.0000000000291</v>
       </c>
       <c r="M51" s="9">
         <f t="shared" si="12"/>
-        <v>-48.799651112080241</v>
+        <v>0.54077627562146935</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -5674,27 +5674,27 @@
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="2">
-        <v>67.533900000000003</v>
+        <v>399.73599999999999</v>
       </c>
       <c r="H52" s="4">
         <f t="shared" si="10"/>
-        <v>-333.59007170415373</v>
+        <v>-1.387971704153756</v>
       </c>
       <c r="I52" s="9">
         <f t="shared" si="8"/>
-        <v>-49.473965435895636</v>
+        <v>-0.20584684600027039</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2">
-        <v>16505.2</v>
+        <v>132483</v>
       </c>
       <c r="L52" s="4">
         <f t="shared" si="11"/>
-        <v>-114694.79999999997</v>
+        <v>1283.0000000000291</v>
       </c>
       <c r="M52" s="9">
         <f t="shared" si="12"/>
-        <v>-49.331096774193547</v>
+        <v>0.5518279569892599</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5720,27 +5720,27 @@
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="2">
-        <v>68.693100000000001</v>
+        <v>408.983</v>
       </c>
       <c r="H53" s="4">
         <f t="shared" si="10"/>
-        <v>-341.7475272937682</v>
+        <v>-1.457627293768212</v>
       </c>
       <c r="I53" s="9">
         <f t="shared" si="8"/>
-        <v>-49.993009507268248</v>
+        <v>-0.21323102388614334</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2">
-        <v>16908</v>
+        <v>135727</v>
       </c>
       <c r="L53" s="4">
         <f t="shared" si="11"/>
-        <v>-117491.99999999997</v>
+        <v>1327.0000000000291</v>
       </c>
       <c r="M53" s="9">
         <f t="shared" si="12"/>
-        <v>-49.848112006788284</v>
+        <v>0.56300381841324965</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5766,27 +5766,27 @@
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="2">
-        <v>69.852199999999996</v>
+        <v>418.22800000000001</v>
       </c>
       <c r="H54" s="4">
         <f t="shared" si="10"/>
-        <v>-349.90608275439178</v>
+        <v>-1.5302827543917488</v>
       </c>
       <c r="I54" s="9">
         <f t="shared" si="8"/>
-        <v>-50.498181572238401</v>
+        <v>-0.22084925126146498</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2">
-        <v>17310.7</v>
+        <v>138971</v>
       </c>
       <c r="L54" s="4">
         <f t="shared" si="11"/>
-        <v>-120289.29999999997</v>
+        <v>1371.0000000000291</v>
       </c>
       <c r="M54" s="9">
         <f t="shared" si="12"/>
-        <v>-50.351318543323565</v>
+        <v>0.57388028463793606</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5812,27 +5812,27 @@
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="2">
-        <v>71.011300000000006</v>
+        <v>427.47300000000001</v>
       </c>
       <c r="H55" s="4">
         <f t="shared" si="10"/>
-        <v>-358.06563824696309</v>
+        <v>-1.6039382469630823</v>
       </c>
       <c r="I55" s="9">
         <f t="shared" si="8"/>
-        <v>-50.990017435223564</v>
+        <v>-0.22840739362223103</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2">
-        <v>17713.5</v>
+        <v>142216</v>
       </c>
       <c r="L55" s="4">
         <f t="shared" si="11"/>
-        <v>-123086.49999999997</v>
+        <v>1416.0000000000291</v>
       </c>
       <c r="M55" s="9">
         <f t="shared" si="12"/>
-        <v>-50.841181330028903</v>
+        <v>0.58488228004957843</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -5858,27 +5858,27 @@
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="2">
-        <v>72.170400000000001</v>
+        <v>436.71800000000002</v>
       </c>
       <c r="H56" s="4">
         <f t="shared" si="10"/>
-        <v>-366.22619393245566</v>
+        <v>-1.6785939324556125</v>
       </c>
       <c r="I56" s="9">
         <f t="shared" si="8"/>
-        <v>-51.469038999745408</v>
+        <v>-0.23590780235186606</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2">
-        <v>18116.3</v>
+        <v>145462</v>
       </c>
       <c r="L56" s="4">
         <f t="shared" si="11"/>
-        <v>-125883.69999999997</v>
+        <v>1462.0000000000291</v>
       </c>
       <c r="M56" s="9">
         <f t="shared" si="12"/>
-        <v>-51.31826335099877</v>
+        <v>0.59600489196902939</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -5904,27 +5904,27 @@
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="2">
-        <v>73.329499999999996</v>
+        <v>445.96100000000001</v>
       </c>
       <c r="H57" s="4">
         <f t="shared" si="10"/>
-        <v>-374.3877499718771</v>
+        <v>-1.7562499718770823</v>
       </c>
       <c r="I57" s="9">
         <f t="shared" si="8"/>
-        <v>-51.935741287523186</v>
+        <v>-0.24363015131365703</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2">
-        <v>18519.099999999999</v>
+        <v>148708</v>
       </c>
       <c r="L57" s="4">
         <f t="shared" si="11"/>
-        <v>-128680.89999999997</v>
+        <v>1508.0000000000291</v>
       </c>
       <c r="M57" s="9">
         <f t="shared" si="12"/>
-        <v>-51.783058350100596</v>
+        <v>0.60684104627767776</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -5950,27 +5950,27 @@
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="2">
-        <v>74.488500000000002</v>
+        <v>455.20400000000001</v>
       </c>
       <c r="H58" s="4">
         <f t="shared" si="10"/>
-        <v>-382.55040652627025</v>
+        <v>-1.8349065262702311</v>
       </c>
       <c r="I58" s="9">
         <f t="shared" si="8"/>
-        <v>-52.390607842315553</v>
+        <v>-0.25129203003089118</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2">
-        <v>18921.900000000001</v>
+        <v>151955</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="11"/>
-        <v>-131478.09999999998</v>
+        <v>1555.0000000000291</v>
       </c>
       <c r="M58" s="9">
         <f t="shared" si="12"/>
-        <v>-52.236034962256653</v>
+        <v>0.61779896702424686</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -5996,27 +5996,27 @@
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="2">
-        <v>75.647599999999997</v>
+        <v>464.44600000000003</v>
       </c>
       <c r="H59" s="4">
         <f t="shared" si="10"/>
-        <v>-390.71396375671179</v>
+        <v>-1.9155637567117765</v>
       </c>
       <c r="I59" s="9">
         <f t="shared" si="8"/>
-        <v>-52.834057356978782</v>
+        <v>-0.25903094023043138</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2">
-        <v>19324.7</v>
+        <v>155203</v>
       </c>
       <c r="L59" s="4">
         <f t="shared" si="11"/>
-        <v>-134275.29999999996</v>
+        <v>1603.0000000000291</v>
       </c>
       <c r="M59" s="9">
         <f t="shared" si="12"/>
-        <v>-52.677638289525298</v>
+        <v>0.62887406826207504</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -6042,27 +6042,27 @@
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="2">
-        <v>76.806600000000003</v>
+        <v>473.68799999999999</v>
       </c>
       <c r="H60" s="4">
         <f t="shared" si="10"/>
-        <v>-398.87862182431331</v>
+        <v>-1.9972218243133284</v>
       </c>
       <c r="I60" s="9">
         <f t="shared" si="8"/>
-        <v>-53.266541182793823</v>
+        <v>-0.26671045459743387</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2">
-        <v>19727.599999999999</v>
+        <v>158451</v>
       </c>
       <c r="L60" s="4">
         <f t="shared" si="11"/>
-        <v>-137072.39999999997</v>
+        <v>1651.0000000000291</v>
       </c>
       <c r="M60" s="9">
         <f t="shared" si="12"/>
-        <v>-53.108252615265393</v>
+        <v>0.63967454475010821</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -6088,27 +6088,27 @@
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="2">
-        <v>77.965699999999998</v>
+        <v>482.92899999999997</v>
       </c>
       <c r="H61" s="4">
         <f t="shared" si="10"/>
-        <v>-407.04418089022101</v>
+        <v>-2.0808808902210103</v>
       </c>
       <c r="I61" s="9">
         <f t="shared" si="8"/>
-        <v>-53.688435796981935</v>
+        <v>-0.27446465352105792</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2">
-        <v>20130.400000000001</v>
+        <v>161699</v>
       </c>
       <c r="L61" s="4">
         <f t="shared" si="11"/>
-        <v>-139869.59999999998</v>
+        <v>1699.0000000000291</v>
       </c>
       <c r="M61" s="9">
         <f t="shared" si="12"/>
-        <v>-53.528358208955218</v>
+        <v>0.65021048603139275</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -6134,27 +6134,27 @@
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="2">
-        <v>79.124700000000004</v>
+        <v>492.16899999999998</v>
       </c>
       <c r="H62" s="4">
         <f t="shared" si="10"/>
-        <v>-415.21084111561566</v>
+        <v>-2.1665411156157006</v>
       </c>
       <c r="I62" s="9">
         <f t="shared" si="8"/>
-        <v>-54.10015158227813</v>
+        <v>-0.28229080543542495</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2">
-        <v>20533.2</v>
+        <v>164949</v>
       </c>
       <c r="L62" s="4">
         <f t="shared" si="11"/>
-        <v>-142666.79999999996</v>
+        <v>1749.0000000000291</v>
       </c>
       <c r="M62" s="9">
         <f t="shared" si="12"/>
-        <v>-53.938298676748566</v>
+        <v>0.66124763705105072</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -6180,27 +6180,27 @@
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="2">
-        <v>80.283699999999996</v>
+        <v>501.40800000000002</v>
       </c>
       <c r="H63" s="4">
         <f t="shared" si="10"/>
-        <v>-423.37850266171228</v>
+        <v>-2.2542026617122701</v>
       </c>
       <c r="I63" s="9">
         <f t="shared" si="8"/>
-        <v>-54.502040674827811</v>
+        <v>-0.2901863093793256</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2">
-        <v>20936.099999999999</v>
+        <v>168199</v>
       </c>
       <c r="L63" s="4">
         <f t="shared" si="11"/>
-        <v>-145463.89999999997</v>
+        <v>1799.0000000000291</v>
       </c>
       <c r="M63" s="9">
         <f t="shared" si="12"/>
-        <v>-54.338401195367936</v>
+        <v>0.67202091893912186</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -6226,27 +6226,27 @@
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="2">
-        <v>81.442700000000002</v>
+        <v>510.64600000000002</v>
       </c>
       <c r="H64" s="4">
         <f t="shared" si="10"/>
-        <v>-431.54716568976136</v>
+        <v>-2.3438656897613441</v>
       </c>
       <c r="I64" s="9">
         <f t="shared" si="8"/>
-        <v>-54.8944512960325</v>
+        <v>-0.29814868728287047</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2">
-        <v>21339</v>
+        <v>171449</v>
       </c>
       <c r="L64" s="4">
         <f t="shared" si="11"/>
-        <v>-148260.99999999997</v>
+        <v>1849.0000000000291</v>
       </c>
       <c r="M64" s="9">
         <f t="shared" si="12"/>
-        <v>-54.72905131044665</v>
+        <v>0.68253968253969333</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -6272,27 +6272,27 @@
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="2">
-        <v>82.601699999999994</v>
+        <v>519.88400000000001</v>
       </c>
       <c r="H65" s="4">
         <f t="shared" si="10"/>
-        <v>-439.7168303610469</v>
+        <v>-2.4345303610468818</v>
       </c>
       <c r="I65" s="9">
         <f t="shared" si="8"/>
-        <v>-55.277715406474783</v>
+        <v>-0.30604986471833129</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2">
-        <v>21741.8</v>
+        <v>174700</v>
       </c>
       <c r="L65" s="4">
         <f t="shared" si="11"/>
-        <v>-151058.19999999998</v>
+        <v>1900.0000000000291</v>
       </c>
       <c r="M65" s="9">
         <f t="shared" si="12"/>
-        <v>-55.110616563298066</v>
+        <v>0.69317767238235284</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -6318,27 +6318,27 @@
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="2">
-        <v>83.7607</v>
+        <v>529.12099999999998</v>
       </c>
       <c r="H66" s="4">
         <f t="shared" si="10"/>
-        <v>-447.88749683688849</v>
+        <v>-2.5271968368884927</v>
       </c>
       <c r="I66" s="9">
         <f t="shared" si="8"/>
-        <v>-55.652149644125458</v>
+        <v>-0.31401621509853972</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2">
-        <v>22144.7</v>
+        <v>177952</v>
       </c>
       <c r="L66" s="4">
         <f t="shared" si="11"/>
-        <v>-153855.29999999996</v>
+        <v>1952.0000000000291</v>
       </c>
       <c r="M66" s="9">
         <f t="shared" si="12"/>
-        <v>-55.483339343671098</v>
+        <v>0.7039307609087736</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -6364,27 +6364,27 @@
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="2">
-        <v>84.919700000000006</v>
+        <v>538.35799999999995</v>
       </c>
       <c r="H67" s="4">
         <f t="shared" si="10"/>
-        <v>-456.05916527863974</v>
+        <v>-2.6208652786398261</v>
       </c>
       <c r="I67" s="9">
         <f t="shared" si="8"/>
-        <v>-56.018056198333063</v>
+        <v>-0.32192265750739862</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2">
-        <v>22547.599999999999</v>
+        <v>181204</v>
       </c>
       <c r="L67" s="4">
         <f t="shared" si="11"/>
-        <v>-156652.39999999997</v>
+        <v>2004.0000000000291</v>
       </c>
       <c r="M67" s="9">
         <f t="shared" si="12"/>
-        <v>-55.847557932263804</v>
+        <v>0.71443850267380715</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -6410,27 +6410,27 @@
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="2">
-        <v>86.078599999999994</v>
+        <v>547.59299999999996</v>
       </c>
       <c r="H68" s="4">
         <f t="shared" si="10"/>
-        <v>-464.23193584768904</v>
+        <v>-2.7175358476890779</v>
       </c>
       <c r="I68" s="9">
         <f t="shared" si="8"/>
-        <v>-56.375735768539059</v>
+        <v>-0.33001409653367114</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2">
-        <v>22950.5</v>
+        <v>184457</v>
       </c>
       <c r="L68" s="4">
         <f t="shared" si="11"/>
-        <v>-159449.49999999997</v>
+        <v>2057.0000000000291</v>
       </c>
       <c r="M68" s="9">
         <f t="shared" si="12"/>
-        <v>-56.203560098695796</v>
+        <v>0.72506168487840295</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -6456,27 +6456,27 @@
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="2">
-        <v>87.2376</v>
+        <v>556.82799999999997</v>
       </c>
       <c r="H69" s="4">
         <f t="shared" si="10"/>
-        <v>-472.40560870545988</v>
+        <v>-2.8152087054598951</v>
       </c>
       <c r="I69" s="9">
         <f t="shared" si="8"/>
-        <v>-56.725439613009513</v>
+        <v>-0.33804414781864184</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2">
-        <v>23353.4</v>
+        <v>187710</v>
       </c>
       <c r="L69" s="4">
         <f t="shared" si="11"/>
-        <v>-162246.59999999998</v>
+        <v>2110.0000000000291</v>
       </c>
       <c r="M69" s="9">
         <f t="shared" si="12"/>
-        <v>-56.55162077378877</v>
+        <v>0.73544789125131715</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6502,27 +6502,27 @@
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="2">
-        <v>88.396500000000003</v>
+        <v>566.06200000000001</v>
       </c>
       <c r="H70" s="4">
         <f t="shared" si="10"/>
-        <v>-480.58038401340974</v>
+        <v>-2.9148840134097327</v>
       </c>
       <c r="I70" s="9">
         <f t="shared" si="8"/>
-        <v>-57.067455408032927</v>
+        <v>-0.34613358969351193</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2">
-        <v>23756.400000000001</v>
+        <v>190964</v>
       </c>
       <c r="L70" s="4">
         <f t="shared" si="11"/>
-        <v>-165043.59999999998</v>
+        <v>2164.0000000000291</v>
       </c>
       <c r="M70" s="9">
         <f t="shared" si="12"/>
-        <v>-56.891968286797642</v>
+        <v>0.74594967252672495</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -6548,27 +6548,27 @@
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="2">
-        <v>89.555400000000006</v>
+        <v>575.29600000000005</v>
       </c>
       <c r="H71" s="4">
         <f t="shared" si="10"/>
-        <v>-488.75616193303102</v>
+        <v>-3.0155619330309946</v>
       </c>
       <c r="I71" s="9">
         <f t="shared" si="8"/>
-        <v>-57.402023037121261</v>
+        <v>-0.3541630142627829</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2">
-        <v>24159.3</v>
+        <v>194219</v>
       </c>
       <c r="L71" s="4">
         <f t="shared" si="11"/>
-        <v>-167840.69999999998</v>
+        <v>2219.0000000000291</v>
       </c>
       <c r="M71" s="9">
         <f t="shared" si="12"/>
-        <v>-57.22492328673713</v>
+        <v>0.75656324582339896</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6594,27 +6594,27 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="2">
-        <v>90.714299999999994</v>
+        <v>584.52800000000002</v>
       </c>
       <c r="H72" s="4">
         <f t="shared" si="10"/>
-        <v>-496.93294262585118</v>
+        <v>-3.1192426258511432</v>
       </c>
       <c r="I72" s="9">
         <f t="shared" si="8"/>
-        <v>-57.729383647880127</v>
+        <v>-0.36236670744157273</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2">
-        <v>24562.2</v>
+        <v>197474</v>
       </c>
       <c r="L72" s="4">
         <f t="shared" si="11"/>
-        <v>-170637.79999999996</v>
+        <v>2274.0000000000291</v>
       </c>
       <c r="M72" s="9">
         <f t="shared" si="12"/>
-        <v>-57.550691399662725</v>
+        <v>0.76694772344014472</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -6640,27 +6640,27 @@
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="2">
-        <v>91.873199999999997</v>
+        <v>593.76</v>
       </c>
       <c r="H73" s="4">
         <f t="shared" si="10"/>
-        <v>-505.11072625343172</v>
+        <v>-3.2239262534317277</v>
       </c>
       <c r="I73" s="9">
         <f t="shared" si="8"/>
-        <v>-58.049768088954522</v>
+        <v>-0.3705092004989517</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2">
-        <v>24965.200000000001</v>
+        <v>200730</v>
       </c>
       <c r="L73" s="4">
         <f t="shared" si="11"/>
-        <v>-173434.79999999996</v>
+        <v>2330.0000000000291</v>
       </c>
       <c r="M73" s="9">
         <f t="shared" si="12"/>
-        <v>-57.869469469469458</v>
+        <v>0.77744411077745379</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -6686,27 +6686,27 @@
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="2">
-        <v>93.0321</v>
+        <v>602.99099999999999</v>
       </c>
       <c r="H74" s="4">
         <f t="shared" si="10"/>
-        <v>-513.28951297736933</v>
+        <v>-3.3306129773693556</v>
       </c>
       <c r="I74" s="9">
         <f t="shared" si="8"/>
-        <v>-58.363397454032139</v>
+        <v>-0.37870613766530514</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2">
-        <v>25368.1</v>
+        <v>203987</v>
       </c>
       <c r="L74" s="4">
         <f t="shared" si="11"/>
-        <v>-176231.89999999997</v>
+        <v>2387.0000000000291</v>
       </c>
       <c r="M74" s="9">
         <f t="shared" si="12"/>
-        <v>-58.181545064377673</v>
+        <v>0.78804886101024407</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -6732,27 +6732,27 @@
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="2">
-        <v>94.191000000000003</v>
+        <v>612.22199999999998</v>
       </c>
       <c r="H75" s="4">
         <f t="shared" ref="H75:H101" si="18">G75-E75</f>
-        <v>-521.46930295929542</v>
+        <v>-3.4383029592954699</v>
       </c>
       <c r="I75" s="9">
         <f t="shared" si="8"/>
-        <v>-58.670483591725088</v>
+        <v>-0.38684328341465374</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2">
-        <v>25771.1</v>
+        <v>207244</v>
       </c>
       <c r="L75" s="4">
         <f t="shared" ref="L75:L101" si="19">K75-C75</f>
-        <v>-179028.89999999997</v>
+        <v>2444.0000000000291</v>
       </c>
       <c r="M75" s="9">
         <f t="shared" ref="M75:M101" si="20">L75/(C75+P0)*100</f>
-        <v>-58.487063051290413</v>
+        <v>0.79843188500490991</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -6778,27 +6778,27 @@
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="2">
-        <v>95.349900000000005</v>
+        <v>621.452</v>
       </c>
       <c r="H76" s="4">
         <f t="shared" si="18"/>
-        <v>-529.65009636087564</v>
+        <v>-3.5479963608756862</v>
       </c>
       <c r="I76" s="9">
         <f t="shared" si="8"/>
-        <v>-58.971229583801367</v>
+        <v>-0.39503383346339233</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2">
-        <v>26174.1</v>
+        <v>210501</v>
       </c>
       <c r="L76" s="4">
         <f t="shared" si="19"/>
-        <v>-181825.89999999997</v>
+        <v>2501.0000000000291</v>
       </c>
       <c r="M76" s="9">
         <f t="shared" si="20"/>
-        <v>-58.78625929518266</v>
+        <v>0.80860006466214973</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -6824,27 +6824,27 @@
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="2">
-        <v>96.508700000000005</v>
+        <v>630.68100000000004</v>
       </c>
       <c r="H77" s="4">
         <f t="shared" si="18"/>
-        <v>-537.83199334381106</v>
+        <v>-3.659693343811</v>
       </c>
       <c r="I77" s="9">
         <f t="shared" ref="I77:I101" si="24">H77/(E77+273.15)*100</f>
-        <v>-59.265841213431436</v>
+        <v>-0.40327612951337372</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2">
-        <v>26577.1</v>
+        <v>213759</v>
       </c>
       <c r="L77" s="4">
         <f t="shared" si="19"/>
-        <v>-184622.89999999997</v>
+        <v>2559.0000000000291</v>
       </c>
       <c r="M77" s="9">
         <f t="shared" si="20"/>
-        <v>-59.07932799999999</v>
+        <v>0.81888000000000938</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -6870,27 +6870,27 @@
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="2">
-        <v>97.667500000000004</v>
+        <v>639.90899999999999</v>
       </c>
       <c r="H78" s="4">
         <f t="shared" si="18"/>
-        <v>-546.01489406983694</v>
+        <v>-3.7733940698369679</v>
       </c>
       <c r="I78" s="9">
         <f t="shared" si="24"/>
-        <v>-59.554494103994969</v>
+        <v>-0.41156858049995348</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2">
-        <v>26980.1</v>
+        <v>217018</v>
       </c>
       <c r="L78" s="4">
         <f t="shared" si="19"/>
-        <v>-187419.89999999997</v>
+        <v>2618.0000000000291</v>
       </c>
       <c r="M78" s="9">
         <f t="shared" si="20"/>
-        <v>-59.366455495723777</v>
+        <v>0.82926829268293611</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -6916,27 +6916,27 @@
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="2">
-        <v>98.826400000000007</v>
+        <v>649.13699999999994</v>
       </c>
       <c r="H79" s="4">
         <f t="shared" si="18"/>
-        <v>-554.1986987007233</v>
+        <v>-3.8880987007233898</v>
       </c>
       <c r="I79" s="9">
         <f t="shared" si="24"/>
-        <v>-59.837356832220614</v>
+        <v>-0.41980168827447156</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2">
-        <v>27383.1</v>
+        <v>220278</v>
       </c>
       <c r="L79" s="4">
         <f t="shared" si="19"/>
-        <v>-190216.89999999997</v>
+        <v>2678.0000000000291</v>
       </c>
       <c r="M79" s="9">
         <f t="shared" si="20"/>
-        <v>-59.647820633427393</v>
+        <v>0.83976168077768232</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -6962,27 +6962,27 @@
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="2">
-        <v>99.985200000000006</v>
+        <v>658.36300000000006</v>
       </c>
       <c r="H80" s="4">
         <f t="shared" si="18"/>
-        <v>-562.38360739827533</v>
+        <v>-4.0058073982752376</v>
       </c>
       <c r="I80" s="9">
         <f t="shared" si="24"/>
-        <v>-60.114623345979787</v>
+        <v>-0.42819100659404047</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2">
-        <v>27786.1</v>
+        <v>223538</v>
       </c>
       <c r="L80" s="4">
         <f t="shared" si="19"/>
-        <v>-193013.89999999997</v>
+        <v>2738.0000000000291</v>
       </c>
       <c r="M80" s="9">
         <f t="shared" si="20"/>
-        <v>-59.923595156783591</v>
+        <v>0.85004656938839762</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -7008,27 +7008,27 @@
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="2">
-        <v>101.14400000000001</v>
+        <v>667.59</v>
       </c>
       <c r="H81" s="4">
         <f t="shared" si="18"/>
-        <v>-570.56952032433253</v>
+        <v>-4.1235203243325032</v>
       </c>
       <c r="I81" s="9">
         <f t="shared" si="24"/>
-        <v>-60.386448206665833</v>
+        <v>-0.43641438531959298</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2">
-        <v>28189.1</v>
+        <v>226798</v>
       </c>
       <c r="L81" s="4">
         <f t="shared" si="19"/>
-        <v>-195810.89999999997</v>
+        <v>2798.0000000000291</v>
       </c>
       <c r="M81" s="9">
         <f t="shared" si="20"/>
-        <v>-60.193944051644621</v>
+        <v>0.86012911158931116</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -7054,27 +7054,27 @@
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="2">
-        <v>102.303</v>
+        <v>676.81500000000005</v>
       </c>
       <c r="H82" s="4">
         <f t="shared" si="18"/>
-        <v>-578.75623764076954</v>
+        <v>-4.2442376407694837</v>
       </c>
       <c r="I82" s="9">
         <f t="shared" si="24"/>
-        <v>-60.652969475721378</v>
+        <v>-0.44479108704324966</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2">
-        <v>28592.2</v>
+        <v>230060</v>
       </c>
       <c r="L82" s="4">
         <f t="shared" si="19"/>
-        <v>-198607.79999999996</v>
+        <v>2860.0000000000291</v>
       </c>
       <c r="M82" s="9">
         <f t="shared" si="20"/>
-        <v>-60.458995433789944</v>
+        <v>0.87062404870624932</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -7100,27 +7100,27 @@
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="2">
-        <v>103.462</v>
+        <v>686.04</v>
       </c>
       <c r="H83" s="4">
         <f t="shared" si="18"/>
-        <v>-586.9439595094957</v>
+        <v>-4.365959509495724</v>
       </c>
       <c r="I83" s="9">
         <f t="shared" si="24"/>
-        <v>-60.914361404425676</v>
+        <v>-0.45310907647940274</v>
       </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2">
-        <v>28995.200000000001</v>
+        <v>233321</v>
       </c>
       <c r="L83" s="4">
         <f t="shared" si="19"/>
-        <v>-201404.79999999996</v>
+        <v>2921.0000000000291</v>
       </c>
       <c r="M83" s="9">
         <f t="shared" si="20"/>
-        <v>-60.71896291829966</v>
+        <v>0.88061501356648442</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -7146,27 +7146,27 @@
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="2">
-        <v>104.62</v>
+        <v>695.26400000000001</v>
       </c>
       <c r="H84" s="4">
         <f t="shared" si="18"/>
-        <v>-595.13368609245515</v>
+        <v>-4.4896860924551447</v>
       </c>
       <c r="I84" s="9">
         <f t="shared" si="24"/>
-        <v>-61.170873807944389</v>
+        <v>-0.46147282168159959</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2">
-        <v>29398.3</v>
+        <v>236584</v>
       </c>
       <c r="L84" s="4">
         <f t="shared" si="19"/>
-        <v>-204201.69999999998</v>
+        <v>2984.0000000000291</v>
       </c>
       <c r="M84" s="9">
         <f t="shared" si="20"/>
-        <v>-60.973932517169295</v>
+        <v>0.89101224246044464</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -7192,27 +7192,27 @@
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="2">
-        <v>105.779</v>
+        <v>704.48699999999997</v>
       </c>
       <c r="H85" s="4">
         <f t="shared" si="18"/>
-        <v>-603.32341755162633</v>
+        <v>-4.6154175516263649</v>
       </c>
       <c r="I85" s="9">
         <f t="shared" si="24"/>
-        <v>-61.422441601668666</v>
+        <v>-0.46988100707665431</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2">
-        <v>29801.3</v>
+        <v>239847</v>
       </c>
       <c r="L85" s="4">
         <f t="shared" si="19"/>
-        <v>-206998.69999999998</v>
+        <v>3047.0000000000291</v>
       </c>
       <c r="M85" s="9">
         <f t="shared" si="20"/>
-        <v>-61.224105294291618</v>
+        <v>0.90121265897664271</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -7238,27 +7238,27 @@
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="2">
-        <v>106.938</v>
+        <v>713.70899999999995</v>
       </c>
       <c r="H86" s="4">
         <f t="shared" si="18"/>
-        <v>-611.51415404902343</v>
+        <v>-4.7431540490234738</v>
       </c>
       <c r="I86" s="9">
         <f t="shared" si="24"/>
-        <v>-61.669304725894236</v>
+        <v>-0.47833236642898408</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2">
-        <v>30204.400000000001</v>
+        <v>243111</v>
       </c>
       <c r="L86" s="4">
         <f t="shared" si="19"/>
-        <v>-209795.59999999998</v>
+        <v>3111.0000000000291</v>
       </c>
       <c r="M86" s="9">
         <f t="shared" si="20"/>
-        <v>-61.469557573981824</v>
+        <v>0.9115147963668413</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -7284,27 +7284,27 @@
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="2">
-        <v>108.09699999999999</v>
+        <v>722.93100000000004</v>
       </c>
       <c r="H87" s="4">
         <f t="shared" si="18"/>
-        <v>-619.70589574669464</v>
+        <v>-4.8718957466945767</v>
       </c>
       <c r="I87" s="9">
         <f t="shared" si="24"/>
-        <v>-61.911594279809158</v>
+        <v>-0.48672577574794079</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2">
-        <v>30607.5</v>
+        <v>246375</v>
       </c>
       <c r="L87" s="4">
         <f t="shared" si="19"/>
-        <v>-212592.49999999997</v>
+        <v>3175.0000000000291</v>
       </c>
       <c r="M87" s="9">
         <f t="shared" si="20"/>
-        <v>-61.710449927431057</v>
+        <v>0.92162554426706222</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -7330,27 +7330,27 @@
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="2">
-        <v>109.255</v>
+        <v>732.15200000000004</v>
       </c>
       <c r="H88" s="4">
         <f t="shared" si="18"/>
-        <v>-627.89964280672348</v>
+        <v>-5.0026428067234292</v>
       </c>
       <c r="I88" s="9">
         <f t="shared" si="24"/>
-        <v>-62.149535516570317</v>
+        <v>-0.49516181503685924</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2">
-        <v>31010.6</v>
+        <v>249640</v>
       </c>
       <c r="L88" s="4">
         <f t="shared" si="19"/>
-        <v>-215389.39999999994</v>
+        <v>3240.0000000000582</v>
       </c>
       <c r="M88" s="9">
         <f t="shared" si="20"/>
-        <v>-61.946908254242153</v>
+        <v>0.93183779119932664</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -7376,27 +7376,27 @@
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="2">
-        <v>110.414</v>
+        <v>741.37199999999996</v>
       </c>
       <c r="H89" s="4">
         <f t="shared" si="18"/>
-        <v>-636.093395391228</v>
+        <v>-5.1353953912280303</v>
       </c>
       <c r="I89" s="9">
         <f t="shared" si="24"/>
-        <v>-62.383051235279673</v>
+        <v>-0.50363930222441555</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2">
-        <v>31413.7</v>
+        <v>252905</v>
       </c>
       <c r="L89" s="4">
         <f t="shared" si="19"/>
-        <v>-218186.29999999993</v>
+        <v>3305.0000000000582</v>
       </c>
       <c r="M89" s="9">
         <f t="shared" si="20"/>
-        <v>-62.179053861498993</v>
+        <v>0.9418637788543911</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -7422,27 +7422,27 @@
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="2">
-        <v>111.57299999999999</v>
+        <v>750.59199999999998</v>
       </c>
       <c r="H90" s="4">
         <f t="shared" si="18"/>
-        <v>-644.28815366236154</v>
+        <v>-5.269153662361532</v>
       </c>
       <c r="I90" s="9">
         <f t="shared" si="24"/>
-        <v>-62.61235860945439</v>
+        <v>-0.51205991729127975</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2">
-        <v>31816.799999999999</v>
+        <v>256171</v>
       </c>
       <c r="L90" s="4">
         <f t="shared" si="19"/>
-        <v>-220983.19999999995</v>
+        <v>3371.0000000000582</v>
       </c>
       <c r="M90" s="9">
         <f t="shared" si="20"/>
-        <v>-62.407003671279291</v>
+        <v>0.95199096300481756</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -7468,27 +7468,27 @@
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="2">
-        <v>112.73099999999999</v>
+        <v>759.81100000000004</v>
       </c>
       <c r="H91" s="4">
         <f t="shared" si="18"/>
-        <v>-652.48491778231153</v>
+        <v>-5.404917782311486</v>
       </c>
       <c r="I91" s="9">
         <f t="shared" si="24"/>
-        <v>-62.837667012015885</v>
+        <v>-0.52052149341101561</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2">
-        <v>32219.9</v>
+        <v>259438</v>
       </c>
       <c r="L91" s="4">
         <f t="shared" si="19"/>
-        <v>-223780.09999999995</v>
+        <v>3438.0000000000582</v>
       </c>
       <c r="M91" s="9">
         <f t="shared" si="20"/>
-        <v>-62.630870417016503</v>
+        <v>0.9622166246851549</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -7514,27 +7514,27 @@
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="2">
-        <v>113.89</v>
+        <v>769.029</v>
       </c>
       <c r="H92" s="4">
         <f t="shared" si="18"/>
-        <v>-660.68168791330095</v>
+        <v>-5.5426879133009379</v>
       </c>
       <c r="I92" s="9">
         <f t="shared" si="24"/>
-        <v>-63.058892025911028</v>
+        <v>-0.52902292443139687</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2">
-        <v>32623</v>
+        <v>262705</v>
       </c>
       <c r="L92" s="4">
         <f t="shared" si="19"/>
-        <v>-226576.99999999994</v>
+        <v>3505.0000000000582</v>
       </c>
       <c r="M92" s="9">
         <f t="shared" si="20"/>
-        <v>-62.850762829403592</v>
+        <v>0.97226074895979431</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -7560,27 +7560,27 @@
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="2">
-        <v>115.04900000000001</v>
+        <v>778.24599999999998</v>
       </c>
       <c r="H93" s="4">
         <f t="shared" si="18"/>
-        <v>-668.87946421758795</v>
+        <v>-5.682464217587949</v>
       </c>
       <c r="I93" s="9">
         <f t="shared" si="24"/>
-        <v>-63.276236046741232</v>
+        <v>-0.53756314312901154</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2">
-        <v>33026.199999999997</v>
+        <v>265973</v>
       </c>
       <c r="L93" s="4">
         <f t="shared" si="19"/>
-        <v>-229373.79999999993</v>
+        <v>3573.0000000000582</v>
       </c>
       <c r="M93" s="9">
         <f t="shared" si="20"/>
-        <v>-63.066758317294472</v>
+        <v>0.9824030794611105</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -7606,27 +7606,27 @@
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="2">
-        <v>116.20699999999999</v>
+        <v>787.46299999999997</v>
       </c>
       <c r="H94" s="4">
         <f t="shared" si="18"/>
-        <v>-677.07924685746434</v>
+        <v>-5.823246857464369</v>
       </c>
       <c r="I94" s="9">
         <f t="shared" si="24"/>
-        <v>-63.489894389154244</v>
+        <v>-0.54604734925543852</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2">
-        <v>33429.300000000003</v>
+        <v>269241</v>
       </c>
       <c r="L94" s="4">
         <f t="shared" si="19"/>
-        <v>-232170.69999999995</v>
+        <v>3641.0000000000582</v>
       </c>
       <c r="M94" s="9">
         <f t="shared" si="20"/>
-        <v>-63.279013355137636</v>
+        <v>0.99236849277733952</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -7652,27 +7652,27 @@
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="2">
-        <v>117.366</v>
+        <v>796.67899999999997</v>
       </c>
       <c r="H95" s="4">
         <f t="shared" si="18"/>
-        <v>-685.27903599525791</v>
+        <v>-5.9660359952579256</v>
       </c>
       <c r="I95" s="9">
         <f t="shared" si="24"/>
-        <v>-63.699776729428848</v>
+        <v>-0.55456995018930577</v>
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2">
-        <v>33832.5</v>
+        <v>272510</v>
       </c>
       <c r="L95" s="4">
         <f t="shared" si="19"/>
-        <v>-234967.49999999994</v>
+        <v>3710.0000000000582</v>
       </c>
       <c r="M95" s="9">
         <f t="shared" si="20"/>
-        <v>-63.487570926776534</v>
+        <v>1.0024317751959089</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -7698,27 +7698,27 @@
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="2">
-        <v>118.52500000000001</v>
+        <v>805.89400000000001</v>
       </c>
       <c r="H96" s="4">
         <f t="shared" si="18"/>
-        <v>-693.47983179333073</v>
+        <v>-6.1108317933307035</v>
       </c>
       <c r="I96" s="9">
         <f t="shared" si="24"/>
-        <v>-63.906072338754051</v>
+        <v>-0.56312994369954761</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2">
-        <v>34235.599999999999</v>
+        <v>275780</v>
       </c>
       <c r="L96" s="4">
         <f t="shared" si="19"/>
-        <v>-237764.39999999994</v>
+        <v>3780.0000000000582</v>
       </c>
       <c r="M96" s="9">
         <f t="shared" si="20"/>
-        <v>-63.692579694615581</v>
+        <v>1.0125904098580389</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -7744,27 +7744,27 @@
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="2">
-        <v>119.68300000000001</v>
+        <v>815.10900000000004</v>
       </c>
       <c r="H97" s="4">
         <f t="shared" si="18"/>
-        <v>-701.68263441408033</v>
+        <v>-6.2566344140802812</v>
       </c>
       <c r="I97" s="9">
         <f t="shared" si="24"/>
-        <v>-64.10896403409599</v>
+        <v>-0.57163499701213527</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2">
-        <v>34638.800000000003</v>
+        <v>279050</v>
       </c>
       <c r="L97" s="4">
         <f t="shared" si="19"/>
-        <v>-240561.19999999995</v>
+        <v>3850.0000000000582</v>
       </c>
       <c r="M97" s="9">
         <f t="shared" si="20"/>
-        <v>-63.894077025232399</v>
+        <v>1.0225763612217953</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -7790,27 +7790,27 @@
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="2">
-        <v>120.842</v>
+        <v>824.322</v>
       </c>
       <c r="H98" s="4">
         <f t="shared" si="18"/>
-        <v>-709.88544401993909</v>
+        <v>-6.4054440199390683</v>
       </c>
       <c r="I98" s="9">
         <f t="shared" si="24"/>
-        <v>-64.30835668086327</v>
+        <v>-0.5802676786847516</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2">
-        <v>35042</v>
+        <v>282321</v>
       </c>
       <c r="L98" s="4">
         <f t="shared" si="19"/>
-        <v>-243357.99999999994</v>
+        <v>3921.0000000000582</v>
       </c>
       <c r="M98" s="9">
         <f t="shared" si="20"/>
-        <v>-64.092178035291013</v>
+        <v>1.032657361074548</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -7836,27 +7836,27 @@
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="2">
-        <v>122.001</v>
+        <v>833.53499999999997</v>
       </c>
       <c r="H99" s="4">
         <f t="shared" si="18"/>
-        <v>-718.08926077337367</v>
+        <v>-6.555260773373675</v>
       </c>
       <c r="I99" s="9">
         <f t="shared" si="24"/>
-        <v>-64.504427846915405</v>
+        <v>-0.5888451041844015</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2">
-        <v>35445.199999999997</v>
+        <v>285592</v>
       </c>
       <c r="L99" s="4">
         <f t="shared" si="19"/>
-        <v>-246154.79999999993</v>
+        <v>3992.0000000000582</v>
       </c>
       <c r="M99" s="9">
         <f t="shared" si="20"/>
-        <v>-64.286967876730202</v>
+        <v>1.0425698615826742</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -7882,27 +7882,27 @@
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="2">
-        <v>123.15900000000001</v>
+        <v>842.74800000000005</v>
       </c>
       <c r="H100" s="4">
         <f t="shared" si="18"/>
-        <v>-726.29508483688664</v>
+        <v>-6.7060848368865891</v>
       </c>
       <c r="I100" s="9">
         <f t="shared" si="24"/>
-        <v>-64.697349194343673</v>
+        <v>-0.5973686473678721</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2">
-        <v>35848.400000000001</v>
+        <v>288864</v>
       </c>
       <c r="L100" s="4">
         <f t="shared" si="19"/>
-        <v>-248951.59999999995</v>
+        <v>4064.0000000000582</v>
       </c>
       <c r="M100" s="9">
         <f t="shared" si="20"/>
-        <v>-64.478528878528877</v>
+        <v>1.0525770525770677</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -7928,27 +7928,27 @@
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="2">
-        <v>124.318</v>
+        <v>851.95899999999995</v>
       </c>
       <c r="H101" s="4">
         <f t="shared" si="18"/>
-        <v>-734.50091637301455</v>
+        <v>-6.8599163730145847</v>
       </c>
       <c r="I101" s="9">
         <f t="shared" si="24"/>
-        <v>-64.887021697243895</v>
+        <v>-0.60601632021793572</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2">
-        <v>36251.599999999999</v>
+        <v>292136</v>
       </c>
       <c r="L101" s="4">
         <f t="shared" si="19"/>
-        <v>-251748.39999999994</v>
+        <v>4136.0000000000582</v>
       </c>
       <c r="M101" s="9">
         <f t="shared" si="20"/>
-        <v>-64.666940662727967</v>
+        <v>1.0624197277164291</v>
       </c>
     </row>
   </sheetData>

--- a/Verification/Analytical/sealed_test_hand_calc.xlsx
+++ b/Verification/Analytical/sealed_test_hand_calc.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="5400" windowWidth="19635" windowHeight="10995"/>
+    <workbookView xWindow="840" yWindow="6000" windowWidth="19635" windowHeight="10995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="sealed_test_hand_calc" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -198,10 +198,10 @@
     </r>
   </si>
   <si>
-    <t>E=E0+qconvec*Time+(M-M0)*cp*T (note actually we use T_i-1 to allow an analytical solution)</t>
+    <t>ULT</t>
   </si>
   <si>
-    <t>ULT</t>
+    <t>E=E0+qconvec*Time+(M-M0)*cv*T (note actually we use T_i-1 to allow an analytical solution)</t>
   </si>
 </sst>
 </file>
@@ -997,11 +997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205504120"/>
-        <c:axId val="205502944"/>
+        <c:axId val="235999088"/>
+        <c:axId val="235999872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205504120"/>
+        <c:axId val="235999088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,12 +1058,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205502944"/>
+        <c:crossAx val="235999872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205502944"/>
+        <c:axId val="235999872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205504120"/>
+        <c:crossAx val="235999088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1885,11 +1885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309248104"/>
-        <c:axId val="309247712"/>
+        <c:axId val="236001048"/>
+        <c:axId val="236001440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309248104"/>
+        <c:axId val="236001048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1946,12 +1946,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309247712"/>
+        <c:crossAx val="236001440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309247712"/>
+        <c:axId val="236001440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309248104"/>
+        <c:crossAx val="236001048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3523,8 +3523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3624,11 +3624,11 @@
       </c>
       <c r="M4">
         <f>A6*L4</f>
-        <v>149.37353539885356</v>
+        <v>149.38847424627818</v>
       </c>
       <c r="N4">
         <f>H4*M4*K4</f>
-        <v>31653084.375000004</v>
+        <v>31656250.000000004</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3650,8 +3650,8 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>(A4*B4*C4)*(1-0.0001)</f>
-        <v>124.9875</v>
+        <f>(A4*B4*C4)</f>
+        <v>125</v>
       </c>
       <c r="D6">
         <f>E4*D4</f>
@@ -3749,17 +3749,17 @@
       </c>
       <c r="B11">
         <f>E0</f>
-        <v>31653084.375000004</v>
+        <v>31656250.000000004</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="D11" s="4">
         <f>M0</f>
-        <v>149.37353539885356</v>
+        <v>149.38847424627818</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:E42" si="0">B11/(cv*D11)-273.15</f>
+        <f>B11/(cv*D11)-273.15</f>
         <v>20</v>
       </c>
       <c r="F11" s="4"/>
@@ -3767,7 +3767,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H11:H42" si="1">G11-E11</f>
+        <f t="shared" ref="H11:H42" si="0">G11-E11</f>
         <v>0</v>
       </c>
       <c r="I11" s="9">
@@ -3779,11 +3779,11 @@
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" ref="L11:L42" si="2">K11-C11</f>
+        <f t="shared" ref="L11:L42" si="1">K11-C11</f>
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" ref="M11:M42" si="3">L11/(C11+P0)*100</f>
+        <f t="shared" ref="M11:M42" si="2">L11/(C11+P0)*100</f>
         <v>0</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -3799,43 +3799,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B43" si="4">E0+qconv*A12+(D12-M0)*cp*(E11+273.15)</f>
-        <v>32659017.731000006</v>
+        <f>E0+qconv*A12+(D12-M0)*cv*(E11+273.15)</f>
+        <v>32660488.111428577</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:C43" si="5">(gamma-1)*qfire*A12/(Volume/(1-0.0001))</f>
+        <f>(gamma-1)*qfire*A12/(Volume)</f>
         <v>3199.9999999999995</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:D43" si="6">M0+mfire*A12</f>
-        <v>149.39353539885357</v>
+        <f t="shared" ref="D12:D43" si="3">M0+mfire*A12</f>
+        <v>149.40847424627819</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>29.27579902160079</v>
+        <f t="shared" ref="E11:E42" si="4">B12/(cv*D12)-273.15</f>
+        <v>29.259174999711433</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2">
         <v>29.276399999999999</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>6.0097839920913998E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.722500028856544E-2</v>
       </c>
       <c r="I12" s="9">
         <f>H12/(E12+273.15)*100</f>
-        <v>1.9871928954256151E-4</v>
+        <v>5.6959251611932334E-3</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
         <v>3219.29</v>
       </c>
       <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>19.290000000000418</v>
+      </c>
+      <c r="M12" s="9">
         <f t="shared" si="2"/>
-        <v>19.290000000000418</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="shared" si="3"/>
         <v>1.8459330143541067E-2</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -3847,51 +3847,51 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" ref="A13:A76" si="7">A12+10</f>
+        <f t="shared" ref="A13:A76" si="5">A12+10</f>
         <v>20</v>
       </c>
       <c r="B13">
+        <f>E0+qconv*A13+(D13-M0)*cv*(E12+273.15)</f>
+        <v>33664993.945288561</v>
+      </c>
+      <c r="C13" s="4">
+        <f>(gamma-1)*qfire*A13/(Volume)</f>
+        <v>6399.9999999999991</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="3"/>
+        <v>149.42847424627817</v>
+      </c>
+      <c r="E13" s="4">
         <f t="shared" si="4"/>
-        <v>33665326.571344391</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="5"/>
-        <v>6399.9999999999991</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="6"/>
-        <v>149.41353539885355</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>38.552591345340716</v>
+        <v>38.51834999942281</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="2">
         <v>38.552100000000003</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="1"/>
-        <v>-4.9134534071271219E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.3750000577192907E-2</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ref="I13:I76" si="8">H13/(E13+273.15)*100</f>
-        <v>-1.5763274170805408E-4</v>
+        <f t="shared" ref="I13:I76" si="6">H13/(E13+273.15)*100</f>
+        <v>1.0828818703360612E-2</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
         <v>6439.18</v>
       </c>
       <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>39.180000000001201</v>
+      </c>
+      <c r="M13" s="9">
         <f t="shared" si="2"/>
-        <v>39.180000000001201</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="shared" si="3"/>
         <v>3.6378830083566578E-2</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -3899,47 +3899,47 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B14">
+        <f>E0+qconv*A14+(D14-M0)*cv*(E13+273.15)</f>
+        <v>34669767.501579978</v>
+      </c>
+      <c r="C14" s="4">
+        <f>(gamma-1)*qfire*A14/(Volume)</f>
+        <v>9599.9999999999982</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="3"/>
+        <v>149.44847424627818</v>
+      </c>
+      <c r="E14" s="4">
         <f t="shared" si="4"/>
-        <v>34672010.956346489</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="5"/>
-        <v>9599.9999999999982</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="6"/>
-        <v>149.43353539885356</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>47.830377130750833</v>
+        <v>47.777524999134243</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="2">
         <v>47.827100000000002</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="1"/>
-        <v>-3.2771307508312475E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.9575000865758057E-2</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="8"/>
-        <v>-1.0209754191597557E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.5447413202059187E-2</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
         <v>9659.66</v>
       </c>
       <c r="L14" s="4">
+        <f t="shared" si="1"/>
+        <v>59.660000000001673</v>
+      </c>
+      <c r="M14" s="9">
         <f t="shared" si="2"/>
-        <v>59.660000000001673</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="shared" si="3"/>
         <v>5.3796212804329731E-2</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -3951,4003 +3951,4003 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="B15">
+        <f>E0+qconv*A15+(D15-M0)*cv*(E14+273.15)</f>
+        <v>35674808.780302808</v>
+      </c>
+      <c r="C15" s="4">
+        <f>(gamma-1)*qfire*A15/(Volume)</f>
+        <v>12799.999999999998</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="3"/>
+        <v>149.46847424627819</v>
+      </c>
+      <c r="E15" s="4">
         <f t="shared" si="4"/>
-        <v>35679070.946332507</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="5"/>
-        <v>12799.999999999998</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="6"/>
-        <v>149.45353539885357</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>57.109156537395904</v>
+        <v>57.03669999884562</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="2">
         <v>57.101300000000002</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="1"/>
-        <v>-7.8565373959023077E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.4600001154381914E-2</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="8"/>
-        <v>-2.3789007027917777E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.9564689054588743E-2</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2">
         <v>12880.8</v>
       </c>
       <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>80.800000000001091</v>
+      </c>
+      <c r="M15" s="9">
         <f t="shared" si="2"/>
-        <v>80.800000000001091</v>
-      </c>
-      <c r="M15" s="9">
-        <f t="shared" si="3"/>
         <v>7.0815074496057048E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B16">
+        <f>E0+qconv*A16+(D16-M0)*cv*(E15+273.15)</f>
+        <v>36680117.781457059</v>
+      </c>
+      <c r="C16" s="4">
+        <f>(gamma-1)*qfire*A16/(Volume)</f>
+        <v>15999.999999999996</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="3"/>
+        <v>149.48847424627817</v>
+      </c>
+      <c r="E16" s="4">
         <f t="shared" si="4"/>
-        <v>36686506.60164158</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="5"/>
-        <v>15999.999999999996</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="6"/>
-        <v>149.47353539885356</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>66.38892972487514</v>
+        <v>66.295874998557053</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="2">
         <v>66.374799999999993</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.4129724875147076E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.8925001442939902E-2</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="8"/>
-        <v>-4.1614447234655082E-3</v>
+        <f t="shared" si="6"/>
+        <v>2.3251129931472995E-2</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
         <v>16102.4</v>
       </c>
       <c r="L16" s="4">
+        <f t="shared" si="1"/>
+        <v>102.40000000000327</v>
+      </c>
+      <c r="M16" s="9">
         <f t="shared" si="2"/>
-        <v>102.40000000000327</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="shared" si="3"/>
         <v>8.7297527706737654E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="B17">
+        <f>E0+qconv*A17+(D17-M0)*cv*(E16+273.15)</f>
+        <v>37685694.505042732</v>
+      </c>
+      <c r="C17" s="4">
+        <f>(gamma-1)*qfire*A17/(Volume)</f>
+        <v>19199.999999999996</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="3"/>
+        <v>149.50847424627818</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="4"/>
-        <v>37694317.98262579</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="5"/>
-        <v>19199.999999999996</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="6"/>
-        <v>149.49353539885357</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>75.669696852821858</v>
+        <v>75.555049998268487</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="2">
         <v>75.647599999999997</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="1"/>
-        <v>-2.209685282186058E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.2550001731510179E-2</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="8"/>
-        <v>-6.3347491615944919E-3</v>
+        <f t="shared" si="6"/>
+        <v>2.6541055752410163E-2</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
         <v>19324.7</v>
       </c>
       <c r="L17" s="4">
+        <f t="shared" si="1"/>
+        <v>124.70000000000437</v>
+      </c>
+      <c r="M17" s="9">
         <f t="shared" si="2"/>
-        <v>124.70000000000437</v>
-      </c>
-      <c r="M17" s="9">
-        <f t="shared" si="3"/>
         <v>0.10348547717842686</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B18">
+        <f>E0+qconv*A18+(D18-M0)*cv*(E17+273.15)</f>
+        <v>38691538.951059818</v>
+      </c>
+      <c r="C18" s="4">
+        <f>(gamma-1)*qfire*A18/(Volume)</f>
+        <v>22399.999999999996</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="3"/>
+        <v>149.52847424627817</v>
+      </c>
+      <c r="E18" s="4">
         <f t="shared" si="4"/>
-        <v>38702505.149650104</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="5"/>
-        <v>22399.999999999996</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="6"/>
-        <v>149.51353539885355</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>84.951458080903421</v>
+        <v>84.814224997979863</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="2">
         <v>84.919700000000006</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="1"/>
-        <v>-3.1758080903415475E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10547500202014248</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="8"/>
-        <v>-8.8684589762939737E-3</v>
+        <f t="shared" si="6"/>
+        <v>2.9465235533170313E-2</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2">
         <v>22547.599999999999</v>
       </c>
       <c r="L18" s="4">
+        <f t="shared" si="1"/>
+        <v>147.60000000000218</v>
+      </c>
+      <c r="M18" s="9">
         <f t="shared" si="2"/>
-        <v>147.60000000000218</v>
-      </c>
-      <c r="M18" s="9">
-        <f t="shared" si="3"/>
         <v>0.11932093775262909</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="B19">
+        <f>E0+qconv*A19+(D19-M0)*cv*(E18+273.15)</f>
+        <v>39697651.119508334</v>
+      </c>
+      <c r="C19" s="4">
+        <f>(gamma-1)*qfire*A19/(Volume)</f>
+        <v>25599.999999999996</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="3"/>
+        <v>149.54847424627818</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="4"/>
-        <v>39711068.163092457</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="5"/>
-        <v>25599.999999999996</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="6"/>
-        <v>149.53353539885356</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>94.234213568821588</v>
+        <v>94.07339999769124</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="2">
         <v>94.191000000000003</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="1"/>
-        <v>-4.3213568821585113E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.11760000230876244</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="8"/>
-        <v>-1.1762500190686604E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.2024103668094626E-2</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2">
         <v>25771.1</v>
       </c>
       <c r="L19" s="4">
+        <f t="shared" si="1"/>
+        <v>171.10000000000218</v>
+      </c>
+      <c r="M19" s="9">
         <f t="shared" si="2"/>
-        <v>171.10000000000218</v>
-      </c>
-      <c r="M19" s="9">
-        <f t="shared" si="3"/>
         <v>0.13483057525610889</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B20">
+        <f>E0+qconv*A20+(D20-M0)*cv*(E19+273.15)</f>
+        <v>40704031.01038827</v>
+      </c>
+      <c r="C20" s="4">
+        <f>(gamma-1)*qfire*A20/(Volume)</f>
+        <v>28799.999999999996</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="3"/>
+        <v>149.56847424627819</v>
+      </c>
+      <c r="E20" s="4">
         <f t="shared" si="4"/>
-        <v>40720007.0833437</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="5"/>
-        <v>28799.999999999996</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="6"/>
-        <v>149.55353539885357</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>103.51796347631227</v>
+        <v>103.33257499740267</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="2">
         <v>103.462</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.5963476312271609E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.12942500259732981</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="8"/>
-        <v>-1.4857508930618416E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.437742174341607E-2</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2">
         <v>28995.200000000001</v>
       </c>
       <c r="L20" s="4">
+        <f t="shared" si="1"/>
+        <v>195.20000000000437</v>
+      </c>
+      <c r="M20" s="9">
         <f t="shared" si="2"/>
-        <v>195.20000000000437</v>
-      </c>
-      <c r="M20" s="9">
-        <f t="shared" si="3"/>
         <v>0.15003843197540689</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="B21">
+        <f>E0+qconv*A21+(D21-M0)*cv*(E20+273.15)</f>
+        <v>41710678.62369962</v>
+      </c>
+      <c r="C21" s="4">
+        <f>(gamma-1)*qfire*A21/(Volume)</f>
+        <v>31999.999999999993</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="3"/>
+        <v>149.58847424627817</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="4"/>
-        <v>41729321.970807604</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="5"/>
-        <v>31999.999999999993</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="6"/>
-        <v>149.57353539885355</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>112.80270796314556</v>
+        <v>112.59174999711411</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="2">
         <v>112.73099999999999</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="1"/>
-        <v>-7.1707963145570375E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.13925000288588762</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="8"/>
-        <v>-1.8579468848400393E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.6099282197721509E-2</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2">
         <v>32219.9</v>
       </c>
       <c r="L21" s="4">
+        <f t="shared" si="1"/>
+        <v>219.90000000000873</v>
+      </c>
+      <c r="M21" s="9">
         <f t="shared" si="2"/>
-        <v>219.90000000000873</v>
-      </c>
-      <c r="M21" s="9">
-        <f t="shared" si="3"/>
         <v>0.16496624156039666</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="B22">
+        <f>E0+qconv*A22+(D22-M0)*cv*(E21+273.15)</f>
+        <v>42717593.959442399</v>
+      </c>
+      <c r="C22" s="4">
+        <f>(gamma-1)*qfire*A22/(Volume)</f>
+        <v>35199.999999999993</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="3"/>
+        <v>149.60847424627818</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="4"/>
-        <v>42739012.885900915</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="5"/>
-        <v>35199.999999999993</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="6"/>
-        <v>149.59353539885356</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>122.0884471891257</v>
+        <v>121.8509249968256</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="2">
         <v>122.001</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="1"/>
-        <v>-8.7447189125697378E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.15007500317440758</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="8"/>
-        <v>-2.2125172727402453E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.7993582717714816E-2</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2">
         <v>35445.199999999997</v>
       </c>
       <c r="L22" s="4">
+        <f t="shared" si="1"/>
+        <v>245.20000000000437</v>
+      </c>
+      <c r="M22" s="9">
         <f t="shared" si="2"/>
-        <v>245.20000000000437</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="shared" si="3"/>
         <v>0.17963369963370282</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="B23">
+        <f>E0+qconv*A23+(D23-M0)*cv*(E22+273.15)</f>
+        <v>43724777.017616592</v>
+      </c>
+      <c r="C23" s="4">
+        <f>(gamma-1)*qfire*A23/(Volume)</f>
+        <v>38399.999999999993</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="3"/>
+        <v>149.62847424627819</v>
+      </c>
+      <c r="E23" s="4">
         <f t="shared" si="4"/>
-        <v>43749079.8890533</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="5"/>
-        <v>38399.999999999993</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="6"/>
-        <v>149.61353539885357</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>131.37518131409132</v>
+        <v>131.11009999653697</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="2">
         <v>131.26900000000001</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.10618131409131593</v>
+        <f t="shared" si="0"/>
+        <v>0.15890000346303168</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="8"/>
-        <v>-2.624838180564884E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.930637811260445E-2</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2">
         <v>38671.1</v>
       </c>
       <c r="L23" s="4">
+        <f t="shared" si="1"/>
+        <v>271.10000000000582</v>
+      </c>
+      <c r="M23" s="9">
         <f t="shared" si="2"/>
-        <v>271.10000000000582</v>
-      </c>
-      <c r="M23" s="9">
-        <f t="shared" si="3"/>
         <v>0.19405869720830768</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="B24">
+        <f>E0+qconv*A24+(D24-M0)*cv*(E23+273.15)</f>
+        <v>44732227.798222207</v>
+      </c>
+      <c r="C24" s="4">
+        <f>(gamma-1)*qfire*A24/(Volume)</f>
+        <v>41599.999999999993</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="3"/>
+        <v>149.64847424627817</v>
+      </c>
+      <c r="E24" s="4">
         <f t="shared" si="4"/>
-        <v>44759523.040707357</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="5"/>
-        <v>41599.999999999993</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="6"/>
-        <v>149.63353539885355</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>140.66291049791505</v>
+        <v>140.36927499624841</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="2">
         <v>140.53700000000001</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.12591049791504361</v>
+        <f t="shared" si="0"/>
+        <v>0.16772500375159893</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="8"/>
-        <v>-3.0426913883267546E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.0560383491947412E-2</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
         <v>41897.599999999999</v>
       </c>
       <c r="L24" s="4">
+        <f t="shared" si="1"/>
+        <v>297.60000000000582</v>
+      </c>
+      <c r="M24" s="9">
         <f t="shared" si="2"/>
-        <v>297.60000000000582</v>
-      </c>
-      <c r="M24" s="9">
-        <f t="shared" si="3"/>
         <v>0.20825752274318113</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="B25">
+        <f>E0+qconv*A25+(D25-M0)*cv*(E24+273.15)</f>
+        <v>45739946.301259242</v>
+      </c>
+      <c r="C25" s="4">
+        <f>(gamma-1)*qfire*A25/(Volume)</f>
+        <v>44799.999999999993</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="3"/>
+        <v>149.66847424627818</v>
+      </c>
+      <c r="E25" s="4">
         <f t="shared" si="4"/>
-        <v>45770342.401318692</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" si="5"/>
-        <v>44799.999999999993</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" si="6"/>
-        <v>149.65353539885356</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>149.95163490050419</v>
+        <v>149.62844999595978</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="2">
         <v>149.804</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.14763490050418682</v>
+        <f t="shared" si="0"/>
+        <v>0.17555000404021825</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="8"/>
-        <v>-3.4893483817169453E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.1522930991845938E-2</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2">
         <v>45124.7</v>
       </c>
       <c r="L25" s="4">
+        <f t="shared" si="1"/>
+        <v>324.70000000000437</v>
+      </c>
+      <c r="M25" s="9">
         <f t="shared" si="2"/>
-        <v>324.70000000000437</v>
-      </c>
-      <c r="M25" s="9">
-        <f t="shared" si="3"/>
         <v>0.22224503764545128</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="B26">
+        <f>E0+qconv*A26+(D26-M0)*cv*(E25+273.15)</f>
+        <v>46747932.526727699</v>
+      </c>
+      <c r="C26" s="4">
+        <f>(gamma-1)*qfire*A26/(Volume)</f>
+        <v>47999.999999999993</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="3"/>
+        <v>149.68847424627819</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="4"/>
-        <v>46781538.031355798</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="5"/>
-        <v>47999.999999999993</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" si="6"/>
-        <v>149.67353539885357</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>159.24135468179986</v>
+        <v>158.88762499567127</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="2">
         <v>159.07</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.17135468179986901</v>
+        <f t="shared" si="0"/>
+        <v>0.18237500432871911</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="8"/>
-        <v>-3.9629534666799769E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.2212759671231503E-2</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2">
         <v>48352.4</v>
       </c>
       <c r="L26" s="4">
+        <f t="shared" si="1"/>
+        <v>352.40000000000873</v>
+      </c>
+      <c r="M26" s="9">
         <f t="shared" si="2"/>
-        <v>352.40000000000873</v>
-      </c>
-      <c r="M26" s="9">
-        <f t="shared" si="3"/>
         <v>0.23603482920295293</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="B27">
+        <f>E0+qconv*A27+(D27-M0)*cv*(E26+273.15)</f>
+        <v>47756186.474627569</v>
+      </c>
+      <c r="C27" s="4">
+        <f>(gamma-1)*qfire*A27/(Volume)</f>
+        <v>51199.999999999993</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="3"/>
+        <v>149.70847424627817</v>
+      </c>
+      <c r="E27" s="4">
         <f t="shared" si="4"/>
-        <v>47793109.991300151</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="5"/>
-        <v>51199.999999999993</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" si="6"/>
-        <v>149.69353539885356</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>168.53207000177764</v>
+        <v>168.14679999538265</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="2">
         <v>168.33500000000001</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.19707000177763234</v>
+        <f t="shared" si="0"/>
+        <v>0.18820000461735731</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="8"/>
-        <v>-4.4618066967680892E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.2647035876835382E-2</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
         <v>51580.7</v>
       </c>
       <c r="L27" s="4">
+        <f t="shared" si="1"/>
+        <v>380.70000000000437</v>
+      </c>
+      <c r="M27" s="9">
         <f t="shared" si="2"/>
-        <v>380.70000000000437</v>
-      </c>
-      <c r="M27" s="9">
-        <f t="shared" si="3"/>
         <v>0.24963934426229795</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="B28">
+        <f>E0+qconv*A28+(D28-M0)*cv*(E27+273.15)</f>
+        <v>48764708.144958869</v>
+      </c>
+      <c r="C28" s="4">
+        <f>(gamma-1)*qfire*A28/(Volume)</f>
+        <v>54399.999999999993</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="3"/>
+        <v>149.72847424627818</v>
+      </c>
+      <c r="E28" s="4">
         <f t="shared" si="4"/>
-        <v>48805058.341646217</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" si="5"/>
-        <v>54399.999999999993</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="6"/>
-        <v>149.71353539885357</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>177.82378102044743</v>
+        <v>177.40597499509408</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="2">
         <v>177.6</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.22378102044743287</v>
+        <f t="shared" si="0"/>
+        <v>0.19402500490591024</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="8"/>
-        <v>-4.9621736310494401E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.3063462848988494E-2</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2">
         <v>54809.599999999999</v>
       </c>
       <c r="L28" s="4">
+        <f t="shared" si="1"/>
+        <v>409.60000000000582</v>
+      </c>
+      <c r="M28" s="9">
         <f t="shared" si="2"/>
-        <v>409.60000000000582</v>
-      </c>
-      <c r="M28" s="9">
-        <f t="shared" si="3"/>
         <v>0.2630700064226113</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="B29">
+        <f>E0+qconv*A29+(D29-M0)*cv*(E28+273.15)</f>
+        <v>49773497.537721582</v>
+      </c>
+      <c r="C29" s="4">
+        <f>(gamma-1)*qfire*A29/(Volume)</f>
+        <v>57599.999999999993</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="3"/>
+        <v>149.74847424627819</v>
+      </c>
+      <c r="E29" s="4">
         <f t="shared" si="4"/>
-        <v>49817383.142901376</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" si="5"/>
-        <v>57599.999999999993</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" si="6"/>
-        <v>149.73353539885358</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>187.11648789785323</v>
+        <v>186.66514999480546</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="2">
         <v>186.864</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.25248789785322856</v>
+        <f t="shared" si="0"/>
+        <v>0.19885000519454366</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="8"/>
-        <v>-5.4856893667492711E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.324564016579055E-2</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2">
         <v>58039.1</v>
       </c>
       <c r="L29" s="4">
+        <f t="shared" si="1"/>
+        <v>439.10000000000582</v>
+      </c>
+      <c r="M29" s="9">
         <f t="shared" si="2"/>
-        <v>439.10000000000582</v>
-      </c>
-      <c r="M29" s="9">
-        <f t="shared" si="3"/>
         <v>0.27633731906860026</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="B30">
+        <f>E0+qconv*A30+(D30-M0)*cv*(E29+273.15)</f>
+        <v>50782554.652915716</v>
+      </c>
+      <c r="C30" s="4">
+        <f>(gamma-1)*qfire*A30/(Volume)</f>
+        <v>60799.999999999993</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="3"/>
+        <v>149.76847424627817</v>
+      </c>
+      <c r="E30" s="4">
         <f t="shared" si="4"/>
-        <v>50830084.455585994</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" si="5"/>
-        <v>60799.999999999993</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="6"/>
-        <v>149.75353539885356</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>196.41019079407351</v>
+        <v>195.92432499451689</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="2">
         <v>196.12799999999999</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.28219079407352865</v>
+        <f t="shared" si="0"/>
+        <v>0.20367500548309181</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="8"/>
-        <v>-6.0096830950748963E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.3420625395660405E-2</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2">
         <v>61269.1</v>
       </c>
       <c r="L30" s="4">
+        <f t="shared" si="1"/>
+        <v>469.10000000000582</v>
+      </c>
+      <c r="M30" s="9">
         <f t="shared" si="2"/>
-        <v>469.10000000000582</v>
-      </c>
-      <c r="M30" s="9">
-        <f t="shared" si="3"/>
         <v>0.28938926588525959</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="B31">
+        <f>E0+qconv*A31+(D31-M0)*cv*(E30+273.15)</f>
+        <v>51791879.490541272</v>
+      </c>
+      <c r="C31" s="4">
+        <f>(gamma-1)*qfire*A31/(Volume)</f>
+        <v>63999.999999999985</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="3"/>
+        <v>149.78847424627818</v>
+      </c>
+      <c r="E31" s="4">
         <f t="shared" si="4"/>
-        <v>51843162.340233445</v>
-      </c>
-      <c r="C31" s="4">
-        <f t="shared" si="5"/>
-        <v>63999.999999999985</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" si="6"/>
-        <v>149.77353539885357</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>205.70488986922112</v>
+        <v>205.18349999422833</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="2">
         <v>205.39</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.31488986922113327</v>
+        <f t="shared" si="0"/>
+        <v>0.20650000577165883</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="8"/>
-        <v>-6.5758933631675356E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.3170717872394578E-2</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2">
         <v>64499.8</v>
       </c>
       <c r="L31" s="4">
+        <f t="shared" si="1"/>
+        <v>499.80000000001746</v>
+      </c>
+      <c r="M31" s="9">
         <f t="shared" si="2"/>
-        <v>499.80000000001746</v>
-      </c>
-      <c r="M31" s="9">
-        <f t="shared" si="3"/>
         <v>0.30235934664247877</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="B32">
+        <f>E0+qconv*A32+(D32-M0)*cv*(E31+273.15)</f>
+        <v>52801472.050598241</v>
+      </c>
+      <c r="C32" s="4">
+        <f>(gamma-1)*qfire*A32/(Volume)</f>
+        <v>67199.999999999985</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="3"/>
+        <v>149.80847424627817</v>
+      </c>
+      <c r="E32" s="4">
         <f t="shared" si="4"/>
-        <v>52856616.857390009</v>
-      </c>
-      <c r="C32" s="4">
-        <f t="shared" si="5"/>
-        <v>67199.999999999985</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" si="6"/>
-        <v>149.79353539885355</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>215.000585283443</v>
+        <v>214.4426749939397</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="2">
         <v>214.65199999999999</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.34858528344301476</v>
+        <f t="shared" si="0"/>
+        <v>0.2093250060602827</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="8"/>
-        <v>-7.140937529361148E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.2930301621714149E-2</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2">
         <v>67731.100000000006</v>
       </c>
       <c r="L32" s="4">
+        <f t="shared" si="1"/>
+        <v>531.10000000002037</v>
+      </c>
+      <c r="M32" s="9">
         <f t="shared" si="2"/>
-        <v>531.10000000002037</v>
-      </c>
-      <c r="M32" s="9">
-        <f t="shared" si="3"/>
         <v>0.31519287833829102</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="B33">
+        <f>E0+qconv*A33+(D33-M0)*cv*(E32+273.15)</f>
+        <v>53811332.33308664</v>
+      </c>
+      <c r="C33" s="4">
+        <f>(gamma-1)*qfire*A33/(Volume)</f>
+        <v>70399.999999999985</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="3"/>
+        <v>149.82847424627818</v>
+      </c>
+      <c r="E33" s="4">
         <f t="shared" si="4"/>
-        <v>53870448.06761501</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="5"/>
-        <v>70399.999999999985</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" si="6"/>
-        <v>149.81353539885356</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="0"/>
-        <v>224.2972771969205</v>
+        <v>223.70184999365108</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="2">
         <v>223.91300000000001</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.38427719692049322</v>
+        <f t="shared" si="0"/>
+        <v>0.21115000634893022</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="8"/>
-        <v>-7.724983421074641E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.2497578775570297E-2</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2">
         <v>70963</v>
       </c>
       <c r="L33" s="4">
+        <f t="shared" si="1"/>
+        <v>563.00000000001455</v>
+      </c>
+      <c r="M33" s="9">
         <f t="shared" si="2"/>
-        <v>563.00000000001455</v>
-      </c>
-      <c r="M33" s="9">
-        <f t="shared" si="3"/>
         <v>0.32789749563192461</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>230</v>
       </c>
       <c r="B34">
+        <f>E0+qconv*A34+(D34-M0)*cv*(E33+273.15)</f>
+        <v>54821460.338006467</v>
+      </c>
+      <c r="C34" s="4">
+        <f>(gamma-1)*qfire*A34/(Volume)</f>
+        <v>73599.999999999985</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="3"/>
+        <v>149.84847424627819</v>
+      </c>
+      <c r="E34" s="4">
         <f t="shared" si="4"/>
-        <v>54884656.031480715</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="5"/>
-        <v>73599.999999999985</v>
-      </c>
-      <c r="D34" s="4">
-        <f t="shared" si="6"/>
-        <v>149.83353539885357</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="0"/>
-        <v>233.5949657698693</v>
+        <v>232.96102499336257</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="2">
         <v>233.17400000000001</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.4209657698692979</v>
+        <f t="shared" si="0"/>
+        <v>0.21297500663743563</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="8"/>
-        <v>-8.3072511481144792E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.2080689042533446E-2</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2">
         <v>74195.5</v>
       </c>
       <c r="L34" s="4">
+        <f t="shared" si="1"/>
+        <v>595.50000000001455</v>
+      </c>
+      <c r="M34" s="9">
         <f t="shared" si="2"/>
-        <v>595.50000000001455</v>
-      </c>
-      <c r="M34" s="9">
-        <f t="shared" si="3"/>
         <v>0.34048027444254692</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="B35">
+        <f>E0+qconv*A35+(D35-M0)*cv*(E34+273.15)</f>
+        <v>55831856.065357693</v>
+      </c>
+      <c r="C35" s="4">
+        <f>(gamma-1)*qfire*A35/(Volume)</f>
+        <v>76799.999999999985</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="3"/>
+        <v>149.86847424627817</v>
+      </c>
+      <c r="E35" s="4">
         <f t="shared" si="4"/>
-        <v>55899240.809572369</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" si="5"/>
-        <v>76799.999999999985</v>
-      </c>
-      <c r="D35" s="4">
-        <f t="shared" si="6"/>
-        <v>149.85353539885355</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="0"/>
-        <v>242.89365116253953</v>
+        <v>242.22019999307395</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="2">
         <v>242.43299999999999</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.4606511625395342</v>
+        <f t="shared" si="0"/>
+        <v>0.21280000692604517</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" si="8"/>
-        <v>-8.9265929636336477E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.1290708490499643E-2</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2">
         <v>77428.600000000006</v>
       </c>
       <c r="L35" s="4">
+        <f t="shared" si="1"/>
+        <v>628.60000000002037</v>
+      </c>
+      <c r="M35" s="9">
         <f t="shared" si="2"/>
-        <v>628.60000000002037</v>
-      </c>
-      <c r="M35" s="9">
-        <f t="shared" si="3"/>
         <v>0.35294778214487388</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="B36">
+        <f>E0+qconv*A36+(D36-M0)*cv*(E35+273.15)</f>
+        <v>56842519.515140355</v>
+      </c>
+      <c r="C36" s="4">
+        <f>(gamma-1)*qfire*A36/(Volume)</f>
+        <v>79999.999999999985</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="3"/>
+        <v>149.88847424627818</v>
+      </c>
+      <c r="E36" s="4">
         <f t="shared" si="4"/>
-        <v>56914202.462488241</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" si="5"/>
-        <v>79999.999999999985</v>
-      </c>
-      <c r="D36" s="4">
-        <f t="shared" si="6"/>
-        <v>149.87353539885356</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="0"/>
-        <v>252.1933335352154</v>
+        <v>251.47937499278544</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="2">
         <v>251.69200000000001</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.50133353521539448</v>
+        <f t="shared" si="0"/>
+        <v>0.21262500721456945</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" si="8"/>
-        <v>-9.5429693918784364E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.0528612645354338E-2</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2">
         <v>80662.3</v>
       </c>
       <c r="L36" s="4">
+        <f t="shared" si="1"/>
+        <v>662.30000000001746</v>
+      </c>
+      <c r="M36" s="9">
         <f t="shared" si="2"/>
-        <v>662.30000000001746</v>
-      </c>
-      <c r="M36" s="9">
-        <f t="shared" si="3"/>
         <v>0.36530612244898925</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="B37">
+        <f>E0+qconv*A37+(D37-M0)*cv*(E36+273.15)</f>
+        <v>57853450.687354438</v>
+      </c>
+      <c r="C37" s="4">
+        <f>(gamma-1)*qfire*A37/(Volume)</f>
+        <v>83199.999999999985</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="3"/>
+        <v>149.90847424627819</v>
+      </c>
+      <c r="E37" s="4">
         <f t="shared" si="4"/>
-        <v>57929541.050839581</v>
-      </c>
-      <c r="C37" s="4">
-        <f t="shared" si="5"/>
-        <v>83199.999999999985</v>
-      </c>
-      <c r="D37" s="4">
-        <f t="shared" si="6"/>
-        <v>149.89353539885357</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="0"/>
-        <v>261.49401304821583</v>
+        <v>260.73854999249681</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="2">
         <v>260.95</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.54401304821584517</v>
+        <f t="shared" si="0"/>
+        <v>0.21145000750317422</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.10175238755863231</v>
+        <f t="shared" si="6"/>
+        <v>3.9605645692559976E-2</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2">
         <v>83896.6</v>
       </c>
       <c r="L37" s="4">
+        <f t="shared" si="1"/>
+        <v>696.60000000002037</v>
+      </c>
+      <c r="M37" s="9">
         <f t="shared" si="2"/>
-        <v>696.60000000002037</v>
-      </c>
-      <c r="M37" s="9">
-        <f t="shared" si="3"/>
         <v>0.37756097560976715</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="B38">
+        <f>E0+qconv*A38+(D38-M0)*cv*(E37+273.15)</f>
+        <v>58864649.581999928</v>
+      </c>
+      <c r="C38" s="4">
+        <f>(gamma-1)*qfire*A38/(Volume)</f>
+        <v>86399.999999999985</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="3"/>
+        <v>149.92847424627817</v>
+      </c>
+      <c r="E38" s="4">
         <f t="shared" si="4"/>
-        <v>58945256.635250583</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" si="5"/>
-        <v>86399.999999999985</v>
-      </c>
-      <c r="D38" s="4">
-        <f t="shared" si="6"/>
-        <v>149.91353539885355</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="shared" si="0"/>
-        <v>270.79568986189383</v>
+        <v>269.99772499220819</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="2">
         <v>270.20800000000003</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.58768986189380712</v>
+        <f t="shared" si="0"/>
+        <v>0.21027500779183583</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.10804201096676028</v>
+        <f t="shared" si="6"/>
+        <v>3.8714146836360652E-2</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2">
         <v>87131.5</v>
       </c>
       <c r="L38" s="4">
+        <f t="shared" si="1"/>
+        <v>731.50000000001455</v>
+      </c>
+      <c r="M38" s="9">
         <f t="shared" si="2"/>
-        <v>731.50000000001455</v>
-      </c>
-      <c r="M38" s="9">
-        <f t="shared" si="3"/>
         <v>0.38971763452318303</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="B39">
+        <f>E0+qconv*A39+(D39-M0)*cv*(E38+273.15)</f>
+        <v>59876116.199076846</v>
+      </c>
+      <c r="C39" s="4">
+        <f>(gamma-1)*qfire*A39/(Volume)</f>
+        <v>89599.999999999985</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="3"/>
+        <v>149.94847424627818</v>
+      </c>
+      <c r="E39" s="4">
         <f t="shared" si="4"/>
-        <v>59961349.276358537</v>
-      </c>
-      <c r="C39" s="4">
-        <f t="shared" si="5"/>
-        <v>89599.999999999985</v>
-      </c>
-      <c r="D39" s="4">
-        <f t="shared" si="6"/>
-        <v>149.93353539885356</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="shared" si="0"/>
-        <v>280.09836413663697</v>
+        <v>279.25689999191968</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="2">
         <v>279.46499999999997</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.63336413663699886</v>
+        <f t="shared" si="0"/>
+        <v>0.20810000808029372</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.11448097774773998</v>
+        <f t="shared" si="6"/>
+        <v>3.7671507738831232E-2</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2">
         <v>90367</v>
       </c>
       <c r="L39" s="4">
+        <f t="shared" si="1"/>
+        <v>767.00000000001455</v>
+      </c>
+      <c r="M39" s="9">
         <f t="shared" si="2"/>
-        <v>767.00000000001455</v>
-      </c>
-      <c r="M39" s="9">
-        <f t="shared" si="3"/>
         <v>0.40178103719225483</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="B40">
+        <f>E0+qconv*A40+(D40-M0)*cv*(E39+273.15)</f>
+        <v>60887850.538585186</v>
+      </c>
+      <c r="C40" s="4">
+        <f>(gamma-1)*qfire*A40/(Volume)</f>
+        <v>92799.999999999985</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="3"/>
+        <v>149.96847424627819</v>
+      </c>
+      <c r="E40" s="4">
         <f t="shared" si="4"/>
-        <v>60977819.03481365</v>
-      </c>
-      <c r="C40" s="4">
-        <f t="shared" si="5"/>
-        <v>92799.999999999985</v>
-      </c>
-      <c r="D40" s="4">
-        <f t="shared" si="6"/>
-        <v>149.95353539885357</v>
-      </c>
-      <c r="E40" s="4">
-        <f t="shared" si="0"/>
-        <v>289.40203603286716</v>
+        <v>288.51607499163106</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="2">
         <v>288.721</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.68103603286715497</v>
+        <f t="shared" si="0"/>
+        <v>0.20492500836894578</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.1210618732570662</v>
+        <f t="shared" si="6"/>
+        <v>3.6485203129279123E-2</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2">
         <v>93603.1</v>
       </c>
       <c r="L40" s="4">
+        <f t="shared" si="1"/>
+        <v>803.10000000002037</v>
+      </c>
+      <c r="M40" s="9">
         <f t="shared" si="2"/>
-        <v>803.10000000002037</v>
-      </c>
-      <c r="M40" s="9">
-        <f t="shared" si="3"/>
         <v>0.41375579598146334</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="B41">
+        <f>E0+qconv*A41+(D41-M0)*cv*(E40+273.15)</f>
+        <v>61899852.60052494</v>
+      </c>
+      <c r="C41" s="4">
+        <f>(gamma-1)*qfire*A41/(Volume)</f>
+        <v>95999.999999999985</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="3"/>
+        <v>149.98847424627817</v>
+      </c>
+      <c r="E41" s="4">
         <f t="shared" si="4"/>
-        <v>61994665.971279152</v>
-      </c>
-      <c r="C41" s="4">
-        <f t="shared" si="5"/>
-        <v>95999.999999999985</v>
-      </c>
-      <c r="D41" s="4">
-        <f t="shared" si="6"/>
-        <v>149.97353539885356</v>
-      </c>
-      <c r="E41" s="4">
-        <f t="shared" si="0"/>
-        <v>298.7067057110404</v>
+        <v>297.77524999134255</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="2">
         <v>297.976</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.73070571104040027</v>
+        <f t="shared" si="0"/>
+        <v>0.20075000865745096</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.12777776385989018</v>
+        <f t="shared" si="6"/>
+        <v>3.5162222840992782E-2</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
         <v>96839.8</v>
       </c>
       <c r="L41" s="4">
+        <f t="shared" si="1"/>
+        <v>839.80000000001746</v>
+      </c>
+      <c r="M41" s="9">
         <f t="shared" si="2"/>
-        <v>839.80000000001746</v>
-      </c>
-      <c r="M41" s="9">
-        <f t="shared" si="3"/>
         <v>0.42564622402433727</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>310</v>
       </c>
       <c r="B42">
+        <f>E0+qconv*A42+(D42-M0)*cv*(E41+273.15)</f>
+        <v>62912122.384896122</v>
+      </c>
+      <c r="C42" s="4">
+        <f>(gamma-1)*qfire*A42/(Volume)</f>
+        <v>99199.999999999985</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="3"/>
+        <v>150.00847424627818</v>
+      </c>
+      <c r="E42" s="4">
         <f t="shared" si="4"/>
-        <v>63011890.146431334</v>
-      </c>
-      <c r="C42" s="4">
-        <f t="shared" si="5"/>
-        <v>99199.999999999985</v>
-      </c>
-      <c r="D42" s="4">
-        <f t="shared" si="6"/>
-        <v>149.99353539885357</v>
-      </c>
-      <c r="E42" s="4">
-        <f t="shared" si="0"/>
-        <v>308.01237333164761</v>
+        <v>307.03442499105392</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="2">
         <v>307.23099999999999</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.78137333164761458</v>
+        <f t="shared" si="0"/>
+        <v>0.19657500894606983</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.13445008959685592</v>
+        <f t="shared" si="6"/>
+        <v>3.388146949120547E-2</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2">
         <v>100077</v>
       </c>
       <c r="L42" s="4">
+        <f t="shared" si="1"/>
+        <v>877.00000000001455</v>
+      </c>
+      <c r="M42" s="9">
         <f t="shared" si="2"/>
-        <v>877.00000000001455</v>
-      </c>
-      <c r="M42" s="9">
-        <f t="shared" si="3"/>
         <v>0.43740648379053099</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="B43">
-        <f t="shared" si="4"/>
-        <v>64029491.620959431</v>
+        <f>E0+qconv*A43+(D43-M0)*cv*(E42+273.15)</f>
+        <v>63924659.891698711</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="5"/>
+        <f>(gamma-1)*qfire*A43/(Volume)</f>
         <v>102399.99999999999</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="6"/>
-        <v>150.01353539885355</v>
+        <f t="shared" si="3"/>
+        <v>150.02847424627817</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43:E74" si="9">B43/(cv*D43)-273.15</f>
-        <v>317.31903905521392</v>
+        <f t="shared" ref="E43:E74" si="7">B43/(cv*D43)-273.15</f>
+        <v>316.2935999907653</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="2">
         <v>316.48399999999998</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" ref="H43:H74" si="10">G43-E43</f>
-        <v>-0.83503905521394017</v>
+        <f t="shared" ref="H43:H74" si="8">G43-E43</f>
+        <v>0.19040000923467915</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.14141961728426153</v>
+        <f t="shared" si="6"/>
+        <v>3.2301650104889106E-2</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2">
         <v>103315</v>
       </c>
       <c r="L43" s="4">
-        <f t="shared" ref="L43:L74" si="11">K43-C43</f>
+        <f t="shared" ref="L43:L74" si="9">K43-C43</f>
         <v>915.00000000001455</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" ref="M43:M74" si="12">L43/(C43+P0)*100</f>
+        <f t="shared" ref="M43:M74" si="10">L43/(C43+P0)*100</f>
         <v>0.44918998527246667</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="B44">
+        <f>E0+qconv*A44+(D44-M0)*cv*(E43+273.15)</f>
+        <v>64937465.120932736</v>
+      </c>
+      <c r="C44" s="4">
+        <f>(gamma-1)*qfire*A44/(Volume)</f>
+        <v>105599.99999999999</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" ref="D44:D71" si="11">M0+mfire*A44</f>
+        <v>150.04847424627818</v>
+      </c>
+      <c r="E44" s="4">
         <f t="shared" si="7"/>
-        <v>330</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ref="B44:B75" si="13">E0+qconv*A44+(D44-M0)*cp*(E43+273.15)</f>
-        <v>65047470.455565758</v>
-      </c>
-      <c r="C44" s="4">
-        <f t="shared" ref="C44:C75" si="14">(gamma-1)*qfire*A44/(Volume/(1-0.0001))</f>
-        <v>105599.99999999999</v>
-      </c>
-      <c r="D44" s="4">
-        <f t="shared" ref="D44:D71" si="15">M0+mfire*A44</f>
-        <v>150.03353539885356</v>
-      </c>
-      <c r="E44" s="4">
-        <f t="shared" si="9"/>
-        <v>326.6267030422988</v>
+        <v>325.55277499047668</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="2">
         <v>325.73700000000002</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.88970304229877684</v>
+        <f t="shared" si="8"/>
+        <v>0.18422500952334531</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.14833904647944141</v>
+        <f t="shared" si="6"/>
+        <v>3.077069578076963E-2</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2">
         <v>106553</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>953.00000000001455</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.46060898985017618</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="B45">
+        <f>E0+qconv*A45+(D45-M0)*cv*(E44+273.15)</f>
+        <v>65950538.072598182</v>
+      </c>
+      <c r="C45" s="4">
+        <f>(gamma-1)*qfire*A45/(Volume)</f>
+        <v>108799.99999999999</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="11"/>
+        <v>150.06847424627819</v>
+      </c>
+      <c r="E45" s="4">
         <f t="shared" si="7"/>
-        <v>340</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="13"/>
-        <v>66065826.710965596</v>
-      </c>
-      <c r="C45" s="4">
-        <f t="shared" si="14"/>
-        <v>108799.99999999999</v>
-      </c>
-      <c r="D45" s="4">
-        <f t="shared" si="15"/>
-        <v>150.05353539885357</v>
-      </c>
-      <c r="E45" s="4">
-        <f t="shared" si="9"/>
-        <v>335.93536545349605</v>
+        <v>334.81194999018817</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="2">
         <v>334.99</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.94536545349603784</v>
+        <f t="shared" si="8"/>
+        <v>0.17805000981184094</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.15521066620803861</v>
+        <f t="shared" si="6"/>
+        <v>2.9286373894733788E-2</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2">
         <v>109793</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>993.00000000001455</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.4726320799619298</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="B46">
+        <f>E0+qconv*A46+(D46-M0)*cv*(E45+273.15)</f>
+        <v>66963878.746695027</v>
+      </c>
+      <c r="C46" s="4">
+        <f>(gamma-1)*qfire*A46/(Volume)</f>
+        <v>111999.99999999999</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="11"/>
+        <v>150.08847424627817</v>
+      </c>
+      <c r="E46" s="4">
         <f t="shared" si="7"/>
-        <v>350</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="13"/>
-        <v>67084560.447887249</v>
-      </c>
-      <c r="C46" s="4">
-        <f t="shared" si="14"/>
-        <v>111999.99999999999</v>
-      </c>
-      <c r="D46" s="4">
-        <f t="shared" si="15"/>
-        <v>150.07353539885355</v>
-      </c>
-      <c r="E46" s="4">
-        <f t="shared" si="9"/>
-        <v>345.24502644943414</v>
+        <v>344.07112498989954</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="2">
         <v>344.24099999999999</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.00402644943415</v>
+        <f t="shared" si="8"/>
+        <v>0.1698750101004407</v>
       </c>
       <c r="I46" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.16236004600471166</v>
+        <f t="shared" si="6"/>
+        <v>2.7522552813340699E-2</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2">
         <v>113032</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1032.0000000000146</v>
       </c>
       <c r="M46" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.48382559774965522</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="B47">
+        <f>E0+qconv*A47+(D47-M0)*cv*(E46+273.15)</f>
+        <v>67977487.143223315</v>
+      </c>
+      <c r="C47" s="4">
+        <f>(gamma-1)*qfire*A47/(Volume)</f>
+        <v>115199.99999999999</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="11"/>
+        <v>150.10847424627818</v>
+      </c>
+      <c r="E47" s="4">
         <f t="shared" si="7"/>
-        <v>360</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="13"/>
-        <v>68103671.72707212</v>
-      </c>
-      <c r="C47" s="4">
-        <f t="shared" si="14"/>
-        <v>115199.99999999999</v>
-      </c>
-      <c r="D47" s="4">
-        <f t="shared" si="15"/>
-        <v>150.09353539885356</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="shared" si="9"/>
-        <v>354.5556861907761</v>
+        <v>353.33029998961104</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="2">
         <v>353.49200000000002</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.0636861907760817</v>
+        <f t="shared" si="8"/>
+        <v>0.16170001038898363</v>
       </c>
       <c r="I47" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.16945619805215525</v>
+        <f t="shared" si="6"/>
+        <v>2.5810869135336756E-2</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2">
         <v>116272</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1072.0000000000146</v>
       </c>
       <c r="M47" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.49515011547344784</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+      <c r="B48">
+        <f>E0+qconv*A48+(D48-M0)*cv*(E47+273.15)</f>
+        <v>68991363.262183025</v>
+      </c>
+      <c r="C48" s="4">
+        <f>(gamma-1)*qfire*A48/(Volume)</f>
+        <v>118399.99999999999</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="11"/>
+        <v>150.12847424627819</v>
+      </c>
+      <c r="E48" s="4">
         <f t="shared" si="7"/>
-        <v>370</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="13"/>
-        <v>69123160.609274551</v>
-      </c>
-      <c r="C48" s="4">
-        <f t="shared" si="14"/>
-        <v>118399.99999999999</v>
-      </c>
-      <c r="D48" s="4">
-        <f t="shared" si="15"/>
-        <v>150.11353539885357</v>
-      </c>
-      <c r="E48" s="4">
-        <f t="shared" si="9"/>
-        <v>363.86734483821897</v>
+        <v>362.58947498932253</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="2">
         <v>362.74299999999999</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.124344838218974</v>
+        <f t="shared" si="8"/>
+        <v>0.15352501067746971</v>
       </c>
       <c r="I48" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.17650144808922275</v>
+        <f t="shared" si="6"/>
+        <v>2.4149044808024267E-2</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2">
         <v>119513</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1113.0000000000146</v>
       </c>
       <c r="M48" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.50659990896677942</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="B49">
+        <f>E0+qconv*A49+(D49-M0)*cv*(E48+273.15)</f>
+        <v>70005507.103574127</v>
+      </c>
+      <c r="C49" s="4">
+        <f>(gamma-1)*qfire*A49/(Volume)</f>
+        <v>121599.99999999999</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="11"/>
+        <v>150.14847424627817</v>
+      </c>
+      <c r="E49" s="4">
         <f t="shared" si="7"/>
-        <v>380</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="13"/>
-        <v>70143027.155261964</v>
-      </c>
-      <c r="C49" s="4">
-        <f t="shared" si="14"/>
-        <v>121599.99999999999</v>
-      </c>
-      <c r="D49" s="4">
-        <f t="shared" si="15"/>
-        <v>150.13353539885355</v>
-      </c>
-      <c r="E49" s="4">
-        <f t="shared" si="9"/>
-        <v>373.18000255249478</v>
+        <v>371.84864998903379</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="2">
         <v>371.99200000000002</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.1880025524947655</v>
+        <f t="shared" si="8"/>
+        <v>0.14335001096623046</v>
       </c>
       <c r="I49" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.18380742775410247</v>
+        <f t="shared" si="6"/>
+        <v>2.2224854419256177E-2</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2">
         <v>122755</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1155.0000000000146</v>
       </c>
       <c r="M49" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.51816958277255032</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
+        <f t="shared" si="5"/>
+        <v>390</v>
+      </c>
+      <c r="B50">
+        <f>E0+qconv*A50+(D50-M0)*cv*(E49+273.15)</f>
+        <v>71019918.66739668</v>
+      </c>
+      <c r="C50" s="4">
+        <f>(gamma-1)*qfire*A50/(Volume)</f>
+        <v>124799.99999999997</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="11"/>
+        <v>150.16847424627818</v>
+      </c>
+      <c r="E50" s="4">
         <f t="shared" si="7"/>
-        <v>390</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="13"/>
-        <v>71163271.425814837</v>
-      </c>
-      <c r="C50" s="4">
-        <f t="shared" si="14"/>
-        <v>124799.99999999997</v>
-      </c>
-      <c r="D50" s="4">
-        <f t="shared" si="15"/>
-        <v>150.15353539885356</v>
-      </c>
-      <c r="E50" s="4">
-        <f t="shared" si="9"/>
-        <v>382.49365949436958</v>
+        <v>381.10782498874528</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="2">
         <v>381.24099999999999</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.2526594943695954</v>
+        <f t="shared" si="8"/>
+        <v>0.13317501125470699</v>
       </c>
       <c r="I50" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.19105797428677077</v>
+        <f t="shared" si="6"/>
+        <v>2.0355127010822972E-2</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2">
         <v>125997</v>
       </c>
       <c r="L50" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1197.0000000000291</v>
       </c>
       <c r="M50" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.52941176470589524</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="B51">
+        <f>E0+qconv*A51+(D51-M0)*cv*(E50+273.15)</f>
+        <v>72034597.953650638</v>
+      </c>
+      <c r="C51" s="4">
+        <f>(gamma-1)*qfire*A51/(Volume)</f>
+        <v>127999.99999999997</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="11"/>
+        <v>150.18847424627819</v>
+      </c>
+      <c r="E51" s="4">
         <f t="shared" si="7"/>
-        <v>400</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="13"/>
-        <v>72183893.481726646</v>
-      </c>
-      <c r="C51" s="4">
-        <f t="shared" si="14"/>
-        <v>127999.99999999997</v>
-      </c>
-      <c r="D51" s="4">
-        <f t="shared" si="15"/>
-        <v>150.17353539885357</v>
-      </c>
-      <c r="E51" s="4">
-        <f t="shared" si="9"/>
-        <v>391.80831582464418</v>
+        <v>390.36699998845666</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="2">
         <v>390.48899999999998</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.3193158246442067</v>
+        <f t="shared" si="8"/>
+        <v>0.12200001154332085</v>
       </c>
       <c r="I51" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.19840579375386336</v>
+        <f t="shared" si="6"/>
+        <v>1.8386870501500837E-2</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2">
         <v>129240</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1240.0000000000291</v>
       </c>
       <c r="M51" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.54077627562146935</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="B52">
+        <f>E0+qconv*A52+(D52-M0)*cv*(E51+273.15)</f>
+        <v>73049544.962336019</v>
+      </c>
+      <c r="C52" s="4">
+        <f>(gamma-1)*qfire*A52/(Volume)</f>
+        <v>131199.99999999997</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="11"/>
+        <v>150.20847424627817</v>
+      </c>
+      <c r="E52" s="4">
         <f t="shared" si="7"/>
-        <v>410</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="13"/>
-        <v>73204893.383803919</v>
-      </c>
-      <c r="C52" s="4">
-        <f t="shared" si="14"/>
-        <v>131199.99999999997</v>
-      </c>
-      <c r="D52" s="4">
-        <f t="shared" si="15"/>
-        <v>150.19353539885356</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="shared" si="9"/>
-        <v>401.12397170415375</v>
+        <v>399.62617498816815</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="2">
         <v>399.73599999999999</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.387971704153756</v>
+        <f t="shared" si="8"/>
+        <v>0.10982501183184468</v>
       </c>
       <c r="I52" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.20584684600027039</v>
+        <f t="shared" si="6"/>
+        <v>1.6324152952321199E-2</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2">
         <v>132483</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1283.0000000000291</v>
       </c>
       <c r="M52" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.5518279569892599</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+      <c r="B53">
+        <f>E0+qconv*A53+(D53-M0)*cv*(E52+273.15)</f>
+        <v>74064759.69345282</v>
+      </c>
+      <c r="C53" s="4">
+        <f>(gamma-1)*qfire*A53/(Volume)</f>
+        <v>134399.99999999997</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="11"/>
+        <v>150.22847424627818</v>
+      </c>
+      <c r="E53" s="4">
         <f t="shared" si="7"/>
-        <v>420</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="13"/>
-        <v>74226271.192866266</v>
-      </c>
-      <c r="C53" s="4">
-        <f t="shared" si="14"/>
-        <v>134399.99999999997</v>
-      </c>
-      <c r="D53" s="4">
-        <f t="shared" si="15"/>
-        <v>150.21353539885357</v>
-      </c>
-      <c r="E53" s="4">
-        <f t="shared" si="9"/>
-        <v>410.44062729376822</v>
+        <v>408.88534998787952</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="2">
         <v>408.983</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.457627293768212</v>
+        <f t="shared" si="8"/>
+        <v>9.7650012120482188E-2</v>
       </c>
       <c r="I53" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.21323102388614334</v>
+        <f t="shared" si="6"/>
+        <v>1.4317441481914028E-2</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2">
         <v>135727</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1327.0000000000291</v>
       </c>
       <c r="M53" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.56300381841324965</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
+        <f t="shared" si="5"/>
+        <v>430</v>
+      </c>
+      <c r="B54">
+        <f>E0+qconv*A54+(D54-M0)*cv*(E53+273.15)</f>
+        <v>75080242.147001043</v>
+      </c>
+      <c r="C54" s="4">
+        <f>(gamma-1)*qfire*A54/(Volume)</f>
+        <v>137599.99999999997</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="11"/>
+        <v>150.24847424627819</v>
+      </c>
+      <c r="E54" s="4">
         <f t="shared" si="7"/>
-        <v>430</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="13"/>
-        <v>75248026.969746321</v>
-      </c>
-      <c r="C54" s="4">
-        <f t="shared" si="14"/>
-        <v>137599.99999999997</v>
-      </c>
-      <c r="D54" s="4">
-        <f t="shared" si="15"/>
-        <v>150.23353539885358</v>
-      </c>
-      <c r="E54" s="4">
-        <f t="shared" si="9"/>
-        <v>419.75828275439176</v>
+        <v>418.1445249875909</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="2">
         <v>418.22800000000001</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.5302827543917488</v>
+        <f t="shared" si="8"/>
+        <v>8.347501240911015E-2</v>
       </c>
       <c r="I54" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.22084925126146498</v>
+        <f t="shared" si="6"/>
+        <v>1.2075173372826665E-2</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2">
         <v>138971</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1371.0000000000291</v>
       </c>
       <c r="M54" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.57388028463793606</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="B55">
+        <f>E0+qconv*A55+(D55-M0)*cv*(E54+273.15)</f>
+        <v>76095992.322980672</v>
+      </c>
+      <c r="C55" s="4">
+        <f>(gamma-1)*qfire*A55/(Volume)</f>
+        <v>140799.99999999997</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="11"/>
+        <v>150.26847424627817</v>
+      </c>
+      <c r="E55" s="4">
         <f t="shared" si="7"/>
-        <v>440</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="13"/>
-        <v>76270160.775289744</v>
-      </c>
-      <c r="C55" s="4">
-        <f t="shared" si="14"/>
-        <v>140799.99999999997</v>
-      </c>
-      <c r="D55" s="4">
-        <f t="shared" si="15"/>
-        <v>150.25353539885356</v>
-      </c>
-      <c r="E55" s="4">
-        <f t="shared" si="9"/>
-        <v>429.0769382469631</v>
+        <v>427.40369998730228</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="2">
         <v>427.47300000000001</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.6039382469630823</v>
+        <f t="shared" si="8"/>
+        <v>6.9300012697738111E-2</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.22840739362223103</v>
+        <f t="shared" si="6"/>
+        <v>9.8921771020543028E-3</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2">
         <v>142216</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1416.0000000000291</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.58488228004957843</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+      <c r="B56">
+        <f>E0+qconv*A56+(D56-M0)*cv*(E55+273.15)</f>
+        <v>77112010.221391737</v>
+      </c>
+      <c r="C56" s="4">
+        <f>(gamma-1)*qfire*A56/(Volume)</f>
+        <v>143999.99999999997</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="11"/>
+        <v>150.28847424627818</v>
+      </c>
+      <c r="E56" s="4">
         <f t="shared" si="7"/>
-        <v>450</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="13"/>
-        <v>77292672.670355335</v>
-      </c>
-      <c r="C56" s="4">
-        <f t="shared" si="14"/>
-        <v>143999.99999999997</v>
-      </c>
-      <c r="D56" s="4">
-        <f t="shared" si="15"/>
-        <v>150.27353539885357</v>
-      </c>
-      <c r="E56" s="4">
-        <f t="shared" si="9"/>
-        <v>438.39659393245563</v>
+        <v>436.66287498701365</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="2">
         <v>436.71800000000002</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.6785939324556125</v>
+        <f t="shared" si="8"/>
+        <v>5.5125012986366073E-2</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.23590780235186606</v>
+        <f t="shared" si="6"/>
+        <v>7.7661331498635631E-3</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2">
         <v>145462</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1462.0000000000291</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.59600489196902939</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
+        <f t="shared" si="5"/>
+        <v>460</v>
+      </c>
+      <c r="B57">
+        <f>E0+qconv*A57+(D57-M0)*cv*(E56+273.15)</f>
+        <v>78128295.842234209</v>
+      </c>
+      <c r="C57" s="4">
+        <f>(gamma-1)*qfire*A57/(Volume)</f>
+        <v>147199.99999999997</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="11"/>
+        <v>150.30847424627817</v>
+      </c>
+      <c r="E57" s="4">
         <f t="shared" si="7"/>
-        <v>460</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="13"/>
-        <v>78315562.715814859</v>
-      </c>
-      <c r="C57" s="4">
-        <f t="shared" si="14"/>
-        <v>147199.99999999997</v>
-      </c>
-      <c r="D57" s="4">
-        <f t="shared" si="15"/>
-        <v>150.29353539885355</v>
-      </c>
-      <c r="E57" s="4">
-        <f t="shared" si="9"/>
-        <v>447.7172499718771</v>
+        <v>445.92204998672514</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="2">
         <v>445.96100000000001</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.7562499718770823</v>
+        <f t="shared" si="8"/>
+        <v>3.8950013274870798E-2</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.24363015131365703</v>
+        <f t="shared" si="6"/>
+        <v>5.4167052210678836E-3</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2">
         <v>148708</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1508.0000000000291</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.60684104627767776</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
+        <f t="shared" si="5"/>
+        <v>470</v>
+      </c>
+      <c r="B58">
+        <f>E0+qconv*A58+(D58-M0)*cv*(E57+273.15)</f>
+        <v>79144849.185508117</v>
+      </c>
+      <c r="C58" s="4">
+        <f>(gamma-1)*qfire*A58/(Volume)</f>
+        <v>150399.99999999997</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="11"/>
+        <v>150.32847424627818</v>
+      </c>
+      <c r="E58" s="4">
         <f t="shared" si="7"/>
-        <v>470</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="13"/>
-        <v>79338830.972553238</v>
-      </c>
-      <c r="C58" s="4">
-        <f t="shared" si="14"/>
-        <v>150399.99999999997</v>
-      </c>
-      <c r="D58" s="4">
-        <f t="shared" si="15"/>
-        <v>150.31353539885356</v>
-      </c>
-      <c r="E58" s="4">
-        <f t="shared" si="9"/>
-        <v>457.03890652627024</v>
+        <v>455.18122498643652</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="2">
         <v>455.20400000000001</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.8349065262702311</v>
+        <f t="shared" si="8"/>
+        <v>2.277501356348921E-2</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.25129203003089118</v>
+        <f t="shared" si="6"/>
+        <v>3.1270132025320407E-3</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2">
         <v>151955</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1555.0000000000291</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.61779896702424686</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="B59">
+        <f>E0+qconv*A59+(D59-M0)*cv*(E58+273.15)</f>
+        <v>80161670.251213446</v>
+      </c>
+      <c r="C59" s="4">
+        <f>(gamma-1)*qfire*A59/(Volume)</f>
+        <v>153599.99999999997</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="11"/>
+        <v>150.34847424627819</v>
+      </c>
+      <c r="E59" s="4">
         <f t="shared" si="7"/>
-        <v>480</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="13"/>
-        <v>80362477.501468405</v>
-      </c>
-      <c r="C59" s="4">
-        <f t="shared" si="14"/>
-        <v>153599.99999999997</v>
-      </c>
-      <c r="D59" s="4">
-        <f t="shared" si="15"/>
-        <v>150.33353539885357</v>
-      </c>
-      <c r="E59" s="4">
-        <f t="shared" si="9"/>
-        <v>466.3615637567118</v>
+        <v>464.44039998614801</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="2">
         <v>464.44600000000003</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.9155637567117765</v>
+        <f t="shared" si="8"/>
+        <v>5.6000138520175824E-3</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.25903094023043138</v>
+        <f t="shared" si="6"/>
+        <v>7.5923084846586273E-4</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2">
         <v>155203</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1603.0000000000291</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.62887406826207504</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
+        <f t="shared" si="5"/>
+        <v>490</v>
+      </c>
+      <c r="B60">
+        <f>E0+qconv*A60+(D60-M0)*cv*(E59+273.15)</f>
+        <v>81178759.039350182</v>
+      </c>
+      <c r="C60" s="4">
+        <f>(gamma-1)*qfire*A60/(Volume)</f>
+        <v>156799.99999999997</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="11"/>
+        <v>150.36847424627817</v>
+      </c>
+      <c r="E60" s="4">
         <f t="shared" si="7"/>
-        <v>490</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="13"/>
-        <v>81386502.363471344</v>
-      </c>
-      <c r="C60" s="4">
-        <f t="shared" si="14"/>
-        <v>156799.99999999997</v>
-      </c>
-      <c r="D60" s="4">
-        <f t="shared" si="15"/>
-        <v>150.35353539885355</v>
-      </c>
-      <c r="E60" s="4">
-        <f t="shared" si="9"/>
-        <v>475.68522182431332</v>
+        <v>473.69957498585939</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="2">
         <v>473.68799999999999</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="10"/>
-        <v>-1.9972218243133284</v>
+        <f t="shared" si="8"/>
+        <v>-1.1574985859397202E-2</v>
       </c>
       <c r="I60" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.26671045459743387</v>
+        <f t="shared" si="6"/>
+        <v>-1.5498416611693672E-3</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2">
         <v>158451</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1651.0000000000291</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.63967454475010821</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="B61">
+        <f>E0+qconv*A61+(D61-M0)*cv*(E60+273.15)</f>
+        <v>82196115.549918354</v>
+      </c>
+      <c r="C61" s="4">
+        <f>(gamma-1)*qfire*A61/(Volume)</f>
+        <v>159999.99999999997</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="11"/>
+        <v>150.38847424627818</v>
+      </c>
+      <c r="E61" s="4">
         <f t="shared" si="7"/>
-        <v>500</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="13"/>
-        <v>82410905.619486198</v>
-      </c>
-      <c r="C61" s="4">
-        <f t="shared" si="14"/>
-        <v>159999.99999999997</v>
-      </c>
-      <c r="D61" s="4">
-        <f t="shared" si="15"/>
-        <v>150.37353539885356</v>
-      </c>
-      <c r="E61" s="4">
-        <f t="shared" si="9"/>
-        <v>485.00988089022098</v>
+        <v>482.95874998557088</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="2">
         <v>482.92899999999997</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="10"/>
-        <v>-2.0808808902210103</v>
+        <f t="shared" si="8"/>
+        <v>-2.9749985570902027E-2</v>
       </c>
       <c r="I61" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.27446465352105792</v>
+        <f t="shared" si="6"/>
+        <v>-3.9346172850756927E-3</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2">
         <v>161699</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1699.0000000000291</v>
       </c>
       <c r="M61" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.65021048603139275</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
+        <f t="shared" si="5"/>
+        <v>510</v>
+      </c>
+      <c r="B62">
+        <f>E0+qconv*A62+(D62-M0)*cv*(E61+273.15)</f>
+        <v>83213739.782917932</v>
+      </c>
+      <c r="C62" s="4">
+        <f>(gamma-1)*qfire*A62/(Volume)</f>
+        <v>163199.99999999997</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="11"/>
+        <v>150.40847424627819</v>
+      </c>
+      <c r="E62" s="4">
         <f t="shared" si="7"/>
-        <v>510</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="13"/>
-        <v>83435687.330450132</v>
-      </c>
-      <c r="C62" s="4">
-        <f t="shared" si="14"/>
-        <v>163199.99999999997</v>
-      </c>
-      <c r="D62" s="4">
-        <f t="shared" si="15"/>
-        <v>150.39353539885357</v>
-      </c>
-      <c r="E62" s="4">
-        <f t="shared" si="9"/>
-        <v>494.33554111561568</v>
+        <v>492.21792498528214</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="2">
         <v>492.16899999999998</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="10"/>
-        <v>-2.1665411156157006</v>
+        <f t="shared" si="8"/>
+        <v>-4.8924985282155831E-2</v>
       </c>
       <c r="I62" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.28229080543542495</v>
+        <f t="shared" si="6"/>
+        <v>-6.3923485274218475E-3</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2">
         <v>164949</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1749.0000000000291</v>
       </c>
       <c r="M62" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.66124763705105072</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="B63">
+        <f>E0+qconv*A63+(D63-M0)*cv*(E62+273.15)</f>
+        <v>84231631.738348931</v>
+      </c>
+      <c r="C63" s="4">
+        <f>(gamma-1)*qfire*A63/(Volume)</f>
+        <v>166399.99999999997</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="11"/>
+        <v>150.42847424627817</v>
+      </c>
+      <c r="E63" s="4">
         <f t="shared" si="7"/>
-        <v>520</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="13"/>
-        <v>84460847.557313353</v>
-      </c>
-      <c r="C63" s="4">
-        <f t="shared" si="14"/>
-        <v>166399.99999999997</v>
-      </c>
-      <c r="D63" s="4">
-        <f t="shared" si="15"/>
-        <v>150.41353539885355</v>
-      </c>
-      <c r="E63" s="4">
-        <f t="shared" si="9"/>
-        <v>503.66220266171229</v>
+        <v>501.47709998499363</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="2">
         <v>501.40800000000002</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="10"/>
-        <v>-2.2542026617122701</v>
+        <f t="shared" si="8"/>
+        <v>-6.9099984993613361E-2</v>
       </c>
       <c r="I63" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.2901863093793256</v>
+        <f t="shared" si="6"/>
+        <v>-8.9204192565625444E-3</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2">
         <v>168199</v>
       </c>
       <c r="L63" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1799.0000000000291</v>
       </c>
       <c r="M63" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.67202091893912186</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="B64">
+        <f>E0+qconv*A64+(D64-M0)*cv*(E63+273.15)</f>
+        <v>85249791.416211367</v>
+      </c>
+      <c r="C64" s="4">
+        <f>(gamma-1)*qfire*A64/(Volume)</f>
+        <v>169599.99999999997</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="11"/>
+        <v>150.44847424627818</v>
+      </c>
+      <c r="E64" s="4">
         <f t="shared" si="7"/>
-        <v>530</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="13"/>
-        <v>85486386.361039281</v>
-      </c>
-      <c r="C64" s="4">
-        <f t="shared" si="14"/>
-        <v>169599.99999999997</v>
-      </c>
-      <c r="D64" s="4">
-        <f t="shared" si="15"/>
-        <v>150.43353539885356</v>
-      </c>
-      <c r="E64" s="4">
-        <f t="shared" si="9"/>
-        <v>512.98986568976136</v>
+        <v>510.73627498470512</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="2">
         <v>510.64600000000002</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="10"/>
-        <v>-2.3438656897613441</v>
+        <f t="shared" si="8"/>
+        <v>-9.0274984705104089E-2</v>
       </c>
       <c r="I64" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.29814868728287047</v>
+        <f t="shared" si="6"/>
+        <v>-1.1516336946563517E-2</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2">
         <v>171449</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1849.0000000000291</v>
       </c>
       <c r="M64" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.68253968253969333</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
+      <c r="B65">
+        <f>E0+qconv*A65+(D65-M0)*cv*(E64+273.15)</f>
+        <v>86268218.816505209</v>
+      </c>
+      <c r="C65" s="4">
+        <f>(gamma-1)*qfire*A65/(Volume)</f>
+        <v>172799.99999999997</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="11"/>
+        <v>150.46847424627819</v>
+      </c>
+      <c r="E65" s="4">
         <f t="shared" si="7"/>
-        <v>540</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="13"/>
-        <v>86512303.802604288</v>
-      </c>
-      <c r="C65" s="4">
-        <f t="shared" si="14"/>
-        <v>172799.99999999997</v>
-      </c>
-      <c r="D65" s="4">
-        <f t="shared" si="15"/>
-        <v>150.45353539885357</v>
-      </c>
-      <c r="E65" s="4">
-        <f t="shared" si="9"/>
-        <v>522.3185303610469</v>
+        <v>519.9954499844165</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="2">
         <v>519.88400000000001</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="10"/>
-        <v>-2.4345303610468818</v>
+        <f t="shared" si="8"/>
+        <v>-0.11144998441648113</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.30604986471833129</v>
+        <f t="shared" si="6"/>
+        <v>-1.4051645182944803E-2</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2">
         <v>174700</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1900.0000000000291</v>
       </c>
       <c r="M65" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.69317767238235284</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="B66">
+        <f>E0+qconv*A66+(D66-M0)*cv*(E65+273.15)</f>
+        <v>87286913.939230457</v>
+      </c>
+      <c r="C66" s="4">
+        <f>(gamma-1)*qfire*A66/(Volume)</f>
+        <v>175999.99999999997</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" si="11"/>
+        <v>150.48847424627817</v>
+      </c>
+      <c r="E66" s="4">
         <f t="shared" si="7"/>
-        <v>550</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="13"/>
-        <v>87538599.942997918</v>
-      </c>
-      <c r="C66" s="4">
-        <f t="shared" si="14"/>
-        <v>175999.99999999997</v>
-      </c>
-      <c r="D66" s="4">
-        <f t="shared" si="15"/>
-        <v>150.47353539885356</v>
-      </c>
-      <c r="E66" s="4">
-        <f t="shared" si="9"/>
-        <v>531.64819683688847</v>
+        <v>529.25462498412787</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="2">
         <v>529.12099999999998</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="10"/>
-        <v>-2.5271968368884927</v>
+        <f t="shared" si="8"/>
+        <v>-0.13362498412789137</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.31401621509853972</v>
+        <f t="shared" si="6"/>
+        <v>-1.6653067538155649E-2</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2">
         <v>177952</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1952.0000000000291</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.7039307609087736</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
+        <f t="shared" si="5"/>
+        <v>560</v>
+      </c>
+      <c r="B67">
+        <f>E0+qconv*A67+(D67-M0)*cv*(E66+273.15)</f>
+        <v>88305876.784387156</v>
+      </c>
+      <c r="C67" s="4">
+        <f>(gamma-1)*qfire*A67/(Volume)</f>
+        <v>179199.99999999997</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" si="11"/>
+        <v>150.50847424627818</v>
+      </c>
+      <c r="E67" s="4">
         <f t="shared" si="7"/>
-        <v>560</v>
-      </c>
-      <c r="B67">
-        <f t="shared" si="13"/>
-        <v>88565274.843222812</v>
-      </c>
-      <c r="C67" s="4">
-        <f t="shared" si="14"/>
-        <v>179199.99999999997</v>
-      </c>
-      <c r="D67" s="4">
-        <f t="shared" si="15"/>
-        <v>150.49353539885357</v>
-      </c>
-      <c r="E67" s="4">
-        <f t="shared" si="9"/>
-        <v>540.97886527863977</v>
+        <v>538.51379998383936</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="2">
         <v>538.35799999999995</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="10"/>
-        <v>-2.6208652786398261</v>
+        <f t="shared" si="8"/>
+        <v>-0.15579998383941529</v>
       </c>
       <c r="I67" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.32192265750739862</v>
+        <f t="shared" si="6"/>
+        <v>-1.9195137671843606E-2</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2">
         <v>181204</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2004.0000000000291</v>
       </c>
       <c r="M67" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.71443850267380715</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
+        <f t="shared" si="5"/>
+        <v>570</v>
+      </c>
+      <c r="B68">
+        <f>E0+qconv*A68+(D68-M0)*cv*(E67+273.15)</f>
+        <v>89325107.351975247</v>
+      </c>
+      <c r="C68" s="4">
+        <f>(gamma-1)*qfire*A68/(Volume)</f>
+        <v>182399.99999999997</v>
+      </c>
+      <c r="D68" s="4">
+        <f t="shared" si="11"/>
+        <v>150.52847424627817</v>
+      </c>
+      <c r="E68" s="4">
         <f t="shared" si="7"/>
-        <v>570</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="13"/>
-        <v>89592328.564294651</v>
-      </c>
-      <c r="C68" s="4">
-        <f t="shared" si="14"/>
-        <v>182399.99999999997</v>
-      </c>
-      <c r="D68" s="4">
-        <f t="shared" si="15"/>
-        <v>150.51353539885355</v>
-      </c>
-      <c r="E68" s="4">
-        <f t="shared" si="9"/>
-        <v>550.31053584768904</v>
+        <v>547.77297498355074</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="2">
         <v>547.59299999999996</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="10"/>
-        <v>-2.7175358476890779</v>
+        <f t="shared" si="8"/>
+        <v>-0.17997498355077823</v>
       </c>
       <c r="I68" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.33001409653367114</v>
+        <f t="shared" si="6"/>
+        <v>-2.1923492097950418E-2</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2">
         <v>184457</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2057.0000000000291</v>
       </c>
       <c r="M68" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.72506168487840295</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
+        <f t="shared" si="5"/>
+        <v>580</v>
+      </c>
+      <c r="B69">
+        <f>E0+qconv*A69+(D69-M0)*cv*(E68+273.15)</f>
+        <v>90344605.641994774</v>
+      </c>
+      <c r="C69" s="4">
+        <f>(gamma-1)*qfire*A69/(Volume)</f>
+        <v>185599.99999999997</v>
+      </c>
+      <c r="D69" s="4">
+        <f t="shared" si="11"/>
+        <v>150.54847424627818</v>
+      </c>
+      <c r="E69" s="4">
         <f t="shared" si="7"/>
-        <v>580</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="13"/>
-        <v>90619761.167242318</v>
-      </c>
-      <c r="C69" s="4">
-        <f t="shared" si="14"/>
-        <v>185599.99999999997</v>
-      </c>
-      <c r="D69" s="4">
-        <f t="shared" si="15"/>
-        <v>150.53353539885356</v>
-      </c>
-      <c r="E69" s="4">
-        <f t="shared" si="9"/>
-        <v>559.64320870545987</v>
+        <v>557.03214998326212</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="2">
         <v>556.82799999999997</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="10"/>
-        <v>-2.8152087054598951</v>
+        <f t="shared" si="8"/>
+        <v>-0.20414998326214118</v>
       </c>
       <c r="I69" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.33804414781864184</v>
+        <f t="shared" si="6"/>
+        <v>-2.4590986841412716E-2</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2">
         <v>187710</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2110.0000000000291</v>
       </c>
       <c r="M69" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.73544789125131715</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
+        <f t="shared" si="5"/>
+        <v>590</v>
+      </c>
+      <c r="B70">
+        <f>E0+qconv*A70+(D70-M0)*cv*(E69+273.15)</f>
+        <v>91364371.654445723</v>
+      </c>
+      <c r="C70" s="4">
+        <f>(gamma-1)*qfire*A70/(Volume)</f>
+        <v>188799.99999999997</v>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" si="11"/>
+        <v>150.56847424627819</v>
+      </c>
+      <c r="E70" s="4">
         <f t="shared" si="7"/>
-        <v>590</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="13"/>
-        <v>91647572.71310772</v>
-      </c>
-      <c r="C70" s="4">
-        <f t="shared" si="14"/>
-        <v>188799.99999999997</v>
-      </c>
-      <c r="D70" s="4">
-        <f t="shared" si="15"/>
-        <v>150.55353539885357</v>
-      </c>
-      <c r="E70" s="4">
-        <f t="shared" si="9"/>
-        <v>568.97688401340974</v>
+        <v>566.29132498297361</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="2">
         <v>566.06200000000001</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="10"/>
-        <v>-2.9148840134097327</v>
+        <f t="shared" si="8"/>
+        <v>-0.22932498297359416</v>
       </c>
       <c r="I70" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.34613358969351193</v>
+        <f t="shared" si="6"/>
+        <v>-2.7318762628018769E-2</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2">
         <v>190964</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2164.0000000000291</v>
       </c>
       <c r="M70" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.74594967252672495</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="B71">
+        <f>E0+qconv*A71+(D71-M0)*cv*(E70+273.15)</f>
+        <v>92384405.389328077</v>
+      </c>
+      <c r="C71" s="4">
+        <f>(gamma-1)*qfire*A71/(Volume)</f>
+        <v>191999.99999999997</v>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="11"/>
+        <v>150.58847424627817</v>
+      </c>
+      <c r="E71" s="4">
         <f t="shared" si="7"/>
-        <v>600</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="13"/>
-        <v>92675763.262945876</v>
-      </c>
-      <c r="C71" s="4">
-        <f t="shared" si="14"/>
-        <v>191999.99999999997</v>
-      </c>
-      <c r="D71" s="4">
-        <f t="shared" si="15"/>
-        <v>150.57353539885355</v>
-      </c>
-      <c r="E71" s="4">
-        <f t="shared" si="9"/>
-        <v>578.31156193303104</v>
+        <v>575.55049998268498</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="2">
         <v>575.29600000000005</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="10"/>
-        <v>-3.0155619330309946</v>
+        <f t="shared" si="8"/>
+        <v>-0.25449998268493346</v>
       </c>
       <c r="I71" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.3541630142627829</v>
+        <f t="shared" si="6"/>
+        <v>-2.9987019294807266E-2</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2">
         <v>194219</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2219.0000000000291</v>
       </c>
       <c r="M71" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.75656324582339896</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
+        <f t="shared" si="5"/>
+        <v>610</v>
+      </c>
+      <c r="B72">
+        <f>E0+qconv*A72+(D72-M0)*cv*(E71+273.15)</f>
+        <v>93404706.846641868</v>
+      </c>
+      <c r="C72" s="4">
+        <f>(gamma-1)*qfire*A72/(Volume)</f>
+        <v>195199.99999999997</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" ref="D72:D101" si="12">M0+mfire*A72</f>
+        <v>150.60847424627818</v>
+      </c>
+      <c r="E72" s="4">
         <f t="shared" si="7"/>
-        <v>610</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="13"/>
-        <v>93704332.877824992</v>
-      </c>
-      <c r="C72" s="4">
-        <f t="shared" si="14"/>
-        <v>195199.99999999997</v>
-      </c>
-      <c r="D72" s="4">
-        <f t="shared" ref="D72:D101" si="16">M0+mfire*A72</f>
-        <v>150.59353539885356</v>
-      </c>
-      <c r="E72" s="4">
-        <f t="shared" si="9"/>
-        <v>587.64724262585116</v>
+        <v>584.80967498239636</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="2">
         <v>584.52800000000002</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="10"/>
-        <v>-3.1192426258511432</v>
+        <f t="shared" si="8"/>
+        <v>-0.28167498239633915</v>
       </c>
       <c r="I72" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.36236670744157273</v>
+        <f t="shared" si="6"/>
+        <v>-3.2830795037321371E-2</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2">
         <v>197474</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2274.0000000000291</v>
       </c>
       <c r="M72" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.76694772344014472</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
+        <f t="shared" si="5"/>
+        <v>620</v>
+      </c>
+      <c r="B73">
+        <f>E0+qconv*A73+(D73-M0)*cv*(E72+273.15)</f>
+        <v>94425276.026387081</v>
+      </c>
+      <c r="C73" s="4">
+        <f>(gamma-1)*qfire*A73/(Volume)</f>
+        <v>198399.99999999997</v>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" si="12"/>
+        <v>150.62847424627819</v>
+      </c>
+      <c r="E73" s="4">
         <f t="shared" si="7"/>
-        <v>620</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="13"/>
-        <v>94733281.61882633</v>
-      </c>
-      <c r="C73" s="4">
-        <f t="shared" si="14"/>
-        <v>198399.99999999997</v>
-      </c>
-      <c r="D73" s="4">
-        <f t="shared" si="16"/>
-        <v>150.61353539885357</v>
-      </c>
-      <c r="E73" s="4">
-        <f t="shared" si="9"/>
-        <v>596.98392625343172</v>
+        <v>594.06884998210774</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="2">
         <v>593.76</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="10"/>
-        <v>-3.2239262534317277</v>
+        <f t="shared" si="8"/>
+        <v>-0.30884998210774484</v>
       </c>
       <c r="I73" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.3705092004989517</v>
+        <f t="shared" si="6"/>
+        <v>-3.5613845583974214E-2</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2">
         <v>200730</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2330.0000000000291</v>
       </c>
       <c r="M73" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.77744411077745379</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
+        <f t="shared" si="5"/>
+        <v>630</v>
+      </c>
+      <c r="B74">
+        <f>E0+qconv*A74+(D74-M0)*cv*(E73+273.15)</f>
+        <v>95446112.928563699</v>
+      </c>
+      <c r="C74" s="4">
+        <f>(gamma-1)*qfire*A74/(Volume)</f>
+        <v>201599.99999999997</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" si="12"/>
+        <v>150.64847424627817</v>
+      </c>
+      <c r="E74" s="4">
         <f t="shared" si="7"/>
-        <v>630</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="13"/>
-        <v>95762609.547044262</v>
-      </c>
-      <c r="C74" s="4">
-        <f t="shared" si="14"/>
-        <v>201599.99999999997</v>
-      </c>
-      <c r="D74" s="4">
-        <f t="shared" si="16"/>
-        <v>150.63353539885355</v>
-      </c>
-      <c r="E74" s="4">
-        <f t="shared" si="9"/>
-        <v>606.32161297736934</v>
+        <v>603.32802498181923</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="2">
         <v>602.99099999999999</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="10"/>
-        <v>-3.3306129773693556</v>
+        <f t="shared" si="8"/>
+        <v>-0.33702498181924057</v>
       </c>
       <c r="I74" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.37870613766530514</v>
+        <f t="shared" si="6"/>
+        <v>-3.8452188442058374E-2</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2">
         <v>203987</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2387.0000000000291</v>
       </c>
       <c r="M74" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.78804886101024407</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>640</v>
       </c>
       <c r="B75">
-        <f t="shared" si="13"/>
-        <v>96792316.723586366</v>
+        <f>E0+qconv*A75+(D75-M0)*cv*(E74+273.15)</f>
+        <v>96467217.553171754</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" si="14"/>
+        <f>(gamma-1)*qfire*A75/(Volume)</f>
         <v>204799.99999999997</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="16"/>
-        <v>150.65353539885356</v>
+        <f t="shared" si="12"/>
+        <v>150.66847424627818</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" ref="E75:E101" si="17">B75/(cv*D75)-273.15</f>
-        <v>615.66030295929545</v>
+        <f t="shared" ref="E75:E101" si="13">B75/(cv*D75)-273.15</f>
+        <v>612.58719998153072</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="2">
         <v>612.22199999999998</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" ref="H75:H101" si="18">G75-E75</f>
-        <v>-3.4383029592954699</v>
+        <f t="shared" ref="H75:H101" si="14">G75-E75</f>
+        <v>-0.3651999815307363</v>
       </c>
       <c r="I75" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.38684328341465374</v>
+        <f t="shared" si="6"/>
+        <v>-4.1231189289368385E-2</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2">
         <v>207244</v>
       </c>
       <c r="L75" s="4">
-        <f t="shared" ref="L75:L101" si="19">K75-C75</f>
+        <f t="shared" ref="L75:L101" si="15">K75-C75</f>
         <v>2444.0000000000291</v>
       </c>
       <c r="M75" s="9">
-        <f t="shared" ref="M75:M101" si="20">L75/(C75+P0)*100</f>
+        <f t="shared" ref="M75:M101" si="16">L75/(C75+P0)*100</f>
         <v>0.79843188500490991</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>650</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76:B101" si="21">E0+qconv*A76+(D76-M0)*cp*(E75+273.15)</f>
-        <v>97822403.209573254</v>
+        <f>E0+qconv*A76+(D76-M0)*cv*(E75+273.15)</f>
+        <v>97488589.90021123</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" ref="C76:C101" si="22">(gamma-1)*qfire*A76/(Volume/(1-0.0001))</f>
+        <f>(gamma-1)*qfire*A76/(Volume)</f>
         <v>207999.99999999997</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="16"/>
-        <v>150.67353539885357</v>
+        <f t="shared" si="12"/>
+        <v>150.68847424627819</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="17"/>
-        <v>624.99999636087568</v>
+        <f t="shared" si="13"/>
+        <v>621.84637498124221</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="2">
         <v>621.452</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.5479963608756862</v>
+        <f t="shared" si="14"/>
+        <v>-0.39437498124220838</v>
       </c>
       <c r="I76" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.39503383346339233</v>
+        <f t="shared" si="6"/>
+        <v>-4.4064422188355108E-2</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2">
         <v>210501</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>2501.0000000000291</v>
       </c>
       <c r="M76" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.80860006466214973</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" ref="A77:A101" si="23">A76+10</f>
+        <f t="shared" ref="A77:A101" si="17">A76+10</f>
         <v>660</v>
       </c>
       <c r="B77">
-        <f t="shared" si="21"/>
-        <v>98852869.0661387</v>
+        <f>E0+qconv*A77+(D77-M0)*cv*(E76+273.15)</f>
+        <v>98510229.969682097</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A77/(Volume)</f>
         <v>211199.99999999997</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="16"/>
-        <v>150.69353539885356</v>
+        <f t="shared" si="12"/>
+        <v>150.70847424627817</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="17"/>
-        <v>634.34069334381104</v>
+        <f t="shared" si="13"/>
+        <v>631.10554998095347</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="2">
         <v>630.68100000000004</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.659693343811</v>
+        <f t="shared" si="14"/>
+        <v>-0.42454998095342944</v>
       </c>
       <c r="I77" s="9">
-        <f t="shared" ref="I77:I101" si="24">H77/(E77+273.15)*100</f>
-        <v>-0.40327612951337372</v>
+        <f t="shared" ref="I77:I101" si="18">H77/(E77+273.15)*100</f>
+        <v>-4.6950221202664649E-2</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2">
         <v>213759</v>
       </c>
       <c r="L77" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>2559.0000000000291</v>
       </c>
       <c r="M77" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.81888000000000938</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>670</v>
       </c>
       <c r="B78">
-        <f t="shared" si="21"/>
-        <v>99883714.354429677</v>
+        <f>E0+qconv*A78+(D78-M0)*cv*(E77+273.15)</f>
+        <v>99532137.761584416</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A78/(Volume)</f>
         <v>214399.99999999997</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="16"/>
-        <v>150.71353539885357</v>
+        <f t="shared" si="12"/>
+        <v>150.72847424627818</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="17"/>
-        <v>643.68239406983696</v>
+        <f t="shared" si="13"/>
+        <v>640.36472498066496</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="2">
         <v>639.90899999999999</v>
       </c>
       <c r="H78" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.45572498066496792</v>
+      </c>
+      <c r="I78" s="9">
         <f t="shared" si="18"/>
-        <v>-3.7733940698369679</v>
-      </c>
-      <c r="I78" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.41156858049995348</v>
+        <v>-4.9886987938219995E-2</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2">
         <v>217018</v>
       </c>
       <c r="L78" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>2618.0000000000291</v>
       </c>
       <c r="M78" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.82926829268293611</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>680</v>
       </c>
       <c r="B79">
-        <f t="shared" si="21"/>
-        <v>100914939.13560621</v>
+        <f>E0+qconv*A79+(D79-M0)*cv*(E78+273.15)</f>
+        <v>100554313.27591814</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A79/(Volume)</f>
         <v>217599.99999999997</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" si="16"/>
-        <v>150.73353539885358</v>
+        <f t="shared" si="12"/>
+        <v>150.74847424627819</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="17"/>
-        <v>653.02509870072333</v>
+        <f t="shared" si="13"/>
+        <v>649.62389998037622</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="2">
         <v>649.13699999999994</v>
       </c>
       <c r="H79" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.48689998037627902</v>
+      </c>
+      <c r="I79" s="9">
         <f t="shared" si="18"/>
-        <v>-3.8880987007233898</v>
-      </c>
-      <c r="I79" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.41980168827447156</v>
+        <v>-5.2764819246256693E-2</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2">
         <v>220278</v>
       </c>
       <c r="L79" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>2678.0000000000291</v>
       </c>
       <c r="M79" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.83976168077768232</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>690</v>
       </c>
       <c r="B80">
-        <f t="shared" si="21"/>
-        <v>101946543.47084148</v>
+        <f>E0+qconv*A80+(D80-M0)*cv*(E79+273.15)</f>
+        <v>101576756.51268327</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A80/(Volume)</f>
         <v>220799.99999999997</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="16"/>
-        <v>150.75353539885356</v>
+        <f t="shared" si="12"/>
+        <v>150.76847424627817</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="17"/>
-        <v>662.36880739827529</v>
+        <f t="shared" si="13"/>
+        <v>658.88307498008771</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="2">
         <v>658.36300000000006</v>
       </c>
       <c r="H80" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.52007498008765651</v>
+      </c>
+      <c r="I80" s="9">
         <f t="shared" si="18"/>
-        <v>-4.0058073982752376</v>
-      </c>
-      <c r="I80" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.42819100659404047</v>
+        <v>-5.5800056247871627E-2</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2">
         <v>223538</v>
       </c>
       <c r="L80" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>2738.0000000000291</v>
       </c>
       <c r="M80" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.85004656938839762</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>700</v>
       </c>
       <c r="B81">
-        <f t="shared" si="21"/>
-        <v>102978527.42132188</v>
+        <f>E0+qconv*A81+(D81-M0)*cv*(E80+273.15)</f>
+        <v>102599467.47187985</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A81/(Volume)</f>
         <v>223999.99999999997</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" si="16"/>
-        <v>150.77353539885357</v>
+        <f t="shared" si="12"/>
+        <v>150.78847424627818</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="17"/>
-        <v>671.71352032433253</v>
+        <f t="shared" si="13"/>
+        <v>668.1422499797992</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="2">
         <v>667.59</v>
       </c>
       <c r="H81" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.55224997979917134</v>
+      </c>
+      <c r="I81" s="9">
         <f t="shared" si="18"/>
-        <v>-4.1235203243325032</v>
-      </c>
-      <c r="I81" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.43641438531959298</v>
+        <v>-5.8669343109010307E-2</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2">
         <v>226798</v>
       </c>
       <c r="L81" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>2798.0000000000291</v>
       </c>
       <c r="M81" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.86012911158931116</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>710</v>
       </c>
       <c r="B82">
-        <f t="shared" si="21"/>
-        <v>104010891.04824686</v>
+        <f>E0+qconv*A82+(D82-M0)*cv*(E81+273.15)</f>
+        <v>103622446.15350783</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A82/(Volume)</f>
         <v>227199.99999999997</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" si="16"/>
-        <v>150.79353539885355</v>
+        <f t="shared" si="12"/>
+        <v>150.80847424627817</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="17"/>
-        <v>681.05923764076954</v>
+        <f t="shared" si="13"/>
+        <v>677.40142497951058</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="2">
         <v>676.81500000000005</v>
       </c>
       <c r="H82" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.58642497951052519</v>
+      </c>
+      <c r="I82" s="9">
         <f t="shared" si="18"/>
-        <v>-4.2442376407694837</v>
-      </c>
-      <c r="I82" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.44479108704324966</v>
+        <v>-6.1693135594759196E-2</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2">
         <v>230060</v>
       </c>
       <c r="L82" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>2860.0000000000291</v>
       </c>
       <c r="M82" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.87062404870624932</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>720</v>
       </c>
       <c r="B83">
-        <f t="shared" si="21"/>
-        <v>105043634.41282913</v>
+        <f>E0+qconv*A83+(D83-M0)*cv*(E82+273.15)</f>
+        <v>104645692.55756724</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A83/(Volume)</f>
         <v>230399.99999999997</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" si="16"/>
-        <v>150.81353539885356</v>
+        <f t="shared" si="12"/>
+        <v>150.82847424627818</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="17"/>
-        <v>690.40595950949569</v>
+        <f t="shared" si="13"/>
+        <v>686.66059997922196</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="2">
         <v>686.04</v>
       </c>
       <c r="H83" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.62059997922199273</v>
+      </c>
+      <c r="I83" s="9">
         <f t="shared" si="18"/>
-        <v>-4.365959509495724</v>
-      </c>
-      <c r="I83" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.45310907647940274</v>
+        <v>-6.4658587770902665E-2</v>
       </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2">
         <v>233321</v>
       </c>
       <c r="L83" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>2921.0000000000291</v>
       </c>
       <c r="M83" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.88061501356648442</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>730</v>
       </c>
       <c r="B84">
-        <f t="shared" si="21"/>
-        <v>106076757.57629448</v>
+        <f>E0+qconv*A84+(D84-M0)*cv*(E83+273.15)</f>
+        <v>105669206.68405807</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A84/(Volume)</f>
         <v>233599.99999999997</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="16"/>
-        <v>150.83353539885357</v>
+        <f t="shared" si="12"/>
+        <v>150.84847424627819</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="17"/>
-        <v>699.75368609245515</v>
+        <f t="shared" si="13"/>
+        <v>695.91977497893333</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="2">
         <v>695.26400000000001</v>
       </c>
       <c r="H84" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.65577497893332293</v>
+      </c>
+      <c r="I84" s="9">
         <f t="shared" si="18"/>
-        <v>-4.4896860924551447</v>
-      </c>
-      <c r="I84" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.46147282168159959</v>
+        <v>-6.7670563654467386E-2</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2">
         <v>236584</v>
       </c>
       <c r="L84" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>2984.0000000000291</v>
       </c>
       <c r="M84" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.89101224246044464</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>740</v>
       </c>
       <c r="B85">
-        <f t="shared" si="21"/>
-        <v>107110260.59988183</v>
+        <f>E0+qconv*A85+(D85-M0)*cv*(E84+273.15)</f>
+        <v>106692988.53298031</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A85/(Volume)</f>
         <v>236799.99999999997</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="16"/>
-        <v>150.85353539885355</v>
+        <f t="shared" si="12"/>
+        <v>150.86847424627817</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="17"/>
-        <v>709.10241755162633</v>
+        <f t="shared" si="13"/>
+        <v>705.17894997864482</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="2">
         <v>704.48699999999997</v>
       </c>
       <c r="H85" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.69194997864485686</v>
+      </c>
+      <c r="I85" s="9">
         <f t="shared" si="18"/>
-        <v>-4.6154175516263649</v>
-      </c>
-      <c r="I85" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.46988100707665431</v>
+        <v>-7.0727742305894251E-2</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2">
         <v>239847</v>
       </c>
       <c r="L85" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3047.0000000000291</v>
       </c>
       <c r="M85" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.90121265897664271</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>750</v>
       </c>
       <c r="B86">
-        <f t="shared" si="21"/>
-        <v>108144143.54484338</v>
+        <f>E0+qconv*A86+(D86-M0)*cv*(E85+273.15)</f>
+        <v>107717038.10433398</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A86/(Volume)</f>
         <v>239999.99999999997</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="16"/>
-        <v>150.87353539885356</v>
+        <f t="shared" si="12"/>
+        <v>150.88847424627818</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="17"/>
-        <v>718.45215404902342</v>
+        <f t="shared" si="13"/>
+        <v>714.4381249783562</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="2">
         <v>713.70899999999995</v>
       </c>
       <c r="H86" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.72912497835625345</v>
+      </c>
+      <c r="I86" s="9">
         <f t="shared" si="18"/>
-        <v>-4.7431540490234738</v>
-      </c>
-      <c r="I86" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.47833236642898408</v>
+        <v>-7.382885232365799E-2</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2">
         <v>243111</v>
       </c>
       <c r="L86" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3111.0000000000291</v>
       </c>
       <c r="M86" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.9115147963668413</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>760</v>
       </c>
       <c r="B87">
-        <f t="shared" si="21"/>
-        <v>109178406.47244439</v>
+        <f>E0+qconv*A87+(D87-M0)*cv*(E86+273.15)</f>
+        <v>108741355.39811908</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A87/(Volume)</f>
         <v>243199.99999999997</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="16"/>
-        <v>150.89353539885357</v>
+        <f t="shared" si="12"/>
+        <v>150.90847424627819</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="17"/>
-        <v>727.80289574669462</v>
+        <f t="shared" si="13"/>
+        <v>723.69729997806758</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="2">
         <v>722.93100000000004</v>
       </c>
       <c r="H87" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.76629997806753636</v>
+      </c>
+      <c r="I87" s="9">
         <f t="shared" si="18"/>
-        <v>-4.8718957466945767</v>
-      </c>
-      <c r="I87" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.48672577574794079</v>
+        <v>-7.6872353276614819E-2</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2">
         <v>246375</v>
       </c>
       <c r="L87" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3175.0000000000291</v>
       </c>
       <c r="M87" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.92162554426706222</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>770</v>
       </c>
       <c r="B88">
-        <f t="shared" si="21"/>
-        <v>110213049.4439633</v>
+        <f>E0+qconv*A88+(D88-M0)*cv*(E87+273.15)</f>
+        <v>109765940.41433558</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A88/(Volume)</f>
         <v>246399.99999999994</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="16"/>
-        <v>150.91353539885355</v>
+        <f t="shared" si="12"/>
+        <v>150.92847424627817</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="17"/>
-        <v>737.15464280672347</v>
+        <f t="shared" si="13"/>
+        <v>732.95647497777907</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="2">
         <v>732.15200000000004</v>
       </c>
       <c r="H88" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.80447497777902299</v>
+      </c>
+      <c r="I88" s="9">
         <f t="shared" si="18"/>
-        <v>-5.0026428067234292</v>
-      </c>
-      <c r="I88" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.49516181503685924</v>
+        <v>-7.9959228748308242E-2</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2">
         <v>249640</v>
       </c>
       <c r="L88" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3240.0000000000582</v>
       </c>
       <c r="M88" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.93183779119932664</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>780</v>
       </c>
       <c r="B89">
-        <f t="shared" si="21"/>
-        <v>111248072.52069183</v>
+        <f>E0+qconv*A89+(D89-M0)*cv*(E88+273.15)</f>
+        <v>110790793.15298352</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A89/(Volume)</f>
         <v>249599.99999999994</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="16"/>
-        <v>150.93353539885356</v>
+        <f t="shared" si="12"/>
+        <v>150.94847424627818</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="17"/>
-        <v>746.50739539122799</v>
+        <f t="shared" si="13"/>
+        <v>742.21564997749044</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="2">
         <v>741.37199999999996</v>
       </c>
       <c r="H89" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.84364997749048598</v>
+      </c>
+      <c r="I89" s="9">
         <f t="shared" si="18"/>
-        <v>-5.1353953912280303</v>
-      </c>
-      <c r="I89" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.50363930222441555</v>
+        <v>-8.3088292134876618E-2</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2">
         <v>252905</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3305.0000000000582</v>
       </c>
       <c r="M89" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.9418637788543911</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>790</v>
       </c>
       <c r="B90">
-        <f t="shared" si="21"/>
-        <v>112283475.76393478</v>
+        <f>E0+qconv*A90+(D90-M0)*cv*(E89+273.15)</f>
+        <v>111815913.61406288</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A90/(Volume)</f>
         <v>252799.99999999994</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="16"/>
-        <v>150.95353539885357</v>
+        <f t="shared" si="12"/>
+        <v>150.96847424627819</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="17"/>
-        <v>755.86115366236152</v>
+        <f t="shared" si="13"/>
+        <v>751.47482497720182</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="2">
         <v>750.59199999999998</v>
       </c>
       <c r="H90" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.88282497720183528</v>
+      </c>
+      <c r="I90" s="9">
         <f t="shared" si="18"/>
-        <v>-5.269153662361532</v>
-      </c>
-      <c r="I90" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.51205991729127975</v>
+        <v>-8.6160803025778568E-2</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2">
         <v>256171</v>
       </c>
       <c r="L90" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3371.0000000000582</v>
       </c>
       <c r="M90" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.95199096300481756</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>800</v>
       </c>
       <c r="B91">
-        <f t="shared" si="21"/>
-        <v>113319259.23501009</v>
+        <f>E0+qconv*A91+(D91-M0)*cv*(E90+273.15)</f>
+        <v>112841301.79757363</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A91/(Volume)</f>
         <v>255999.99999999994</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="16"/>
-        <v>150.97353539885356</v>
+        <f t="shared" si="12"/>
+        <v>150.98847424627817</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="17"/>
-        <v>765.21591778231152</v>
+        <f t="shared" si="13"/>
+        <v>760.73399997691342</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="2">
         <v>759.81100000000004</v>
       </c>
       <c r="H91" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.92299997691338831</v>
+      </c>
+      <c r="I91" s="9">
         <f t="shared" si="18"/>
-        <v>-5.404917782311486</v>
-      </c>
-      <c r="I91" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.52052149341101561</v>
+        <v>-8.9275003475631581E-2</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2">
         <v>259438</v>
       </c>
       <c r="L91" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3438.0000000000582</v>
       </c>
       <c r="M91" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.9622166246851549</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>810</v>
       </c>
       <c r="B92">
-        <f t="shared" si="21"/>
-        <v>114355422.99524903</v>
+        <f>E0+qconv*A92+(D92-M0)*cv*(E91+273.15)</f>
+        <v>113866957.70351583</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A92/(Volume)</f>
         <v>259199.99999999994</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="16"/>
-        <v>150.99353539885357</v>
+        <f t="shared" si="12"/>
+        <v>151.00847424627818</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="17"/>
-        <v>774.57168791330093</v>
+        <f t="shared" si="13"/>
+        <v>769.9931749766248</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="2">
         <v>769.029</v>
       </c>
       <c r="H92" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.964174976624804</v>
+      </c>
+      <c r="I92" s="9">
         <f t="shared" si="18"/>
-        <v>-5.5426879133009379</v>
-      </c>
-      <c r="I92" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.52902292443139687</v>
+        <v>-9.2429783346510377E-2</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2">
         <v>262705</v>
       </c>
       <c r="L92" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3505.0000000000582</v>
       </c>
       <c r="M92" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.97226074895979431</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>820</v>
       </c>
       <c r="B93">
-        <f t="shared" si="21"/>
-        <v>115391967.10599594</v>
+        <f>E0+qconv*A93+(D93-M0)*cv*(E92+273.15)</f>
+        <v>114892881.33188942</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A93/(Volume)</f>
         <v>262399.99999999994</v>
       </c>
       <c r="D93" s="4">
-        <f t="shared" si="16"/>
-        <v>151.01353539885355</v>
+        <f t="shared" si="12"/>
+        <v>151.02847424627817</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="17"/>
-        <v>783.92846421758793</v>
+        <f t="shared" si="13"/>
+        <v>779.25234997633618</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="2">
         <v>778.24599999999998</v>
       </c>
       <c r="H93" s="4">
+        <f t="shared" si="14"/>
+        <v>-1.0063499763361961</v>
+      </c>
+      <c r="I93" s="9">
         <f t="shared" si="18"/>
-        <v>-5.682464217587949</v>
-      </c>
-      <c r="I93" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.53756314312901154</v>
+        <v>-9.5624071569093735E-2</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2">
         <v>265973</v>
       </c>
       <c r="L93" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3573.0000000000582</v>
       </c>
       <c r="M93" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.9824030794611105</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>830</v>
       </c>
       <c r="B94">
-        <f t="shared" si="21"/>
-        <v>116428891.62860841</v>
+        <f>E0+qconv*A94+(D94-M0)*cv*(E93+273.15)</f>
+        <v>115919072.68269446</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A94/(Volume)</f>
         <v>265599.99999999994</v>
       </c>
       <c r="D94" s="4">
-        <f t="shared" si="16"/>
-        <v>151.03353539885356</v>
+        <f t="shared" si="12"/>
+        <v>151.04847424627818</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="17"/>
-        <v>793.28624685746433</v>
+        <f t="shared" si="13"/>
+        <v>788.51152497604755</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="2">
         <v>787.46299999999997</v>
       </c>
       <c r="H94" s="4">
+        <f t="shared" si="14"/>
+        <v>-1.0485249760475881</v>
+      </c>
+      <c r="I94" s="9">
         <f t="shared" si="18"/>
-        <v>-5.823246857464369</v>
-      </c>
-      <c r="I94" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.54604734925543852</v>
+        <v>-9.876264246001043E-2</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2">
         <v>269241</v>
       </c>
       <c r="L94" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3641.0000000000582</v>
       </c>
       <c r="M94" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.99236849277733952</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>840</v>
       </c>
       <c r="B95">
-        <f t="shared" si="21"/>
-        <v>117466196.6244572</v>
+        <f>E0+qconv*A95+(D95-M0)*cv*(E94+273.15)</f>
+        <v>116945531.75593092</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A95/(Volume)</f>
         <v>268799.99999999994</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" si="16"/>
-        <v>151.05353539885357</v>
+        <f t="shared" si="12"/>
+        <v>151.06847424627819</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="17"/>
-        <v>802.6450359952579</v>
+        <f t="shared" si="13"/>
+        <v>797.77069997575893</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="2">
         <v>796.67899999999997</v>
       </c>
       <c r="H95" s="4">
+        <f t="shared" si="14"/>
+        <v>-1.0916999757589565</v>
+      </c>
+      <c r="I95" s="9">
         <f t="shared" si="18"/>
-        <v>-5.9660359952579256</v>
-      </c>
-      <c r="I95" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.55456995018930577</v>
+        <v>-0.10194031881012927</v>
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2">
         <v>272510</v>
       </c>
       <c r="L95" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3710.0000000000582</v>
       </c>
       <c r="M95" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>1.0024317751959089</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>850</v>
       </c>
       <c r="B96">
-        <f t="shared" si="21"/>
-        <v>118503882.15492623</v>
+        <f>E0+qconv*A96+(D96-M0)*cv*(E95+273.15)</f>
+        <v>117972258.55159877</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A96/(Volume)</f>
         <v>271999.99999999994</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" si="16"/>
-        <v>151.07353539885355</v>
+        <f t="shared" si="12"/>
+        <v>151.08847424627817</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="17"/>
-        <v>812.00483179333071</v>
+        <f t="shared" si="13"/>
+        <v>807.02987497547053</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="2">
         <v>805.89400000000001</v>
       </c>
       <c r="H96" s="4">
+        <f t="shared" si="14"/>
+        <v>-1.1358749754705286</v>
+      </c>
+      <c r="I96" s="9">
         <f t="shared" si="18"/>
-        <v>-6.1108317933307035</v>
-      </c>
-      <c r="I96" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.56312994369954761</v>
+        <v>-0.10515609499726357</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2">
         <v>275780</v>
       </c>
       <c r="L96" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3780.0000000000582</v>
       </c>
       <c r="M96" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>1.0125904098580389</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>860</v>
       </c>
       <c r="B97">
-        <f t="shared" si="21"/>
-        <v>119541948.28141274</v>
+        <f>E0+qconv*A97+(D97-M0)*cv*(E96+273.15)</f>
+        <v>118999253.06969807</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A97/(Volume)</f>
         <v>275199.99999999994</v>
       </c>
       <c r="D97" s="4">
-        <f t="shared" si="16"/>
-        <v>151.09353539885356</v>
+        <f t="shared" si="12"/>
+        <v>151.10847424627818</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="17"/>
-        <v>821.36563441408032</v>
+        <f t="shared" si="13"/>
+        <v>816.28904997518168</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="2">
         <v>815.10900000000004</v>
       </c>
       <c r="H97" s="4">
+        <f t="shared" si="14"/>
+        <v>-1.180049975181646</v>
+      </c>
+      <c r="I97" s="9">
         <f t="shared" si="18"/>
-        <v>-6.2566344140802812</v>
-      </c>
-      <c r="I97" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.57163499701213527</v>
+        <v>-0.10831720922877958</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2">
         <v>279050</v>
       </c>
       <c r="L97" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3850.0000000000582</v>
       </c>
       <c r="M97" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>1.0225763612217953</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>870</v>
       </c>
       <c r="B98">
-        <f t="shared" si="21"/>
-        <v>120580395.06532708</v>
+        <f>E0+qconv*A98+(D98-M0)*cv*(E97+273.15)</f>
+        <v>120026515.31022879</v>
       </c>
       <c r="C98" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A98/(Volume)</f>
         <v>278399.99999999994</v>
       </c>
       <c r="D98" s="4">
-        <f t="shared" si="16"/>
-        <v>151.11353539885357</v>
+        <f t="shared" si="12"/>
+        <v>151.12847424627819</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="17"/>
-        <v>830.72744401993907</v>
+        <f t="shared" si="13"/>
+        <v>825.54822497489329</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="2">
         <v>824.322</v>
       </c>
       <c r="H98" s="4">
+        <f t="shared" si="14"/>
+        <v>-1.2262249748932845</v>
+      </c>
+      <c r="I98" s="9">
         <f t="shared" si="18"/>
-        <v>-6.4054440199390683</v>
-      </c>
-      <c r="I98" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.5802676786847516</v>
+        <v>-0.11160707708627685</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2">
         <v>282321</v>
       </c>
       <c r="L98" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3921.0000000000582</v>
       </c>
       <c r="M98" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>1.032657361074548</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>880</v>
       </c>
       <c r="B99">
-        <f t="shared" si="21"/>
-        <v>121619222.56809278</v>
+        <f>E0+qconv*A99+(D99-M0)*cv*(E98+273.15)</f>
+        <v>121054045.27319092</v>
       </c>
       <c r="C99" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A99/(Volume)</f>
         <v>281599.99999999994</v>
       </c>
       <c r="D99" s="4">
-        <f t="shared" si="16"/>
-        <v>151.13353539885355</v>
+        <f t="shared" si="12"/>
+        <v>151.14847424627817</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="17"/>
-        <v>840.09026077337364</v>
+        <f t="shared" si="13"/>
+        <v>834.80739997460466</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="2">
         <v>833.53499999999997</v>
       </c>
       <c r="H99" s="4">
+        <f t="shared" si="14"/>
+        <v>-1.2723999746046957</v>
+      </c>
+      <c r="I99" s="9">
         <f t="shared" si="18"/>
-        <v>-6.555260773373675</v>
-      </c>
-      <c r="I99" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.5888451041844015</v>
+        <v>-0.11484195824080061</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2">
         <v>285592</v>
       </c>
       <c r="L99" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3992.0000000000582</v>
       </c>
       <c r="M99" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>1.0425698615826742</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>890</v>
       </c>
       <c r="B100">
-        <f t="shared" si="21"/>
-        <v>122658430.85114673</v>
+        <f>E0+qconv*A100+(D100-M0)*cv*(E99+273.15)</f>
+        <v>122081842.95858447</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A100/(Volume)</f>
         <v>284799.99999999994</v>
       </c>
       <c r="D100" s="4">
-        <f t="shared" si="16"/>
-        <v>151.15353539885356</v>
+        <f t="shared" si="12"/>
+        <v>151.16847424627818</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="17"/>
-        <v>849.45408483688664</v>
+        <f t="shared" si="13"/>
+        <v>844.06657497431604</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="2">
         <v>842.74800000000005</v>
       </c>
       <c r="H100" s="4">
+        <f t="shared" si="14"/>
+        <v>-1.3185749743159931</v>
+      </c>
+      <c r="I100" s="9">
         <f t="shared" si="18"/>
-        <v>-6.7060848368865891</v>
-      </c>
-      <c r="I100" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.5973686473678721</v>
+        <v>-0.11802321983508937</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2">
         <v>288864</v>
       </c>
       <c r="L100" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>4064.0000000000582</v>
       </c>
       <c r="M100" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>1.0525770525770677</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>900</v>
       </c>
       <c r="B101">
-        <f t="shared" si="21"/>
-        <v>123698019.97593889</v>
+        <f>E0+qconv*A101+(D101-M0)*cv*(E100+273.15)</f>
+        <v>123109908.36640945</v>
       </c>
       <c r="C101" s="4">
-        <f t="shared" si="22"/>
+        <f>(gamma-1)*qfire*A101/(Volume)</f>
         <v>287999.99999999994</v>
       </c>
       <c r="D101" s="4">
-        <f t="shared" si="16"/>
-        <v>151.17353539885357</v>
+        <f t="shared" si="12"/>
+        <v>151.18847424627819</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="17"/>
-        <v>858.81891637301453</v>
+        <f t="shared" si="13"/>
+        <v>853.32574997402742</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="2">
         <v>851.95899999999995</v>
       </c>
       <c r="H101" s="4">
+        <f t="shared" si="14"/>
+        <v>-1.3667499740274707</v>
+      </c>
+      <c r="I101" s="9">
         <f t="shared" si="18"/>
-        <v>-6.8599163730145847</v>
-      </c>
-      <c r="I101" s="9">
-        <f t="shared" si="24"/>
-        <v>-0.60601632021793572</v>
+        <v>-0.12132972894081237</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2">
         <v>292136</v>
       </c>
       <c r="L101" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>4136.0000000000582</v>
       </c>
       <c r="M101" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>1.0624197277164291</v>
       </c>
     </row>
@@ -7963,9 +7963,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7974,7 +7976,7 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7994,7 +7996,7 @@
       </c>
       <c r="B3" s="4">
         <f>Sheet1!E12</f>
-        <v>29.27579902160079</v>
+        <v>29.259174999711433</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8004,7 +8006,7 @@
       </c>
       <c r="B4" s="4">
         <f>Sheet1!E13</f>
-        <v>38.552591345340716</v>
+        <v>38.51834999942281</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8014,7 +8016,7 @@
       </c>
       <c r="B5" s="4">
         <f>Sheet1!E14</f>
-        <v>47.830377130750833</v>
+        <v>47.777524999134243</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8024,7 +8026,7 @@
       </c>
       <c r="B6" s="4">
         <f>Sheet1!E15</f>
-        <v>57.109156537395904</v>
+        <v>57.03669999884562</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8034,7 +8036,7 @@
       </c>
       <c r="B7" s="4">
         <f>Sheet1!E16</f>
-        <v>66.38892972487514</v>
+        <v>66.295874998557053</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8044,7 +8046,7 @@
       </c>
       <c r="B8" s="4">
         <f>Sheet1!E17</f>
-        <v>75.669696852821858</v>
+        <v>75.555049998268487</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8054,7 +8056,7 @@
       </c>
       <c r="B9" s="4">
         <f>Sheet1!E18</f>
-        <v>84.951458080903421</v>
+        <v>84.814224997979863</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8064,7 +8066,7 @@
       </c>
       <c r="B10" s="4">
         <f>Sheet1!E19</f>
-        <v>94.234213568821588</v>
+        <v>94.07339999769124</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8074,7 +8076,7 @@
       </c>
       <c r="B11" s="4">
         <f>Sheet1!E20</f>
-        <v>103.51796347631227</v>
+        <v>103.33257499740267</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8084,7 +8086,7 @@
       </c>
       <c r="B12" s="4">
         <f>Sheet1!E21</f>
-        <v>112.80270796314556</v>
+        <v>112.59174999711411</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8094,7 +8096,7 @@
       </c>
       <c r="B13" s="4">
         <f>Sheet1!E22</f>
-        <v>122.0884471891257</v>
+        <v>121.8509249968256</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8104,7 +8106,7 @@
       </c>
       <c r="B14" s="4">
         <f>Sheet1!E23</f>
-        <v>131.37518131409132</v>
+        <v>131.11009999653697</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8114,7 +8116,7 @@
       </c>
       <c r="B15" s="4">
         <f>Sheet1!E24</f>
-        <v>140.66291049791505</v>
+        <v>140.36927499624841</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8124,7 +8126,7 @@
       </c>
       <c r="B16" s="4">
         <f>Sheet1!E25</f>
-        <v>149.95163490050419</v>
+        <v>149.62844999595978</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8134,7 +8136,7 @@
       </c>
       <c r="B17" s="4">
         <f>Sheet1!E26</f>
-        <v>159.24135468179986</v>
+        <v>158.88762499567127</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8144,7 +8146,7 @@
       </c>
       <c r="B18" s="4">
         <f>Sheet1!E27</f>
-        <v>168.53207000177764</v>
+        <v>168.14679999538265</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8154,7 +8156,7 @@
       </c>
       <c r="B19" s="4">
         <f>Sheet1!E28</f>
-        <v>177.82378102044743</v>
+        <v>177.40597499509408</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8164,7 +8166,7 @@
       </c>
       <c r="B20" s="4">
         <f>Sheet1!E29</f>
-        <v>187.11648789785323</v>
+        <v>186.66514999480546</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8174,7 +8176,7 @@
       </c>
       <c r="B21" s="4">
         <f>Sheet1!E30</f>
-        <v>196.41019079407351</v>
+        <v>195.92432499451689</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8184,7 +8186,7 @@
       </c>
       <c r="B22" s="4">
         <f>Sheet1!E31</f>
-        <v>205.70488986922112</v>
+        <v>205.18349999422833</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8194,7 +8196,7 @@
       </c>
       <c r="B23" s="4">
         <f>Sheet1!E32</f>
-        <v>215.000585283443</v>
+        <v>214.4426749939397</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8204,7 +8206,7 @@
       </c>
       <c r="B24" s="4">
         <f>Sheet1!E33</f>
-        <v>224.2972771969205</v>
+        <v>223.70184999365108</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8214,7 +8216,7 @@
       </c>
       <c r="B25" s="4">
         <f>Sheet1!E34</f>
-        <v>233.5949657698693</v>
+        <v>232.96102499336257</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8224,7 +8226,7 @@
       </c>
       <c r="B26" s="4">
         <f>Sheet1!E35</f>
-        <v>242.89365116253953</v>
+        <v>242.22019999307395</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8234,7 +8236,7 @@
       </c>
       <c r="B27" s="4">
         <f>Sheet1!E36</f>
-        <v>252.1933335352154</v>
+        <v>251.47937499278544</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8244,7 +8246,7 @@
       </c>
       <c r="B28" s="4">
         <f>Sheet1!E37</f>
-        <v>261.49401304821583</v>
+        <v>260.73854999249681</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8254,7 +8256,7 @@
       </c>
       <c r="B29" s="4">
         <f>Sheet1!E38</f>
-        <v>270.79568986189383</v>
+        <v>269.99772499220819</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8264,7 +8266,7 @@
       </c>
       <c r="B30" s="4">
         <f>Sheet1!E39</f>
-        <v>280.09836413663697</v>
+        <v>279.25689999191968</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8274,7 +8276,7 @@
       </c>
       <c r="B31" s="4">
         <f>Sheet1!E40</f>
-        <v>289.40203603286716</v>
+        <v>288.51607499163106</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8284,7 +8286,7 @@
       </c>
       <c r="B32" s="4">
         <f>Sheet1!E41</f>
-        <v>298.7067057110404</v>
+        <v>297.77524999134255</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -8294,7 +8296,7 @@
       </c>
       <c r="B33" s="4">
         <f>Sheet1!E42</f>
-        <v>308.01237333164761</v>
+        <v>307.03442499105392</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8304,7 +8306,7 @@
       </c>
       <c r="B34" s="4">
         <f>Sheet1!E43</f>
-        <v>317.31903905521392</v>
+        <v>316.2935999907653</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8314,7 +8316,7 @@
       </c>
       <c r="B35" s="4">
         <f>Sheet1!E44</f>
-        <v>326.6267030422988</v>
+        <v>325.55277499047668</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8324,7 +8326,7 @@
       </c>
       <c r="B36" s="4">
         <f>Sheet1!E45</f>
-        <v>335.93536545349605</v>
+        <v>334.81194999018817</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8334,7 +8336,7 @@
       </c>
       <c r="B37" s="4">
         <f>Sheet1!E46</f>
-        <v>345.24502644943414</v>
+        <v>344.07112498989954</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8344,7 +8346,7 @@
       </c>
       <c r="B38" s="4">
         <f>Sheet1!E47</f>
-        <v>354.5556861907761</v>
+        <v>353.33029998961104</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8354,7 +8356,7 @@
       </c>
       <c r="B39" s="4">
         <f>Sheet1!E48</f>
-        <v>363.86734483821897</v>
+        <v>362.58947498932253</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8364,7 +8366,7 @@
       </c>
       <c r="B40" s="4">
         <f>Sheet1!E49</f>
-        <v>373.18000255249478</v>
+        <v>371.84864998903379</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8374,7 +8376,7 @@
       </c>
       <c r="B41" s="4">
         <f>Sheet1!E50</f>
-        <v>382.49365949436958</v>
+        <v>381.10782498874528</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8384,7 +8386,7 @@
       </c>
       <c r="B42" s="4">
         <f>Sheet1!E51</f>
-        <v>391.80831582464418</v>
+        <v>390.36699998845666</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8394,7 +8396,7 @@
       </c>
       <c r="B43" s="4">
         <f>Sheet1!E52</f>
-        <v>401.12397170415375</v>
+        <v>399.62617498816815</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8404,7 +8406,7 @@
       </c>
       <c r="B44" s="4">
         <f>Sheet1!E53</f>
-        <v>410.44062729376822</v>
+        <v>408.88534998787952</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8414,7 +8416,7 @@
       </c>
       <c r="B45" s="4">
         <f>Sheet1!E54</f>
-        <v>419.75828275439176</v>
+        <v>418.1445249875909</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8424,7 +8426,7 @@
       </c>
       <c r="B46" s="4">
         <f>Sheet1!E55</f>
-        <v>429.0769382469631</v>
+        <v>427.40369998730228</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8434,7 +8436,7 @@
       </c>
       <c r="B47" s="4">
         <f>Sheet1!E56</f>
-        <v>438.39659393245563</v>
+        <v>436.66287498701365</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8444,7 +8446,7 @@
       </c>
       <c r="B48" s="4">
         <f>Sheet1!E57</f>
-        <v>447.7172499718771</v>
+        <v>445.92204998672514</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8454,7 +8456,7 @@
       </c>
       <c r="B49" s="4">
         <f>Sheet1!E58</f>
-        <v>457.03890652627024</v>
+        <v>455.18122498643652</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -8464,7 +8466,7 @@
       </c>
       <c r="B50" s="4">
         <f>Sheet1!E59</f>
-        <v>466.3615637567118</v>
+        <v>464.44039998614801</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8474,7 +8476,7 @@
       </c>
       <c r="B51" s="4">
         <f>Sheet1!E60</f>
-        <v>475.68522182431332</v>
+        <v>473.69957498585939</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -8484,7 +8486,7 @@
       </c>
       <c r="B52" s="4">
         <f>Sheet1!E61</f>
-        <v>485.00988089022098</v>
+        <v>482.95874998557088</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8494,7 +8496,7 @@
       </c>
       <c r="B53" s="4">
         <f>Sheet1!E62</f>
-        <v>494.33554111561568</v>
+        <v>492.21792498528214</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -8504,7 +8506,7 @@
       </c>
       <c r="B54" s="4">
         <f>Sheet1!E63</f>
-        <v>503.66220266171229</v>
+        <v>501.47709998499363</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -8514,7 +8516,7 @@
       </c>
       <c r="B55" s="4">
         <f>Sheet1!E64</f>
-        <v>512.98986568976136</v>
+        <v>510.73627498470512</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -8524,7 +8526,7 @@
       </c>
       <c r="B56" s="4">
         <f>Sheet1!E65</f>
-        <v>522.3185303610469</v>
+        <v>519.9954499844165</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -8534,7 +8536,7 @@
       </c>
       <c r="B57" s="4">
         <f>Sheet1!E66</f>
-        <v>531.64819683688847</v>
+        <v>529.25462498412787</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -8544,7 +8546,7 @@
       </c>
       <c r="B58" s="4">
         <f>Sheet1!E67</f>
-        <v>540.97886527863977</v>
+        <v>538.51379998383936</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -8554,7 +8556,7 @@
       </c>
       <c r="B59" s="4">
         <f>Sheet1!E68</f>
-        <v>550.31053584768904</v>
+        <v>547.77297498355074</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -8564,7 +8566,7 @@
       </c>
       <c r="B60" s="4">
         <f>Sheet1!E69</f>
-        <v>559.64320870545987</v>
+        <v>557.03214998326212</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -8574,7 +8576,7 @@
       </c>
       <c r="B61" s="4">
         <f>Sheet1!E70</f>
-        <v>568.97688401340974</v>
+        <v>566.29132498297361</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8584,7 +8586,7 @@
       </c>
       <c r="B62" s="4">
         <f>Sheet1!E71</f>
-        <v>578.31156193303104</v>
+        <v>575.55049998268498</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -8594,7 +8596,7 @@
       </c>
       <c r="B63" s="4">
         <f>Sheet1!E72</f>
-        <v>587.64724262585116</v>
+        <v>584.80967498239636</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -8604,7 +8606,7 @@
       </c>
       <c r="B64" s="4">
         <f>Sheet1!E73</f>
-        <v>596.98392625343172</v>
+        <v>594.06884998210774</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -8614,7 +8616,7 @@
       </c>
       <c r="B65" s="4">
         <f>Sheet1!E74</f>
-        <v>606.32161297736934</v>
+        <v>603.32802498181923</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -8624,7 +8626,7 @@
       </c>
       <c r="B66" s="4">
         <f>Sheet1!E75</f>
-        <v>615.66030295929545</v>
+        <v>612.58719998153072</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -8634,7 +8636,7 @@
       </c>
       <c r="B67" s="4">
         <f>Sheet1!E76</f>
-        <v>624.99999636087568</v>
+        <v>621.84637498124221</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -8644,7 +8646,7 @@
       </c>
       <c r="B68" s="4">
         <f>Sheet1!E77</f>
-        <v>634.34069334381104</v>
+        <v>631.10554998095347</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -8654,7 +8656,7 @@
       </c>
       <c r="B69" s="4">
         <f>Sheet1!E78</f>
-        <v>643.68239406983696</v>
+        <v>640.36472498066496</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -8664,7 +8666,7 @@
       </c>
       <c r="B70" s="4">
         <f>Sheet1!E79</f>
-        <v>653.02509870072333</v>
+        <v>649.62389998037622</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -8674,7 +8676,7 @@
       </c>
       <c r="B71" s="4">
         <f>Sheet1!E80</f>
-        <v>662.36880739827529</v>
+        <v>658.88307498008771</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -8684,7 +8686,7 @@
       </c>
       <c r="B72" s="4">
         <f>Sheet1!E81</f>
-        <v>671.71352032433253</v>
+        <v>668.1422499797992</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -8694,7 +8696,7 @@
       </c>
       <c r="B73" s="4">
         <f>Sheet1!E82</f>
-        <v>681.05923764076954</v>
+        <v>677.40142497951058</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -8704,7 +8706,7 @@
       </c>
       <c r="B74" s="4">
         <f>Sheet1!E83</f>
-        <v>690.40595950949569</v>
+        <v>686.66059997922196</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -8714,7 +8716,7 @@
       </c>
       <c r="B75" s="4">
         <f>Sheet1!E84</f>
-        <v>699.75368609245515</v>
+        <v>695.91977497893333</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -8724,7 +8726,7 @@
       </c>
       <c r="B76" s="4">
         <f>Sheet1!E85</f>
-        <v>709.10241755162633</v>
+        <v>705.17894997864482</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -8734,7 +8736,7 @@
       </c>
       <c r="B77" s="4">
         <f>Sheet1!E86</f>
-        <v>718.45215404902342</v>
+        <v>714.4381249783562</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -8744,7 +8746,7 @@
       </c>
       <c r="B78" s="4">
         <f>Sheet1!E87</f>
-        <v>727.80289574669462</v>
+        <v>723.69729997806758</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -8754,7 +8756,7 @@
       </c>
       <c r="B79" s="4">
         <f>Sheet1!E88</f>
-        <v>737.15464280672347</v>
+        <v>732.95647497777907</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -8764,7 +8766,7 @@
       </c>
       <c r="B80" s="4">
         <f>Sheet1!E89</f>
-        <v>746.50739539122799</v>
+        <v>742.21564997749044</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -8774,7 +8776,7 @@
       </c>
       <c r="B81" s="4">
         <f>Sheet1!E90</f>
-        <v>755.86115366236152</v>
+        <v>751.47482497720182</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -8784,7 +8786,7 @@
       </c>
       <c r="B82" s="4">
         <f>Sheet1!E91</f>
-        <v>765.21591778231152</v>
+        <v>760.73399997691342</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -8794,7 +8796,7 @@
       </c>
       <c r="B83" s="4">
         <f>Sheet1!E92</f>
-        <v>774.57168791330093</v>
+        <v>769.9931749766248</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -8804,7 +8806,7 @@
       </c>
       <c r="B84" s="4">
         <f>Sheet1!E93</f>
-        <v>783.92846421758793</v>
+        <v>779.25234997633618</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -8814,7 +8816,7 @@
       </c>
       <c r="B85" s="4">
         <f>Sheet1!E94</f>
-        <v>793.28624685746433</v>
+        <v>788.51152497604755</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -8824,7 +8826,7 @@
       </c>
       <c r="B86" s="4">
         <f>Sheet1!E95</f>
-        <v>802.6450359952579</v>
+        <v>797.77069997575893</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -8834,7 +8836,7 @@
       </c>
       <c r="B87" s="4">
         <f>Sheet1!E96</f>
-        <v>812.00483179333071</v>
+        <v>807.02987497547053</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -8844,7 +8846,7 @@
       </c>
       <c r="B88" s="4">
         <f>Sheet1!E97</f>
-        <v>821.36563441408032</v>
+        <v>816.28904997518168</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -8854,7 +8856,7 @@
       </c>
       <c r="B89" s="4">
         <f>Sheet1!E98</f>
-        <v>830.72744401993907</v>
+        <v>825.54822497489329</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -8864,7 +8866,7 @@
       </c>
       <c r="B90" s="4">
         <f>Sheet1!E99</f>
-        <v>840.09026077337364</v>
+        <v>834.80739997460466</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -8874,7 +8876,7 @@
       </c>
       <c r="B91" s="4">
         <f>Sheet1!E100</f>
-        <v>849.45408483688664</v>
+        <v>844.06657497431604</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -8884,17 +8886,8 @@
       </c>
       <c r="B92" s="4">
         <f>Sheet1!E101</f>
-        <v>858.81891637301453</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="4"/>
+        <v>853.32574997402742</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
